--- a/database/industries/methanol/shekhark/product/monthly.xlsx
+++ b/database/industries/methanol/shekhark/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA483C-21F0-40F8-A637-2EE481FA25C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDDB47-AD7F-4CDB-A4BE-FBEBC19F4567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>گوگرد</t>
@@ -1418,139 +1418,139 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>11222</v>
+        <v>10638</v>
       </c>
       <c r="F11" s="11">
-        <v>11423</v>
+        <v>10922</v>
       </c>
       <c r="G11" s="11">
-        <v>10638</v>
+        <v>10770</v>
       </c>
       <c r="H11" s="11">
-        <v>10922</v>
+        <v>10795</v>
       </c>
       <c r="I11" s="11">
-        <v>10770</v>
+        <v>10623</v>
       </c>
       <c r="J11" s="11">
-        <v>10795</v>
+        <v>10864</v>
       </c>
       <c r="K11" s="11">
-        <v>10623</v>
+        <v>11962</v>
       </c>
       <c r="L11" s="11">
-        <v>10864</v>
+        <v>12062</v>
       </c>
       <c r="M11" s="11">
-        <v>11962</v>
+        <v>11224</v>
       </c>
       <c r="N11" s="11">
-        <v>12062</v>
+        <v>11219</v>
       </c>
       <c r="O11" s="11">
-        <v>11224</v>
+        <v>11382</v>
       </c>
       <c r="P11" s="11">
-        <v>11219</v>
+        <v>11139</v>
       </c>
       <c r="Q11" s="11">
-        <v>11382</v>
+        <v>11714</v>
       </c>
       <c r="R11" s="11">
-        <v>11139</v>
+        <v>11660</v>
       </c>
       <c r="S11" s="11">
-        <v>11714</v>
+        <v>10709</v>
       </c>
       <c r="T11" s="11">
-        <v>11660</v>
+        <v>10630</v>
       </c>
       <c r="U11" s="11">
-        <v>10709</v>
+        <v>9319</v>
       </c>
       <c r="V11" s="11">
-        <v>10630</v>
+        <v>7988</v>
       </c>
       <c r="W11" s="11">
-        <v>9319</v>
+        <v>5301</v>
       </c>
       <c r="X11" s="11">
+        <v>4300</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>4739</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>6119</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>66440</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>6940</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>6499</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>1070</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>8383</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>8627</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>6277</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>7533</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>7470</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>5063</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>6535</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>4979</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>8299</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>8061</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>7717</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>6939</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>7175</v>
+      </c>
+      <c r="AR11" s="11">
         <v>7988</v>
       </c>
-      <c r="Y11" s="11">
-        <v>5301</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>4300</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>4739</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>6119</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>66440</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>6940</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>6499</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>1070</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>8383</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>8627</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>6277</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>7533</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>7470</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>5063</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>6535</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>4979</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>8299</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>8061</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>7717</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>6939</v>
-      </c>
       <c r="AS11" s="11">
-        <v>7175</v>
+        <v>9080</v>
       </c>
       <c r="AT11" s="11">
-        <v>7988</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>9080</v>
-      </c>
-      <c r="AV11" s="11">
         <v>8926</v>
       </c>
-      <c r="AW11" s="11">
-        <v>8249</v>
+      <c r="AU11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX11" s="11" t="s">
         <v>57</v>
@@ -1577,139 +1577,139 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>57293</v>
+        <v>52817</v>
       </c>
       <c r="F12" s="13">
-        <v>57382</v>
+        <v>52800</v>
       </c>
       <c r="G12" s="13">
-        <v>52817</v>
+        <v>51131</v>
       </c>
       <c r="H12" s="13">
-        <v>52800</v>
+        <v>57094</v>
       </c>
       <c r="I12" s="13">
-        <v>51131</v>
+        <v>56001</v>
       </c>
       <c r="J12" s="13">
-        <v>57094</v>
+        <v>60805</v>
       </c>
       <c r="K12" s="13">
-        <v>56001</v>
+        <v>57202</v>
       </c>
       <c r="L12" s="13">
-        <v>60805</v>
+        <v>46794</v>
       </c>
       <c r="M12" s="13">
-        <v>57202</v>
+        <v>49140</v>
       </c>
       <c r="N12" s="13">
-        <v>46794</v>
+        <v>51746</v>
       </c>
       <c r="O12" s="13">
-        <v>49140</v>
+        <v>37761</v>
       </c>
       <c r="P12" s="13">
-        <v>51746</v>
+        <v>49901</v>
       </c>
       <c r="Q12" s="13">
-        <v>37761</v>
+        <v>48818</v>
       </c>
       <c r="R12" s="13">
-        <v>49901</v>
+        <v>49373</v>
       </c>
       <c r="S12" s="13">
-        <v>48818</v>
+        <v>49867</v>
       </c>
       <c r="T12" s="13">
-        <v>49373</v>
+        <v>47870</v>
       </c>
       <c r="U12" s="13">
-        <v>49867</v>
+        <v>53945</v>
       </c>
       <c r="V12" s="13">
-        <v>47870</v>
+        <v>59257</v>
       </c>
       <c r="W12" s="13">
-        <v>53945</v>
+        <v>46096</v>
       </c>
       <c r="X12" s="13">
-        <v>59257</v>
+        <v>58173</v>
       </c>
       <c r="Y12" s="13">
-        <v>46096</v>
+        <v>58809</v>
       </c>
       <c r="Z12" s="13">
-        <v>58173</v>
+        <v>57818</v>
       </c>
       <c r="AA12" s="13">
-        <v>58809</v>
+        <v>58241</v>
       </c>
       <c r="AB12" s="13">
-        <v>57818</v>
+        <v>44206</v>
       </c>
       <c r="AC12" s="13">
-        <v>58241</v>
+        <v>47370</v>
       </c>
       <c r="AD12" s="13">
-        <v>44206</v>
+        <v>51980</v>
       </c>
       <c r="AE12" s="13">
-        <v>47370</v>
+        <v>47376</v>
       </c>
       <c r="AF12" s="13">
-        <v>51980</v>
+        <v>54519</v>
       </c>
       <c r="AG12" s="13">
-        <v>47376</v>
+        <v>53288</v>
       </c>
       <c r="AH12" s="13">
-        <v>54519</v>
+        <v>55287</v>
       </c>
       <c r="AI12" s="13">
-        <v>53288</v>
+        <v>34495</v>
       </c>
       <c r="AJ12" s="13">
-        <v>55287</v>
+        <v>13071</v>
       </c>
       <c r="AK12" s="13">
-        <v>34495</v>
+        <v>61428</v>
       </c>
       <c r="AL12" s="13">
-        <v>13071</v>
+        <v>57554</v>
       </c>
       <c r="AM12" s="13">
-        <v>61428</v>
+        <v>61164</v>
       </c>
       <c r="AN12" s="13">
-        <v>57554</v>
+        <v>59311</v>
       </c>
       <c r="AO12" s="13">
-        <v>61164</v>
+        <v>55026</v>
       </c>
       <c r="AP12" s="13">
-        <v>59311</v>
+        <v>59527</v>
       </c>
       <c r="AQ12" s="13">
-        <v>55026</v>
+        <v>58891</v>
       </c>
       <c r="AR12" s="13">
-        <v>59527</v>
+        <v>60355</v>
       </c>
       <c r="AS12" s="13">
-        <v>58891</v>
+        <v>49330</v>
       </c>
       <c r="AT12" s="13">
-        <v>60355</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>49330</v>
-      </c>
-      <c r="AV12" s="13">
         <v>41724</v>
       </c>
-      <c r="AW12" s="13">
-        <v>58219</v>
+      <c r="AU12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX12" s="13" t="s">
         <v>57</v>
@@ -1736,154 +1736,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>12726</v>
+        <v>10498</v>
       </c>
       <c r="F13" s="11">
-        <v>14383</v>
+        <v>7898</v>
       </c>
       <c r="G13" s="11">
-        <v>10498</v>
+        <v>6736</v>
       </c>
       <c r="H13" s="11">
-        <v>7898</v>
+        <v>4624</v>
       </c>
       <c r="I13" s="11">
-        <v>6736</v>
+        <v>5073</v>
       </c>
       <c r="J13" s="11">
-        <v>4624</v>
+        <v>5617</v>
       </c>
       <c r="K13" s="11">
-        <v>5073</v>
+        <v>9067</v>
       </c>
       <c r="L13" s="11">
-        <v>5617</v>
+        <v>9775</v>
       </c>
       <c r="M13" s="11">
-        <v>9067</v>
+        <v>5069</v>
       </c>
       <c r="N13" s="11">
-        <v>9775</v>
+        <v>5242</v>
       </c>
       <c r="O13" s="11">
-        <v>5069</v>
+        <v>6947</v>
       </c>
       <c r="P13" s="11">
-        <v>5242</v>
+        <v>6568</v>
       </c>
       <c r="Q13" s="11">
-        <v>6947</v>
+        <v>7254</v>
       </c>
       <c r="R13" s="11">
-        <v>6568</v>
+        <v>8706</v>
       </c>
       <c r="S13" s="11">
-        <v>7254</v>
+        <v>8836</v>
       </c>
       <c r="T13" s="11">
-        <v>8706</v>
+        <v>8670</v>
       </c>
       <c r="U13" s="11">
-        <v>8836</v>
+        <v>8645</v>
       </c>
       <c r="V13" s="11">
-        <v>8670</v>
+        <v>9256</v>
       </c>
       <c r="W13" s="11">
-        <v>8645</v>
+        <v>7739</v>
       </c>
       <c r="X13" s="11">
-        <v>9256</v>
+        <v>8778</v>
       </c>
       <c r="Y13" s="11">
-        <v>7739</v>
+        <v>8074</v>
       </c>
       <c r="Z13" s="11">
-        <v>8778</v>
+        <v>8167</v>
       </c>
       <c r="AA13" s="11">
-        <v>8074</v>
+        <v>8300</v>
       </c>
       <c r="AB13" s="11">
-        <v>8167</v>
+        <v>7727</v>
       </c>
       <c r="AC13" s="11">
-        <v>8300</v>
+        <v>8169</v>
       </c>
       <c r="AD13" s="11">
-        <v>7727</v>
+        <v>1319</v>
       </c>
       <c r="AE13" s="11">
-        <v>8169</v>
+        <v>10611</v>
       </c>
       <c r="AF13" s="11">
-        <v>1319</v>
+        <v>11651</v>
       </c>
       <c r="AG13" s="11">
-        <v>10611</v>
+        <v>6685</v>
       </c>
       <c r="AH13" s="11">
-        <v>11651</v>
+        <v>8674</v>
       </c>
       <c r="AI13" s="11">
-        <v>6685</v>
+        <v>11313</v>
       </c>
       <c r="AJ13" s="11">
-        <v>8674</v>
+        <v>8472</v>
       </c>
       <c r="AK13" s="11">
-        <v>11313</v>
+        <v>9228</v>
       </c>
       <c r="AL13" s="11">
-        <v>8472</v>
+        <v>10890</v>
       </c>
       <c r="AM13" s="11">
-        <v>9228</v>
+        <v>10714</v>
       </c>
       <c r="AN13" s="11">
-        <v>10890</v>
+        <v>8271</v>
       </c>
       <c r="AO13" s="11">
-        <v>10714</v>
+        <v>8156</v>
       </c>
       <c r="AP13" s="11">
-        <v>8271</v>
+        <v>8491</v>
       </c>
       <c r="AQ13" s="11">
-        <v>8156</v>
+        <v>8188</v>
       </c>
       <c r="AR13" s="11">
-        <v>8491</v>
+        <v>9023</v>
       </c>
       <c r="AS13" s="11">
-        <v>8188</v>
+        <v>6844</v>
       </c>
       <c r="AT13" s="11">
-        <v>9023</v>
+        <v>9287</v>
       </c>
       <c r="AU13" s="11">
-        <v>6844</v>
+        <v>8380</v>
       </c>
       <c r="AV13" s="11">
-        <v>9453</v>
+        <v>8862</v>
       </c>
       <c r="AW13" s="11">
-        <v>8552</v>
+        <v>8745</v>
       </c>
       <c r="AX13" s="11">
-        <v>8862</v>
+        <v>8859</v>
       </c>
       <c r="AY13" s="11">
-        <v>8745</v>
+        <v>8681</v>
       </c>
       <c r="AZ13" s="11">
-        <v>7972</v>
+        <v>9982</v>
       </c>
       <c r="BA13" s="11">
-        <v>8681</v>
+        <v>11190</v>
       </c>
       <c r="BB13" s="11">
-        <v>9982</v>
+        <v>11126</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1895,154 +1895,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>9531</v>
+        <v>6167</v>
       </c>
       <c r="F14" s="13">
-        <v>12574</v>
+        <v>1933</v>
       </c>
       <c r="G14" s="13">
-        <v>6167</v>
+        <v>4009</v>
       </c>
       <c r="H14" s="13">
-        <v>1933</v>
+        <v>2860</v>
       </c>
       <c r="I14" s="13">
-        <v>4009</v>
+        <v>4262</v>
       </c>
       <c r="J14" s="13">
-        <v>2860</v>
+        <v>5563</v>
       </c>
       <c r="K14" s="13">
-        <v>4262</v>
+        <v>7075</v>
       </c>
       <c r="L14" s="13">
-        <v>5563</v>
+        <v>7085</v>
       </c>
       <c r="M14" s="13">
-        <v>7075</v>
+        <v>5596</v>
       </c>
       <c r="N14" s="13">
-        <v>7085</v>
+        <v>6164</v>
       </c>
       <c r="O14" s="13">
-        <v>5596</v>
+        <v>5647</v>
       </c>
       <c r="P14" s="13">
-        <v>6164</v>
+        <v>5138</v>
       </c>
       <c r="Q14" s="13">
-        <v>5647</v>
+        <v>5998</v>
       </c>
       <c r="R14" s="13">
-        <v>5138</v>
+        <v>6834</v>
       </c>
       <c r="S14" s="13">
-        <v>5998</v>
+        <v>6994</v>
       </c>
       <c r="T14" s="13">
-        <v>6834</v>
+        <v>5972</v>
       </c>
       <c r="U14" s="13">
-        <v>6994</v>
+        <v>7366</v>
       </c>
       <c r="V14" s="13">
-        <v>5972</v>
+        <v>7647</v>
       </c>
       <c r="W14" s="13">
-        <v>7366</v>
+        <v>5957</v>
       </c>
       <c r="X14" s="13">
-        <v>7647</v>
+        <v>5966</v>
       </c>
       <c r="Y14" s="13">
-        <v>5957</v>
+        <v>5658</v>
       </c>
       <c r="Z14" s="13">
-        <v>5966</v>
+        <v>6830</v>
       </c>
       <c r="AA14" s="13">
-        <v>5658</v>
+        <v>6970</v>
       </c>
       <c r="AB14" s="13">
-        <v>6830</v>
+        <v>6623</v>
       </c>
       <c r="AC14" s="13">
-        <v>6970</v>
+        <v>6846</v>
       </c>
       <c r="AD14" s="13">
-        <v>6623</v>
+        <v>567</v>
       </c>
       <c r="AE14" s="13">
-        <v>6846</v>
+        <v>9168</v>
       </c>
       <c r="AF14" s="13">
-        <v>567</v>
+        <v>8714</v>
       </c>
       <c r="AG14" s="13">
-        <v>9168</v>
+        <v>4835</v>
       </c>
       <c r="AH14" s="13">
-        <v>8714</v>
+        <v>6080</v>
       </c>
       <c r="AI14" s="13">
-        <v>4835</v>
+        <v>8800</v>
       </c>
       <c r="AJ14" s="13">
-        <v>6080</v>
+        <v>6310</v>
       </c>
       <c r="AK14" s="13">
-        <v>8800</v>
+        <v>7503</v>
       </c>
       <c r="AL14" s="13">
-        <v>6310</v>
+        <v>7090</v>
       </c>
       <c r="AM14" s="13">
-        <v>7503</v>
+        <v>6915</v>
       </c>
       <c r="AN14" s="13">
-        <v>7090</v>
+        <v>6258</v>
       </c>
       <c r="AO14" s="13">
-        <v>6915</v>
+        <v>5620</v>
       </c>
       <c r="AP14" s="13">
-        <v>6258</v>
+        <v>5948</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5620</v>
+        <v>6319</v>
       </c>
       <c r="AR14" s="13">
-        <v>5948</v>
+        <v>6567</v>
       </c>
       <c r="AS14" s="13">
-        <v>6319</v>
+        <v>4491</v>
       </c>
       <c r="AT14" s="13">
-        <v>6567</v>
+        <v>6188</v>
       </c>
       <c r="AU14" s="13">
-        <v>4491</v>
+        <v>5501</v>
       </c>
       <c r="AV14" s="13">
-        <v>6428</v>
+        <v>5689</v>
       </c>
       <c r="AW14" s="13">
-        <v>5748</v>
+        <v>5975</v>
       </c>
       <c r="AX14" s="13">
-        <v>5689</v>
+        <v>6901</v>
       </c>
       <c r="AY14" s="13">
-        <v>5975</v>
+        <v>6095</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5527</v>
+        <v>7986</v>
       </c>
       <c r="BA14" s="13">
-        <v>6095</v>
+        <v>9222</v>
       </c>
       <c r="BB14" s="13">
-        <v>7986</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2054,133 +2054,133 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>10490</v>
+        <v>7602</v>
       </c>
       <c r="F15" s="11">
-        <v>10707</v>
+        <v>6166</v>
       </c>
       <c r="G15" s="11">
-        <v>7602</v>
+        <v>6144</v>
       </c>
       <c r="H15" s="11">
-        <v>6166</v>
+        <v>5175</v>
       </c>
       <c r="I15" s="11">
-        <v>6144</v>
+        <v>4602</v>
       </c>
       <c r="J15" s="11">
-        <v>5175</v>
+        <v>6301</v>
       </c>
       <c r="K15" s="11">
-        <v>4602</v>
+        <v>6188</v>
       </c>
       <c r="L15" s="11">
-        <v>6301</v>
+        <v>7177</v>
       </c>
       <c r="M15" s="11">
-        <v>6188</v>
+        <v>5564</v>
       </c>
       <c r="N15" s="11">
-        <v>7177</v>
+        <v>5925</v>
       </c>
       <c r="O15" s="11">
-        <v>5564</v>
+        <v>5989</v>
       </c>
       <c r="P15" s="11">
-        <v>5925</v>
+        <v>5684</v>
       </c>
       <c r="Q15" s="11">
-        <v>5989</v>
+        <v>5627</v>
       </c>
       <c r="R15" s="11">
-        <v>5684</v>
+        <v>6098</v>
       </c>
       <c r="S15" s="11">
-        <v>5627</v>
+        <v>6060</v>
       </c>
       <c r="T15" s="11">
-        <v>6098</v>
+        <v>7430</v>
       </c>
       <c r="U15" s="11">
-        <v>6060</v>
+        <v>5956</v>
       </c>
       <c r="V15" s="11">
-        <v>7430</v>
+        <v>6306</v>
       </c>
       <c r="W15" s="11">
-        <v>5956</v>
+        <v>5029</v>
       </c>
       <c r="X15" s="11">
-        <v>6306</v>
+        <v>5271</v>
       </c>
       <c r="Y15" s="11">
-        <v>5029</v>
+        <v>5973</v>
       </c>
       <c r="Z15" s="11">
-        <v>5271</v>
+        <v>7626</v>
       </c>
       <c r="AA15" s="11">
-        <v>5973</v>
+        <v>7350</v>
       </c>
       <c r="AB15" s="11">
-        <v>7626</v>
+        <v>6785</v>
       </c>
       <c r="AC15" s="11">
-        <v>7350</v>
+        <v>6517</v>
       </c>
       <c r="AD15" s="11">
-        <v>6785</v>
+        <v>685</v>
       </c>
       <c r="AE15" s="11">
-        <v>6517</v>
+        <v>7655</v>
       </c>
       <c r="AF15" s="11">
-        <v>685</v>
+        <v>7837</v>
       </c>
       <c r="AG15" s="11">
-        <v>7655</v>
+        <v>4561</v>
       </c>
       <c r="AH15" s="11">
-        <v>7837</v>
+        <v>6498</v>
       </c>
       <c r="AI15" s="11">
-        <v>4561</v>
+        <v>7309</v>
       </c>
       <c r="AJ15" s="11">
-        <v>6498</v>
+        <v>5076</v>
       </c>
       <c r="AK15" s="11">
-        <v>7309</v>
+        <v>6740</v>
       </c>
       <c r="AL15" s="11">
-        <v>5076</v>
+        <v>9146</v>
       </c>
       <c r="AM15" s="11">
-        <v>6740</v>
+        <v>9549</v>
       </c>
       <c r="AN15" s="11">
-        <v>9146</v>
+        <v>7781</v>
       </c>
       <c r="AO15" s="11">
-        <v>9549</v>
+        <v>6960</v>
       </c>
       <c r="AP15" s="11">
-        <v>7781</v>
+        <v>6835</v>
       </c>
       <c r="AQ15" s="11">
-        <v>6960</v>
+        <v>5771</v>
       </c>
       <c r="AR15" s="11">
-        <v>6835</v>
+        <v>6520</v>
       </c>
       <c r="AS15" s="11">
-        <v>5771</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>6520</v>
-      </c>
-      <c r="AU15" s="11">
         <v>5312</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV15" s="11" t="s">
         <v>57</v>
@@ -2335,32 +2335,32 @@
       <c r="AS16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>57</v>
+      <c r="AT16" s="13">
+        <v>7523</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>8275</v>
       </c>
       <c r="AV16" s="13">
-        <v>7523</v>
+        <v>7665</v>
       </c>
       <c r="AW16" s="13">
-        <v>8275</v>
+        <v>7643</v>
       </c>
       <c r="AX16" s="13">
-        <v>7665</v>
+        <v>6556</v>
       </c>
       <c r="AY16" s="13">
-        <v>7643</v>
+        <v>7595</v>
       </c>
       <c r="AZ16" s="13">
-        <v>6369</v>
+        <v>9427</v>
       </c>
       <c r="BA16" s="13">
-        <v>7595</v>
+        <v>10390</v>
       </c>
       <c r="BB16" s="13">
-        <v>9427</v>
+        <v>9881</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2497,29 +2497,29 @@
       <c r="AT17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>57</v>
+      <c r="AU17" s="11">
+        <v>58219</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>59089</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>58356</v>
       </c>
       <c r="AX17" s="11">
-        <v>59089</v>
+        <v>54901</v>
       </c>
       <c r="AY17" s="11">
-        <v>58356</v>
+        <v>59197</v>
       </c>
       <c r="AZ17" s="11">
-        <v>54116</v>
+        <v>56927</v>
       </c>
       <c r="BA17" s="11">
-        <v>59197</v>
+        <v>57966</v>
       </c>
       <c r="BB17" s="11">
-        <v>56927</v>
+        <v>55168</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2656,29 +2656,29 @@
       <c r="AT18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW18" s="13" t="s">
-        <v>57</v>
+      <c r="AU18" s="13">
+        <v>8249</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>8365</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>8685</v>
       </c>
       <c r="AX18" s="13">
-        <v>8365</v>
+        <v>8303</v>
       </c>
       <c r="AY18" s="13">
-        <v>8685</v>
+        <v>8629</v>
       </c>
       <c r="AZ18" s="13">
-        <v>8303</v>
+        <v>8238</v>
       </c>
       <c r="BA18" s="13">
-        <v>8629</v>
+        <v>8125</v>
       </c>
       <c r="BB18" s="13">
-        <v>8238</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2804,11 +2804,11 @@
       <c r="X20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z20" s="17" t="s">
-        <v>57</v>
+      <c r="Y20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>0</v>
       </c>
       <c r="AA20" s="17">
         <v>0</v>
@@ -2902,154 +2902,154 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>101262</v>
+        <v>87722</v>
       </c>
       <c r="F21" s="19">
-        <v>106469</v>
+        <v>79719</v>
       </c>
       <c r="G21" s="19">
-        <v>87722</v>
+        <v>78790</v>
       </c>
       <c r="H21" s="19">
-        <v>79719</v>
+        <v>80548</v>
       </c>
       <c r="I21" s="19">
-        <v>78790</v>
+        <v>80561</v>
       </c>
       <c r="J21" s="19">
-        <v>80548</v>
+        <v>89150</v>
       </c>
       <c r="K21" s="19">
-        <v>80561</v>
+        <v>91494</v>
       </c>
       <c r="L21" s="19">
-        <v>89150</v>
+        <v>82893</v>
       </c>
       <c r="M21" s="19">
-        <v>91494</v>
+        <v>76593</v>
       </c>
       <c r="N21" s="19">
-        <v>82893</v>
+        <v>80296</v>
       </c>
       <c r="O21" s="19">
-        <v>76593</v>
+        <v>67726</v>
       </c>
       <c r="P21" s="19">
-        <v>80296</v>
+        <v>78430</v>
       </c>
       <c r="Q21" s="19">
-        <v>67726</v>
+        <v>79411</v>
       </c>
       <c r="R21" s="19">
-        <v>78430</v>
+        <v>82671</v>
       </c>
       <c r="S21" s="19">
-        <v>79411</v>
+        <v>82466</v>
       </c>
       <c r="T21" s="19">
-        <v>82671</v>
+        <v>80572</v>
       </c>
       <c r="U21" s="19">
-        <v>82466</v>
+        <v>85231</v>
       </c>
       <c r="V21" s="19">
-        <v>80572</v>
+        <v>90454</v>
       </c>
       <c r="W21" s="19">
-        <v>85231</v>
+        <v>70122</v>
       </c>
       <c r="X21" s="19">
-        <v>90454</v>
+        <v>82488</v>
       </c>
       <c r="Y21" s="19">
-        <v>70122</v>
+        <v>83253</v>
       </c>
       <c r="Z21" s="19">
-        <v>82488</v>
+        <v>86560</v>
       </c>
       <c r="AA21" s="19">
-        <v>83253</v>
+        <v>147301</v>
       </c>
       <c r="AB21" s="19">
-        <v>86560</v>
+        <v>72281</v>
       </c>
       <c r="AC21" s="19">
-        <v>147301</v>
+        <v>75401</v>
       </c>
       <c r="AD21" s="19">
-        <v>72281</v>
+        <v>55621</v>
       </c>
       <c r="AE21" s="19">
-        <v>75401</v>
+        <v>83193</v>
       </c>
       <c r="AF21" s="19">
-        <v>55621</v>
+        <v>91348</v>
       </c>
       <c r="AG21" s="19">
-        <v>83193</v>
+        <v>75646</v>
       </c>
       <c r="AH21" s="19">
-        <v>91348</v>
+        <v>84072</v>
       </c>
       <c r="AI21" s="19">
-        <v>75646</v>
+        <v>69387</v>
       </c>
       <c r="AJ21" s="19">
-        <v>84072</v>
+        <v>37992</v>
       </c>
       <c r="AK21" s="19">
-        <v>69387</v>
+        <v>91434</v>
       </c>
       <c r="AL21" s="19">
-        <v>37992</v>
+        <v>89659</v>
       </c>
       <c r="AM21" s="19">
-        <v>91434</v>
+        <v>96641</v>
       </c>
       <c r="AN21" s="19">
-        <v>89659</v>
+        <v>89682</v>
       </c>
       <c r="AO21" s="19">
-        <v>96641</v>
+        <v>83479</v>
       </c>
       <c r="AP21" s="19">
-        <v>89682</v>
+        <v>87740</v>
       </c>
       <c r="AQ21" s="19">
-        <v>83479</v>
+        <v>86344</v>
       </c>
       <c r="AR21" s="19">
-        <v>87740</v>
+        <v>90453</v>
       </c>
       <c r="AS21" s="19">
-        <v>86344</v>
+        <v>75057</v>
       </c>
       <c r="AT21" s="19">
-        <v>90453</v>
+        <v>73648</v>
       </c>
       <c r="AU21" s="19">
-        <v>75057</v>
+        <v>88624</v>
       </c>
       <c r="AV21" s="19">
-        <v>74054</v>
+        <v>89670</v>
       </c>
       <c r="AW21" s="19">
-        <v>89043</v>
+        <v>89404</v>
       </c>
       <c r="AX21" s="19">
-        <v>89670</v>
+        <v>85520</v>
       </c>
       <c r="AY21" s="19">
-        <v>89404</v>
+        <v>90197</v>
       </c>
       <c r="AZ21" s="19">
-        <v>82287</v>
+        <v>92560</v>
       </c>
       <c r="BA21" s="19">
-        <v>90197</v>
+        <v>96893</v>
       </c>
       <c r="BB21" s="19">
-        <v>92560</v>
+        <v>93297</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>0</v>
+        <v>32910</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <v>32910</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
@@ -3510,46 +3510,46 @@
         <v>0</v>
       </c>
       <c r="J28" s="11">
-        <v>0</v>
+        <v>23039</v>
       </c>
       <c r="K28" s="11">
-        <v>0</v>
+        <v>25302</v>
       </c>
       <c r="L28" s="11">
-        <v>23039</v>
+        <v>0</v>
       </c>
       <c r="M28" s="11">
-        <v>25302</v>
+        <v>30602</v>
       </c>
       <c r="N28" s="11">
         <v>0</v>
       </c>
       <c r="O28" s="11">
-        <v>30602</v>
+        <v>25626</v>
       </c>
       <c r="P28" s="11">
         <v>0</v>
       </c>
       <c r="Q28" s="11">
-        <v>25626</v>
+        <v>0</v>
       </c>
       <c r="R28" s="11">
-        <v>0</v>
+        <v>49510</v>
       </c>
       <c r="S28" s="11">
         <v>0</v>
       </c>
       <c r="T28" s="11">
-        <v>49510</v>
+        <v>0</v>
       </c>
       <c r="U28" s="11">
-        <v>0</v>
+        <v>28613</v>
       </c>
       <c r="V28" s="11">
         <v>0</v>
       </c>
       <c r="W28" s="11">
-        <v>28613</v>
+        <v>0</v>
       </c>
       <c r="X28" s="11">
         <v>0</v>
@@ -3564,22 +3564,22 @@
         <v>0</v>
       </c>
       <c r="AB28" s="11">
-        <v>0</v>
+        <v>30922</v>
       </c>
       <c r="AC28" s="11">
         <v>0</v>
       </c>
       <c r="AD28" s="11">
-        <v>30922</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="11">
-        <v>0</v>
+        <v>26952</v>
       </c>
       <c r="AF28" s="11">
         <v>0</v>
       </c>
       <c r="AG28" s="11">
-        <v>26952</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="11">
         <v>0</v>
@@ -3591,43 +3591,43 @@
         <v>0</v>
       </c>
       <c r="AK28" s="11">
-        <v>0</v>
+        <v>33839</v>
       </c>
       <c r="AL28" s="11">
         <v>0</v>
       </c>
       <c r="AM28" s="11">
-        <v>33839</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="11">
         <v>0</v>
       </c>
       <c r="AO28" s="11">
-        <v>0</v>
+        <v>34479</v>
       </c>
       <c r="AP28" s="11">
         <v>0</v>
       </c>
       <c r="AQ28" s="11">
-        <v>34479</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="11">
-        <v>0</v>
+        <v>25321</v>
       </c>
       <c r="AS28" s="11">
         <v>0</v>
       </c>
       <c r="AT28" s="11">
-        <v>25321</v>
-      </c>
-      <c r="AU28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW28" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX28" s="11" t="s">
         <v>57</v>
@@ -3654,139 +3654,139 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>60768</v>
+        <v>63921</v>
       </c>
       <c r="F29" s="13">
-        <v>47955</v>
+        <v>33720</v>
       </c>
       <c r="G29" s="13">
-        <v>63921</v>
+        <v>73573</v>
       </c>
       <c r="H29" s="13">
-        <v>33720</v>
+        <v>56833</v>
       </c>
       <c r="I29" s="13">
-        <v>73573</v>
+        <v>45238</v>
       </c>
       <c r="J29" s="13">
-        <v>56833</v>
+        <v>73681</v>
       </c>
       <c r="K29" s="13">
-        <v>45238</v>
+        <v>45048</v>
       </c>
       <c r="L29" s="13">
-        <v>73681</v>
+        <v>61504</v>
       </c>
       <c r="M29" s="13">
-        <v>45048</v>
+        <v>28214</v>
       </c>
       <c r="N29" s="13">
-        <v>61504</v>
+        <v>34816</v>
       </c>
       <c r="O29" s="13">
-        <v>28214</v>
+        <v>56836</v>
       </c>
       <c r="P29" s="13">
-        <v>34816</v>
+        <v>16503</v>
       </c>
       <c r="Q29" s="13">
-        <v>56836</v>
+        <v>16523</v>
       </c>
       <c r="R29" s="13">
-        <v>16503</v>
+        <v>74669</v>
       </c>
       <c r="S29" s="13">
-        <v>16523</v>
+        <v>50137</v>
       </c>
       <c r="T29" s="13">
-        <v>74669</v>
+        <v>79315</v>
       </c>
       <c r="U29" s="13">
-        <v>50137</v>
+        <v>0</v>
       </c>
       <c r="V29" s="13">
-        <v>79315</v>
+        <v>57277</v>
       </c>
       <c r="W29" s="13">
-        <v>0</v>
+        <v>16657</v>
       </c>
       <c r="X29" s="13">
-        <v>57277</v>
+        <v>41176</v>
       </c>
       <c r="Y29" s="13">
-        <v>16657</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="13">
-        <v>41176</v>
+        <v>98426</v>
       </c>
       <c r="AA29" s="13">
-        <v>0</v>
+        <v>50639</v>
       </c>
       <c r="AB29" s="13">
-        <v>98426</v>
+        <v>82052</v>
       </c>
       <c r="AC29" s="13">
-        <v>50639</v>
+        <v>92633</v>
       </c>
       <c r="AD29" s="13">
-        <v>82052</v>
+        <v>16784</v>
       </c>
       <c r="AE29" s="13">
-        <v>92633</v>
+        <v>93679</v>
       </c>
       <c r="AF29" s="13">
-        <v>16784</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="13">
-        <v>93679</v>
+        <v>123233</v>
       </c>
       <c r="AH29" s="13">
-        <v>0</v>
+        <v>45037</v>
       </c>
       <c r="AI29" s="13">
-        <v>123233</v>
+        <v>41466</v>
       </c>
       <c r="AJ29" s="13">
-        <v>45037</v>
+        <v>34491</v>
       </c>
       <c r="AK29" s="13">
-        <v>41466</v>
+        <v>75496</v>
       </c>
       <c r="AL29" s="13">
-        <v>34491</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="13">
-        <v>75496</v>
+        <v>118362</v>
       </c>
       <c r="AN29" s="13">
         <v>0</v>
       </c>
       <c r="AO29" s="13">
-        <v>118362</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="13">
-        <v>0</v>
+        <v>75828</v>
       </c>
       <c r="AQ29" s="13">
-        <v>0</v>
+        <v>68266</v>
       </c>
       <c r="AR29" s="13">
-        <v>75828</v>
+        <v>104780</v>
       </c>
       <c r="AS29" s="13">
-        <v>68266</v>
+        <v>14414</v>
       </c>
       <c r="AT29" s="13">
-        <v>104780</v>
-      </c>
-      <c r="AU29" s="13">
-        <v>14414</v>
-      </c>
-      <c r="AV29" s="13">
         <v>58176</v>
       </c>
-      <c r="AW29" s="13">
-        <v>49097</v>
+      <c r="AU29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX29" s="13" t="s">
         <v>57</v>
@@ -3813,154 +3813,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>14953</v>
+        <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>22599</v>
+        <v>8069</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
+        <v>8682</v>
       </c>
       <c r="H30" s="11">
-        <v>8069</v>
+        <v>3272</v>
       </c>
       <c r="I30" s="11">
-        <v>8682</v>
+        <v>7387</v>
       </c>
       <c r="J30" s="11">
-        <v>3272</v>
+        <v>4000</v>
       </c>
       <c r="K30" s="11">
-        <v>7387</v>
+        <v>13630</v>
       </c>
       <c r="L30" s="11">
-        <v>4000</v>
+        <v>11537</v>
       </c>
       <c r="M30" s="11">
-        <v>13630</v>
+        <v>15243</v>
       </c>
       <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
         <v>11537</v>
       </c>
-      <c r="O30" s="11">
-        <v>15243</v>
-      </c>
       <c r="P30" s="11">
-        <v>0</v>
+        <v>4556</v>
       </c>
       <c r="Q30" s="11">
-        <v>11537</v>
+        <v>2845</v>
       </c>
       <c r="R30" s="11">
-        <v>4556</v>
+        <v>5343</v>
       </c>
       <c r="S30" s="11">
-        <v>2845</v>
+        <v>5301</v>
       </c>
       <c r="T30" s="11">
-        <v>5343</v>
+        <v>21962</v>
       </c>
       <c r="U30" s="11">
-        <v>5301</v>
+        <v>2515</v>
       </c>
       <c r="V30" s="11">
-        <v>21962</v>
+        <v>0</v>
       </c>
       <c r="W30" s="11">
-        <v>2515</v>
+        <v>22244</v>
       </c>
       <c r="X30" s="11">
         <v>0</v>
       </c>
       <c r="Y30" s="11">
-        <v>22244</v>
+        <v>3943</v>
       </c>
       <c r="Z30" s="11">
-        <v>0</v>
+        <v>6492</v>
       </c>
       <c r="AA30" s="11">
-        <v>3943</v>
+        <v>7232</v>
       </c>
       <c r="AB30" s="11">
-        <v>6492</v>
+        <v>14510</v>
       </c>
       <c r="AC30" s="11">
-        <v>7232</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="11">
-        <v>14510</v>
+        <v>4782</v>
       </c>
       <c r="AE30" s="11">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="AF30" s="11">
-        <v>4782</v>
+        <v>13947</v>
       </c>
       <c r="AG30" s="11">
-        <v>7435</v>
+        <v>590</v>
       </c>
       <c r="AH30" s="11">
-        <v>13947</v>
+        <v>29858</v>
       </c>
       <c r="AI30" s="11">
-        <v>590</v>
+        <v>13613</v>
       </c>
       <c r="AJ30" s="11">
-        <v>29858</v>
+        <v>3832</v>
       </c>
       <c r="AK30" s="11">
-        <v>13613</v>
+        <v>17862</v>
       </c>
       <c r="AL30" s="11">
-        <v>3832</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="11">
-        <v>17862</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="11">
-        <v>0</v>
+        <v>25481</v>
       </c>
       <c r="AO30" s="11">
         <v>0</v>
       </c>
       <c r="AP30" s="11">
-        <v>25481</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="11">
-        <v>0</v>
+        <v>23252</v>
       </c>
       <c r="AR30" s="11">
         <v>0</v>
       </c>
       <c r="AS30" s="11">
-        <v>23252</v>
+        <v>12868</v>
       </c>
       <c r="AT30" s="11">
         <v>0</v>
       </c>
       <c r="AU30" s="11">
-        <v>12868</v>
+        <v>12855</v>
       </c>
       <c r="AV30" s="11">
-        <v>0</v>
+        <v>12866</v>
       </c>
       <c r="AW30" s="11">
-        <v>12855</v>
+        <v>12861</v>
       </c>
       <c r="AX30" s="11">
-        <v>12866</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="11">
-        <v>12861</v>
+        <v>12807</v>
       </c>
       <c r="AZ30" s="11">
-        <v>0</v>
+        <v>6574</v>
       </c>
       <c r="BA30" s="11">
-        <v>12807</v>
+        <v>7779</v>
       </c>
       <c r="BB30" s="11">
-        <v>6573</v>
+        <v>12407</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3972,154 +3972,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>13813</v>
+        <v>0</v>
       </c>
       <c r="F31" s="13">
-        <v>13086</v>
+        <v>5058</v>
       </c>
       <c r="G31" s="13">
-        <v>0</v>
+        <v>4504</v>
       </c>
       <c r="H31" s="13">
-        <v>5058</v>
+        <v>3276</v>
       </c>
       <c r="I31" s="13">
-        <v>4504</v>
+        <v>4735</v>
       </c>
       <c r="J31" s="13">
-        <v>3276</v>
+        <v>2532</v>
       </c>
       <c r="K31" s="13">
-        <v>4735</v>
+        <v>11311</v>
       </c>
       <c r="L31" s="13">
-        <v>2532</v>
+        <v>11057</v>
       </c>
       <c r="M31" s="13">
-        <v>11311</v>
+        <v>9897</v>
       </c>
       <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
         <v>11057</v>
       </c>
-      <c r="O31" s="13">
-        <v>9897</v>
-      </c>
       <c r="P31" s="13">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="Q31" s="13">
-        <v>11057</v>
+        <v>1296</v>
       </c>
       <c r="R31" s="13">
-        <v>1950</v>
+        <v>2845</v>
       </c>
       <c r="S31" s="13">
-        <v>1296</v>
+        <v>5304</v>
       </c>
       <c r="T31" s="13">
-        <v>2845</v>
+        <v>20517</v>
       </c>
       <c r="U31" s="13">
-        <v>5304</v>
+        <v>1664</v>
       </c>
       <c r="V31" s="13">
-        <v>20517</v>
+        <v>0</v>
       </c>
       <c r="W31" s="13">
-        <v>1664</v>
+        <v>19843</v>
       </c>
       <c r="X31" s="13">
         <v>0</v>
       </c>
       <c r="Y31" s="13">
-        <v>19843</v>
+        <v>2628</v>
       </c>
       <c r="Z31" s="13">
-        <v>0</v>
+        <v>3235</v>
       </c>
       <c r="AA31" s="13">
-        <v>2628</v>
+        <v>4914</v>
       </c>
       <c r="AB31" s="13">
-        <v>3235</v>
+        <v>9869</v>
       </c>
       <c r="AC31" s="13">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="13">
-        <v>9869</v>
+        <v>4803</v>
       </c>
       <c r="AE31" s="13">
-        <v>0</v>
+        <v>7253</v>
       </c>
       <c r="AF31" s="13">
-        <v>4803</v>
+        <v>12632</v>
       </c>
       <c r="AG31" s="13">
-        <v>7253</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="13">
-        <v>12632</v>
+        <v>23570</v>
       </c>
       <c r="AI31" s="13">
-        <v>0</v>
+        <v>7807</v>
       </c>
       <c r="AJ31" s="13">
-        <v>23570</v>
+        <v>2728</v>
       </c>
       <c r="AK31" s="13">
-        <v>7807</v>
+        <v>14000</v>
       </c>
       <c r="AL31" s="13">
-        <v>2728</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="13">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="13">
-        <v>0</v>
+        <v>18733</v>
       </c>
       <c r="AO31" s="13">
         <v>0</v>
       </c>
       <c r="AP31" s="13">
-        <v>18733</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="13">
-        <v>0</v>
+        <v>17423</v>
       </c>
       <c r="AR31" s="13">
         <v>0</v>
       </c>
       <c r="AS31" s="13">
-        <v>17423</v>
+        <v>7557</v>
       </c>
       <c r="AT31" s="13">
         <v>0</v>
       </c>
       <c r="AU31" s="13">
-        <v>7557</v>
+        <v>7523</v>
       </c>
       <c r="AV31" s="13">
-        <v>0</v>
+        <v>7504</v>
       </c>
       <c r="AW31" s="13">
-        <v>7523</v>
+        <v>7515</v>
       </c>
       <c r="AX31" s="13">
-        <v>7504</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="13">
-        <v>7515</v>
+        <v>7480</v>
       </c>
       <c r="AZ31" s="13">
-        <v>0</v>
+        <v>2821</v>
       </c>
       <c r="BA31" s="13">
-        <v>7480</v>
+        <v>12362</v>
       </c>
       <c r="BB31" s="13">
-        <v>2821</v>
+        <v>14626</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4131,79 +4131,79 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>20036</v>
+        <v>20983</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>20983</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>0</v>
+        <v>22008</v>
       </c>
       <c r="J32" s="11">
         <v>0</v>
       </c>
       <c r="K32" s="11">
-        <v>22008</v>
+        <v>0</v>
       </c>
       <c r="L32" s="11">
-        <v>0</v>
+        <v>21764</v>
       </c>
       <c r="M32" s="11">
-        <v>0</v>
+        <v>11089</v>
       </c>
       <c r="N32" s="11">
-        <v>21764</v>
+        <v>0</v>
       </c>
       <c r="O32" s="11">
-        <v>11089</v>
+        <v>0</v>
       </c>
       <c r="P32" s="11">
-        <v>0</v>
+        <v>5793</v>
       </c>
       <c r="Q32" s="11">
-        <v>0</v>
+        <v>8737</v>
       </c>
       <c r="R32" s="11">
-        <v>5793</v>
+        <v>5277</v>
       </c>
       <c r="S32" s="11">
-        <v>8737</v>
+        <v>0</v>
       </c>
       <c r="T32" s="11">
-        <v>5277</v>
+        <v>12404</v>
       </c>
       <c r="U32" s="11">
-        <v>0</v>
+        <v>6908</v>
       </c>
       <c r="V32" s="11">
-        <v>12404</v>
+        <v>0</v>
       </c>
       <c r="W32" s="11">
-        <v>6908</v>
+        <v>0</v>
       </c>
       <c r="X32" s="11">
-        <v>0</v>
+        <v>22211</v>
       </c>
       <c r="Y32" s="11">
         <v>0</v>
       </c>
       <c r="Z32" s="11">
-        <v>22211</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="11">
-        <v>0</v>
+        <v>25688</v>
       </c>
       <c r="AB32" s="11">
         <v>0</v>
       </c>
       <c r="AC32" s="11">
-        <v>25688</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="11">
         <v>0</v>
@@ -4212,52 +4212,52 @@
         <v>0</v>
       </c>
       <c r="AF32" s="11">
-        <v>0</v>
+        <v>20111</v>
       </c>
       <c r="AG32" s="11">
         <v>0</v>
       </c>
       <c r="AH32" s="11">
-        <v>20111</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="11">
-        <v>0</v>
+        <v>13566</v>
       </c>
       <c r="AJ32" s="11">
-        <v>0</v>
+        <v>8835</v>
       </c>
       <c r="AK32" s="11">
-        <v>13566</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="11">
-        <v>8835</v>
+        <v>22028</v>
       </c>
       <c r="AM32" s="11">
         <v>0</v>
       </c>
       <c r="AN32" s="11">
-        <v>22028</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="11">
-        <v>0</v>
+        <v>25107</v>
       </c>
       <c r="AP32" s="11">
         <v>0</v>
       </c>
       <c r="AQ32" s="11">
-        <v>25107</v>
+        <v>9980</v>
       </c>
       <c r="AR32" s="11">
-        <v>0</v>
+        <v>10038</v>
       </c>
       <c r="AS32" s="11">
-        <v>9980</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>10039</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV32" s="11" t="s">
         <v>57</v>
@@ -4412,32 +4412,32 @@
       <c r="AS33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU33" s="13" t="s">
-        <v>57</v>
+      <c r="AT33" s="13">
+        <v>9896</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>10097</v>
       </c>
       <c r="AV33" s="13">
-        <v>9896</v>
+        <v>10228</v>
       </c>
       <c r="AW33" s="13">
-        <v>10097</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="13">
-        <v>10228</v>
+        <v>9266</v>
       </c>
       <c r="AY33" s="13">
         <v>0</v>
       </c>
       <c r="AZ33" s="13">
-        <v>9266</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="13">
-        <v>0</v>
+        <v>20112</v>
       </c>
       <c r="BB33" s="13">
-        <v>0</v>
+        <v>17189</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4574,29 +4574,29 @@
       <c r="AT34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW34" s="11" t="s">
-        <v>57</v>
+      <c r="AU34" s="11">
+        <v>49096</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>90967</v>
       </c>
       <c r="AX34" s="11">
-        <v>0</v>
+        <v>80174</v>
       </c>
       <c r="AY34" s="11">
-        <v>90967</v>
+        <v>54301</v>
       </c>
       <c r="AZ34" s="11">
-        <v>80174</v>
+        <v>125418</v>
       </c>
       <c r="BA34" s="11">
-        <v>54301</v>
+        <v>21956</v>
       </c>
       <c r="BB34" s="11">
-        <v>125419</v>
+        <v>51273</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4733,29 +4733,29 @@
       <c r="AT35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW35" s="13" t="s">
-        <v>57</v>
+      <c r="AU35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>32002</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>0</v>
       </c>
       <c r="AX35" s="13">
-        <v>32002</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="13">
         <v>0</v>
       </c>
       <c r="AZ35" s="13">
-        <v>0</v>
+        <v>28010</v>
       </c>
       <c r="BA35" s="13">
         <v>0</v>
       </c>
       <c r="BB35" s="13">
-        <v>28010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4881,11 +4881,11 @@
       <c r="X37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z37" s="17" t="s">
-        <v>57</v>
+      <c r="Y37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>0</v>
       </c>
       <c r="AA37" s="17">
         <v>0</v>
@@ -5095,11 +5095,11 @@
       <c r="X39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>57</v>
+      <c r="Y39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>0</v>
       </c>
       <c r="AA39" s="17">
         <v>0</v>
@@ -5193,154 +5193,154 @@
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19">
-        <v>109570</v>
+        <v>117814</v>
       </c>
       <c r="F40" s="19">
-        <v>83640</v>
+        <v>46847</v>
       </c>
       <c r="G40" s="19">
-        <v>117814</v>
+        <v>86759</v>
       </c>
       <c r="H40" s="19">
-        <v>46847</v>
+        <v>63381</v>
       </c>
       <c r="I40" s="19">
-        <v>86759</v>
+        <v>79368</v>
       </c>
       <c r="J40" s="19">
-        <v>63381</v>
+        <v>103252</v>
       </c>
       <c r="K40" s="19">
-        <v>79368</v>
+        <v>95291</v>
       </c>
       <c r="L40" s="19">
-        <v>103252</v>
+        <v>105862</v>
       </c>
       <c r="M40" s="19">
-        <v>95291</v>
+        <v>95045</v>
       </c>
       <c r="N40" s="19">
-        <v>105862</v>
+        <v>34816</v>
       </c>
       <c r="O40" s="19">
-        <v>95045</v>
+        <v>105056</v>
       </c>
       <c r="P40" s="19">
-        <v>34816</v>
+        <v>28802</v>
       </c>
       <c r="Q40" s="19">
-        <v>105056</v>
+        <v>29401</v>
       </c>
       <c r="R40" s="19">
-        <v>28802</v>
+        <v>137644</v>
       </c>
       <c r="S40" s="19">
-        <v>29401</v>
+        <v>60742</v>
       </c>
       <c r="T40" s="19">
-        <v>137644</v>
+        <v>134198</v>
       </c>
       <c r="U40" s="19">
-        <v>60742</v>
+        <v>39700</v>
       </c>
       <c r="V40" s="19">
-        <v>134198</v>
+        <v>57277</v>
       </c>
       <c r="W40" s="19">
-        <v>39700</v>
+        <v>58744</v>
       </c>
       <c r="X40" s="19">
-        <v>57277</v>
+        <v>63387</v>
       </c>
       <c r="Y40" s="19">
-        <v>58744</v>
+        <v>6571</v>
       </c>
       <c r="Z40" s="19">
-        <v>63387</v>
+        <v>108153</v>
       </c>
       <c r="AA40" s="19">
-        <v>6571</v>
+        <v>88473</v>
       </c>
       <c r="AB40" s="19">
-        <v>108153</v>
+        <v>137353</v>
       </c>
       <c r="AC40" s="19">
-        <v>88473</v>
+        <v>92633</v>
       </c>
       <c r="AD40" s="19">
-        <v>137353</v>
+        <v>26369</v>
       </c>
       <c r="AE40" s="19">
-        <v>92633</v>
+        <v>135319</v>
       </c>
       <c r="AF40" s="19">
-        <v>26369</v>
+        <v>46690</v>
       </c>
       <c r="AG40" s="19">
-        <v>135319</v>
+        <v>123823</v>
       </c>
       <c r="AH40" s="19">
-        <v>46690</v>
+        <v>98465</v>
       </c>
       <c r="AI40" s="19">
-        <v>123823</v>
+        <v>76452</v>
       </c>
       <c r="AJ40" s="19">
-        <v>98465</v>
+        <v>49886</v>
       </c>
       <c r="AK40" s="19">
-        <v>76452</v>
+        <v>141197</v>
       </c>
       <c r="AL40" s="19">
-        <v>49886</v>
+        <v>22028</v>
       </c>
       <c r="AM40" s="19">
-        <v>141197</v>
+        <v>118362</v>
       </c>
       <c r="AN40" s="19">
-        <v>22028</v>
+        <v>44214</v>
       </c>
       <c r="AO40" s="19">
-        <v>118362</v>
+        <v>59586</v>
       </c>
       <c r="AP40" s="19">
-        <v>44214</v>
+        <v>75828</v>
       </c>
       <c r="AQ40" s="19">
-        <v>59586</v>
+        <v>118921</v>
       </c>
       <c r="AR40" s="19">
-        <v>75828</v>
+        <v>140139</v>
       </c>
       <c r="AS40" s="19">
-        <v>118921</v>
+        <v>34839</v>
       </c>
       <c r="AT40" s="19">
-        <v>140140</v>
+        <v>68072</v>
       </c>
       <c r="AU40" s="19">
-        <v>34839</v>
+        <v>79571</v>
       </c>
       <c r="AV40" s="19">
-        <v>68072</v>
+        <v>62600</v>
       </c>
       <c r="AW40" s="19">
-        <v>79572</v>
+        <v>111343</v>
       </c>
       <c r="AX40" s="19">
-        <v>62600</v>
+        <v>89440</v>
       </c>
       <c r="AY40" s="19">
-        <v>111343</v>
+        <v>74588</v>
       </c>
       <c r="AZ40" s="19">
-        <v>89440</v>
+        <v>162823</v>
       </c>
       <c r="BA40" s="19">
-        <v>74588</v>
+        <v>62209</v>
       </c>
       <c r="BB40" s="19">
-        <v>162823</v>
+        <v>95495</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5786,13 +5786,13 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>0</v>
+        <v>399170</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
       </c>
       <c r="G47" s="11">
-        <v>399170</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
@@ -5801,46 +5801,46 @@
         <v>0</v>
       </c>
       <c r="J47" s="11">
-        <v>0</v>
+        <v>183836</v>
       </c>
       <c r="K47" s="11">
-        <v>0</v>
+        <v>233251</v>
       </c>
       <c r="L47" s="11">
-        <v>183836</v>
+        <v>0</v>
       </c>
       <c r="M47" s="11">
-        <v>233251</v>
+        <v>273587</v>
       </c>
       <c r="N47" s="11">
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <v>273587</v>
+        <v>161981</v>
       </c>
       <c r="P47" s="11">
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <v>161981</v>
+        <v>0</v>
       </c>
       <c r="R47" s="11">
-        <v>0</v>
+        <v>169493</v>
       </c>
       <c r="S47" s="11">
         <v>0</v>
       </c>
       <c r="T47" s="11">
-        <v>169493</v>
+        <v>0</v>
       </c>
       <c r="U47" s="11">
-        <v>0</v>
+        <v>176482</v>
       </c>
       <c r="V47" s="11">
         <v>0</v>
       </c>
       <c r="W47" s="11">
-        <v>176482</v>
+        <v>0</v>
       </c>
       <c r="X47" s="11">
         <v>0</v>
@@ -5855,22 +5855,22 @@
         <v>0</v>
       </c>
       <c r="AB47" s="11">
-        <v>0</v>
+        <v>404657</v>
       </c>
       <c r="AC47" s="11">
         <v>0</v>
       </c>
       <c r="AD47" s="11">
-        <v>404657</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="11">
-        <v>0</v>
+        <v>595181</v>
       </c>
       <c r="AF47" s="11">
         <v>0</v>
       </c>
       <c r="AG47" s="11">
-        <v>595181</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="11">
         <v>0</v>
@@ -5882,43 +5882,43 @@
         <v>0</v>
       </c>
       <c r="AK47" s="11">
-        <v>0</v>
+        <v>1068033</v>
       </c>
       <c r="AL47" s="11">
         <v>0</v>
       </c>
       <c r="AM47" s="11">
-        <v>1068033</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="11">
         <v>0</v>
       </c>
       <c r="AO47" s="11">
-        <v>0</v>
+        <v>1498293</v>
       </c>
       <c r="AP47" s="11">
         <v>0</v>
       </c>
       <c r="AQ47" s="11">
-        <v>1498293</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="11">
-        <v>0</v>
+        <v>1696035</v>
       </c>
       <c r="AS47" s="11">
         <v>0</v>
       </c>
       <c r="AT47" s="11">
-        <v>1697095</v>
-      </c>
-      <c r="AU47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW47" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX47" s="11" t="s">
         <v>57</v>
@@ -5945,139 +5945,139 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>1738283</v>
+        <v>1878203</v>
       </c>
       <c r="F48" s="13">
-        <v>1495100</v>
+        <v>602256</v>
       </c>
       <c r="G48" s="13">
-        <v>1878203</v>
+        <v>1475448</v>
       </c>
       <c r="H48" s="13">
-        <v>602256</v>
+        <v>1450571</v>
       </c>
       <c r="I48" s="13">
-        <v>1475448</v>
+        <v>1189564</v>
       </c>
       <c r="J48" s="13">
-        <v>1450571</v>
+        <v>2039462</v>
       </c>
       <c r="K48" s="13">
-        <v>1189564</v>
+        <v>1396508</v>
       </c>
       <c r="L48" s="13">
-        <v>2039462</v>
+        <v>1789558</v>
       </c>
       <c r="M48" s="13">
-        <v>1396508</v>
+        <v>809558</v>
       </c>
       <c r="N48" s="13">
-        <v>1789558</v>
+        <v>914240</v>
       </c>
       <c r="O48" s="13">
-        <v>809558</v>
+        <v>1338817</v>
       </c>
       <c r="P48" s="13">
-        <v>914240</v>
+        <v>408788</v>
       </c>
       <c r="Q48" s="13">
-        <v>1338817</v>
+        <v>399956</v>
       </c>
       <c r="R48" s="13">
-        <v>408788</v>
+        <v>1707159</v>
       </c>
       <c r="S48" s="13">
-        <v>399956</v>
+        <v>1382013</v>
       </c>
       <c r="T48" s="13">
-        <v>1707159</v>
+        <v>2460329</v>
       </c>
       <c r="U48" s="13">
-        <v>1382013</v>
+        <v>0</v>
       </c>
       <c r="V48" s="13">
-        <v>2460329</v>
+        <v>1376363</v>
       </c>
       <c r="W48" s="13">
-        <v>0</v>
+        <v>422033</v>
       </c>
       <c r="X48" s="13">
-        <v>1376363</v>
+        <v>1049352</v>
       </c>
       <c r="Y48" s="13">
-        <v>422033</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="13">
-        <v>1049352</v>
+        <v>3240255</v>
       </c>
       <c r="AA48" s="13">
-        <v>0</v>
+        <v>2063336</v>
       </c>
       <c r="AB48" s="13">
-        <v>3240255</v>
+        <v>3971669</v>
       </c>
       <c r="AC48" s="13">
-        <v>2063336</v>
+        <v>5743178</v>
       </c>
       <c r="AD48" s="13">
-        <v>3971669</v>
+        <v>1166994</v>
       </c>
       <c r="AE48" s="13">
-        <v>5743178</v>
+        <v>7344131</v>
       </c>
       <c r="AF48" s="13">
-        <v>1166994</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="13">
-        <v>7344131</v>
+        <v>8976512</v>
       </c>
       <c r="AH48" s="13">
-        <v>0</v>
+        <v>3147594</v>
       </c>
       <c r="AI48" s="13">
-        <v>8976512</v>
+        <v>2824940</v>
       </c>
       <c r="AJ48" s="13">
-        <v>3147594</v>
+        <v>2378190</v>
       </c>
       <c r="AK48" s="13">
-        <v>2824940</v>
+        <v>5585101</v>
       </c>
       <c r="AL48" s="13">
-        <v>2378190</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="13">
-        <v>5585101</v>
+        <v>10066130</v>
       </c>
       <c r="AN48" s="13">
         <v>0</v>
       </c>
       <c r="AO48" s="13">
-        <v>10066130</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="13">
-        <v>0</v>
+        <v>6397029</v>
       </c>
       <c r="AQ48" s="13">
-        <v>0</v>
+        <v>4918158</v>
       </c>
       <c r="AR48" s="13">
-        <v>6397029</v>
+        <v>8956508</v>
       </c>
       <c r="AS48" s="13">
-        <v>4918158</v>
+        <v>1052621</v>
       </c>
       <c r="AT48" s="13">
-        <v>8893601</v>
-      </c>
-      <c r="AU48" s="13">
-        <v>1052621</v>
-      </c>
-      <c r="AV48" s="13">
-        <v>5248817</v>
-      </c>
-      <c r="AW48" s="13">
-        <v>4160804</v>
+        <v>5322638</v>
+      </c>
+      <c r="AU48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW48" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX48" s="13" t="s">
         <v>57</v>
@@ -6104,154 +6104,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>636634</v>
+        <v>0</v>
       </c>
       <c r="F49" s="11">
-        <v>1036223</v>
+        <v>204552</v>
       </c>
       <c r="G49" s="11">
-        <v>0</v>
+        <v>245474</v>
       </c>
       <c r="H49" s="11">
-        <v>204552</v>
+        <v>104252</v>
       </c>
       <c r="I49" s="11">
-        <v>245474</v>
+        <v>247297</v>
       </c>
       <c r="J49" s="11">
-        <v>104252</v>
+        <v>169874</v>
       </c>
       <c r="K49" s="11">
-        <v>247297</v>
+        <v>672253</v>
       </c>
       <c r="L49" s="11">
-        <v>169874</v>
+        <v>350149</v>
       </c>
       <c r="M49" s="11">
-        <v>672253</v>
+        <v>525019</v>
       </c>
       <c r="N49" s="11">
-        <v>350149</v>
+        <v>0</v>
       </c>
       <c r="O49" s="11">
-        <v>525019</v>
+        <v>389462</v>
       </c>
       <c r="P49" s="11">
-        <v>0</v>
+        <v>200841</v>
       </c>
       <c r="Q49" s="11">
-        <v>389462</v>
+        <v>124718</v>
       </c>
       <c r="R49" s="11">
-        <v>200841</v>
+        <v>236884</v>
       </c>
       <c r="S49" s="11">
-        <v>124718</v>
+        <v>309723</v>
       </c>
       <c r="T49" s="11">
-        <v>236884</v>
+        <v>1382958</v>
       </c>
       <c r="U49" s="11">
-        <v>309723</v>
+        <v>151359</v>
       </c>
       <c r="V49" s="11">
-        <v>1382958</v>
+        <v>0</v>
       </c>
       <c r="W49" s="11">
-        <v>151359</v>
+        <v>857138</v>
       </c>
       <c r="X49" s="11">
         <v>0</v>
       </c>
       <c r="Y49" s="11">
-        <v>857138</v>
+        <v>186772</v>
       </c>
       <c r="Z49" s="11">
-        <v>0</v>
+        <v>330008</v>
       </c>
       <c r="AA49" s="11">
-        <v>186772</v>
+        <v>394392</v>
       </c>
       <c r="AB49" s="11">
-        <v>330008</v>
+        <v>967446</v>
       </c>
       <c r="AC49" s="11">
-        <v>394392</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="11">
-        <v>967446</v>
+        <v>456453</v>
       </c>
       <c r="AE49" s="11">
-        <v>0</v>
+        <v>694650</v>
       </c>
       <c r="AF49" s="11">
-        <v>456453</v>
+        <v>1355781</v>
       </c>
       <c r="AG49" s="11">
-        <v>694650</v>
+        <v>39790</v>
       </c>
       <c r="AH49" s="11">
-        <v>1355781</v>
+        <v>2372504</v>
       </c>
       <c r="AI49" s="11">
-        <v>39790</v>
+        <v>1229996</v>
       </c>
       <c r="AJ49" s="11">
-        <v>2372504</v>
+        <v>269800</v>
       </c>
       <c r="AK49" s="11">
-        <v>1229996</v>
+        <v>2337265</v>
       </c>
       <c r="AL49" s="11">
-        <v>269800</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="11">
-        <v>2337265</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="11">
-        <v>0</v>
+        <v>4558120</v>
       </c>
       <c r="AO49" s="11">
         <v>0</v>
       </c>
       <c r="AP49" s="11">
-        <v>4558120</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="11">
-        <v>0</v>
+        <v>3939798</v>
       </c>
       <c r="AR49" s="11">
         <v>0</v>
       </c>
       <c r="AS49" s="11">
-        <v>3939798</v>
+        <v>2620806</v>
       </c>
       <c r="AT49" s="11">
         <v>0</v>
       </c>
       <c r="AU49" s="11">
-        <v>2620806</v>
+        <v>2335451</v>
       </c>
       <c r="AV49" s="11">
-        <v>0</v>
+        <v>2143264</v>
       </c>
       <c r="AW49" s="11">
-        <v>2335451</v>
+        <v>1683060</v>
       </c>
       <c r="AX49" s="11">
-        <v>1989709</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="11">
-        <v>1881074</v>
+        <v>1728017</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>780262</v>
       </c>
       <c r="BA49" s="11">
-        <v>1728017</v>
+        <v>1040154</v>
       </c>
       <c r="BB49" s="11">
-        <v>780262</v>
+        <v>1850997</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6263,154 +6263,154 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>573539</v>
+        <v>0</v>
       </c>
       <c r="F50" s="13">
-        <v>597614</v>
+        <v>140045</v>
       </c>
       <c r="G50" s="13">
-        <v>0</v>
+        <v>130894</v>
       </c>
       <c r="H50" s="13">
-        <v>140045</v>
+        <v>96162</v>
       </c>
       <c r="I50" s="13">
-        <v>130894</v>
+        <v>147125</v>
       </c>
       <c r="J50" s="13">
-        <v>96162</v>
+        <v>102633</v>
       </c>
       <c r="K50" s="13">
-        <v>147125</v>
+        <v>542466</v>
       </c>
       <c r="L50" s="13">
-        <v>102633</v>
+        <v>360464</v>
       </c>
       <c r="M50" s="13">
-        <v>542466</v>
+        <v>372862</v>
       </c>
       <c r="N50" s="13">
-        <v>360464</v>
+        <v>0</v>
       </c>
       <c r="O50" s="13">
-        <v>372862</v>
+        <v>361126</v>
       </c>
       <c r="P50" s="13">
-        <v>0</v>
+        <v>80759</v>
       </c>
       <c r="Q50" s="13">
-        <v>361126</v>
+        <v>54723</v>
       </c>
       <c r="R50" s="13">
-        <v>80759</v>
+        <v>121651</v>
       </c>
       <c r="S50" s="13">
-        <v>54723</v>
+        <v>296897</v>
       </c>
       <c r="T50" s="13">
-        <v>121651</v>
+        <v>1187570</v>
       </c>
       <c r="U50" s="13">
-        <v>296897</v>
+        <v>88641</v>
       </c>
       <c r="V50" s="13">
-        <v>1187570</v>
+        <v>0</v>
       </c>
       <c r="W50" s="13">
-        <v>88641</v>
+        <v>764649</v>
       </c>
       <c r="X50" s="13">
         <v>0</v>
       </c>
       <c r="Y50" s="13">
-        <v>764649</v>
+        <v>133866</v>
       </c>
       <c r="Z50" s="13">
-        <v>0</v>
+        <v>177817</v>
       </c>
       <c r="AA50" s="13">
-        <v>133866</v>
+        <v>283570</v>
       </c>
       <c r="AB50" s="13">
-        <v>177817</v>
+        <v>669413</v>
       </c>
       <c r="AC50" s="13">
-        <v>283570</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="13">
-        <v>669413</v>
+        <v>446232</v>
       </c>
       <c r="AE50" s="13">
-        <v>0</v>
+        <v>659080</v>
       </c>
       <c r="AF50" s="13">
-        <v>446232</v>
+        <v>1284571</v>
       </c>
       <c r="AG50" s="13">
-        <v>659080</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="13">
-        <v>1284571</v>
+        <v>2036645</v>
       </c>
       <c r="AI50" s="13">
-        <v>0</v>
+        <v>737101</v>
       </c>
       <c r="AJ50" s="13">
-        <v>2036645</v>
+        <v>194900</v>
       </c>
       <c r="AK50" s="13">
-        <v>737101</v>
+        <v>1831650</v>
       </c>
       <c r="AL50" s="13">
-        <v>194900</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="13">
-        <v>1831650</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="13">
-        <v>0</v>
+        <v>3365759</v>
       </c>
       <c r="AO50" s="13">
         <v>0</v>
       </c>
       <c r="AP50" s="13">
-        <v>3365759</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="13">
-        <v>0</v>
+        <v>3082401</v>
       </c>
       <c r="AR50" s="13">
         <v>0</v>
       </c>
       <c r="AS50" s="13">
-        <v>3082401</v>
+        <v>1502760</v>
       </c>
       <c r="AT50" s="13">
         <v>0</v>
       </c>
       <c r="AU50" s="13">
-        <v>1502760</v>
+        <v>1348376</v>
       </c>
       <c r="AV50" s="13">
-        <v>0</v>
+        <v>1250067</v>
       </c>
       <c r="AW50" s="13">
-        <v>1348376</v>
+        <v>1003505</v>
       </c>
       <c r="AX50" s="13">
-        <v>1160506</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="13">
-        <v>1099061</v>
+        <v>1049053</v>
       </c>
       <c r="AZ50" s="13">
-        <v>0</v>
+        <v>357849</v>
       </c>
       <c r="BA50" s="13">
-        <v>1049053</v>
+        <v>1652914</v>
       </c>
       <c r="BB50" s="13">
-        <v>357849</v>
+        <v>2215959</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6422,79 +6422,79 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>948444</v>
+        <v>818327</v>
       </c>
       <c r="F51" s="11">
         <v>0</v>
       </c>
       <c r="G51" s="11">
-        <v>818327</v>
+        <v>0</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>0</v>
+        <v>970887</v>
       </c>
       <c r="J51" s="11">
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <v>970887</v>
+        <v>0</v>
       </c>
       <c r="L51" s="11">
-        <v>0</v>
+        <v>907225</v>
       </c>
       <c r="M51" s="11">
-        <v>0</v>
+        <v>620528</v>
       </c>
       <c r="N51" s="11">
-        <v>907225</v>
+        <v>0</v>
       </c>
       <c r="O51" s="11">
-        <v>620528</v>
+        <v>0</v>
       </c>
       <c r="P51" s="11">
-        <v>0</v>
+        <v>261672</v>
       </c>
       <c r="Q51" s="11">
-        <v>0</v>
+        <v>416787</v>
       </c>
       <c r="R51" s="11">
-        <v>261672</v>
+        <v>294524</v>
       </c>
       <c r="S51" s="11">
-        <v>416787</v>
+        <v>0</v>
       </c>
       <c r="T51" s="11">
-        <v>294524</v>
+        <v>742185</v>
       </c>
       <c r="U51" s="11">
-        <v>0</v>
+        <v>198534</v>
       </c>
       <c r="V51" s="11">
-        <v>742185</v>
+        <v>0</v>
       </c>
       <c r="W51" s="11">
-        <v>198534</v>
+        <v>0</v>
       </c>
       <c r="X51" s="11">
-        <v>0</v>
+        <v>1054771</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
       </c>
       <c r="Z51" s="11">
-        <v>1054771</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="11">
-        <v>0</v>
+        <v>1607026</v>
       </c>
       <c r="AB51" s="11">
         <v>0</v>
       </c>
       <c r="AC51" s="11">
-        <v>1607026</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="11">
         <v>0</v>
@@ -6503,52 +6503,52 @@
         <v>0</v>
       </c>
       <c r="AF51" s="11">
-        <v>0</v>
+        <v>1942872</v>
       </c>
       <c r="AG51" s="11">
         <v>0</v>
       </c>
       <c r="AH51" s="11">
-        <v>1942872</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="11">
-        <v>0</v>
+        <v>1445204</v>
       </c>
       <c r="AJ51" s="11">
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="AK51" s="11">
-        <v>1445204</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="11">
-        <v>960000</v>
+        <v>2746187</v>
       </c>
       <c r="AM51" s="11">
         <v>0</v>
       </c>
       <c r="AN51" s="11">
-        <v>2746187</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="11">
-        <v>0</v>
+        <v>4000557</v>
       </c>
       <c r="AP51" s="11">
         <v>0</v>
       </c>
       <c r="AQ51" s="11">
-        <v>4000557</v>
+        <v>1544237</v>
       </c>
       <c r="AR51" s="11">
-        <v>0</v>
+        <v>1815541</v>
       </c>
       <c r="AS51" s="11">
-        <v>1544237</v>
-      </c>
-      <c r="AT51" s="11">
-        <v>1760226</v>
-      </c>
-      <c r="AU51" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV51" s="11" t="s">
         <v>57</v>
@@ -6703,32 +6703,32 @@
       <c r="AS52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU52" s="13" t="s">
-        <v>57</v>
+      <c r="AT52" s="13">
+        <v>2084294</v>
+      </c>
+      <c r="AU52" s="13">
+        <v>1908254</v>
       </c>
       <c r="AV52" s="13">
-        <v>1990194</v>
+        <v>1808468</v>
       </c>
       <c r="AW52" s="13">
-        <v>1935844</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="13">
-        <v>1784091</v>
+        <v>1274103</v>
       </c>
       <c r="AY52" s="13">
         <v>0</v>
       </c>
       <c r="AZ52" s="13">
-        <v>1406555</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="13">
-        <v>0</v>
+        <v>3137913</v>
       </c>
       <c r="BB52" s="13">
-        <v>0</v>
+        <v>2461909</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6865,29 +6865,29 @@
       <c r="AT53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW53" s="11" t="s">
-        <v>57</v>
+      <c r="AU53" s="11">
+        <v>4104271</v>
+      </c>
+      <c r="AV53" s="11">
+        <v>-56</v>
+      </c>
+      <c r="AW53" s="11">
+        <v>6787444</v>
       </c>
       <c r="AX53" s="11">
-        <v>0</v>
+        <v>5408878</v>
       </c>
       <c r="AY53" s="11">
-        <v>6787492</v>
+        <v>4009525</v>
       </c>
       <c r="AZ53" s="11">
-        <v>5582676</v>
+        <v>10740474</v>
       </c>
       <c r="BA53" s="11">
-        <v>4009525</v>
+        <v>1543023</v>
       </c>
       <c r="BB53" s="11">
-        <v>10792366</v>
+        <v>4165958</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7024,29 +7024,29 @@
       <c r="AT54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW54" s="13" t="s">
-        <v>57</v>
+      <c r="AU54" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>3200463</v>
+      </c>
+      <c r="AW54" s="13">
+        <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <v>3200463</v>
+        <v>-166</v>
       </c>
       <c r="AY54" s="13">
         <v>0</v>
       </c>
       <c r="AZ54" s="13">
-        <v>0</v>
+        <v>630300</v>
       </c>
       <c r="BA54" s="13">
         <v>0</v>
       </c>
       <c r="BB54" s="13">
-        <v>630300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7174,11 +7174,11 @@
       <c r="X56" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y56" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z56" s="17" t="s">
-        <v>57</v>
+      <c r="Y56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="17">
+        <v>0</v>
       </c>
       <c r="AA56" s="17">
         <v>0</v>
@@ -7390,11 +7390,11 @@
       <c r="X58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y58" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z58" s="17" t="s">
-        <v>57</v>
+      <c r="Y58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="17">
+        <v>0</v>
       </c>
       <c r="AA58" s="17">
         <v>0</v>
@@ -7606,11 +7606,11 @@
       <c r="X60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z60" s="11" t="s">
-        <v>57</v>
+      <c r="Y60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>0</v>
       </c>
       <c r="AA60" s="11">
         <v>0</v>
@@ -7704,154 +7704,154 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19">
-        <v>3896900</v>
+        <v>3095700</v>
       </c>
       <c r="F61" s="19">
-        <v>3128937</v>
+        <v>946853</v>
       </c>
       <c r="G61" s="19">
-        <v>3095700</v>
+        <v>1851816</v>
       </c>
       <c r="H61" s="19">
-        <v>946853</v>
+        <v>1650985</v>
       </c>
       <c r="I61" s="19">
-        <v>1851816</v>
+        <v>2554873</v>
       </c>
       <c r="J61" s="19">
-        <v>1650985</v>
+        <v>2495805</v>
       </c>
       <c r="K61" s="19">
-        <v>2554873</v>
+        <v>2844478</v>
       </c>
       <c r="L61" s="19">
-        <v>2495805</v>
+        <v>3407396</v>
       </c>
       <c r="M61" s="19">
-        <v>2844478</v>
+        <v>2601554</v>
       </c>
       <c r="N61" s="19">
-        <v>3407396</v>
+        <v>914240</v>
       </c>
       <c r="O61" s="19">
-        <v>2601554</v>
+        <v>2251386</v>
       </c>
       <c r="P61" s="19">
-        <v>914240</v>
+        <v>952060</v>
       </c>
       <c r="Q61" s="19">
-        <v>2251386</v>
+        <v>996184</v>
       </c>
       <c r="R61" s="19">
-        <v>952060</v>
+        <v>2529711</v>
       </c>
       <c r="S61" s="19">
-        <v>996184</v>
+        <v>1988633</v>
       </c>
       <c r="T61" s="19">
-        <v>2529711</v>
+        <v>5773042</v>
       </c>
       <c r="U61" s="19">
-        <v>1988633</v>
+        <v>615016</v>
       </c>
       <c r="V61" s="19">
-        <v>5773042</v>
+        <v>1376363</v>
       </c>
       <c r="W61" s="19">
-        <v>615016</v>
+        <v>2043820</v>
       </c>
       <c r="X61" s="19">
-        <v>1376363</v>
+        <v>2104123</v>
       </c>
       <c r="Y61" s="19">
-        <v>2043820</v>
+        <v>320638</v>
       </c>
       <c r="Z61" s="19">
-        <v>2104123</v>
+        <v>3748080</v>
       </c>
       <c r="AA61" s="19">
-        <v>320638</v>
+        <v>4348324</v>
       </c>
       <c r="AB61" s="19">
-        <v>3748080</v>
+        <v>6013185</v>
       </c>
       <c r="AC61" s="19">
-        <v>4348324</v>
+        <v>5743178</v>
       </c>
       <c r="AD61" s="19">
-        <v>6013185</v>
+        <v>2069679</v>
       </c>
       <c r="AE61" s="19">
-        <v>5743178</v>
+        <v>9293042</v>
       </c>
       <c r="AF61" s="19">
-        <v>2069679</v>
+        <v>4583224</v>
       </c>
       <c r="AG61" s="19">
-        <v>9293042</v>
+        <v>9016302</v>
       </c>
       <c r="AH61" s="19">
-        <v>4583224</v>
+        <v>7556743</v>
       </c>
       <c r="AI61" s="19">
-        <v>9016302</v>
+        <v>6237241</v>
       </c>
       <c r="AJ61" s="19">
-        <v>7556743</v>
+        <v>3802890</v>
       </c>
       <c r="AK61" s="19">
-        <v>6237241</v>
+        <v>10822049</v>
       </c>
       <c r="AL61" s="19">
-        <v>3802890</v>
+        <v>2746187</v>
       </c>
       <c r="AM61" s="19">
-        <v>10822049</v>
+        <v>10066130</v>
       </c>
       <c r="AN61" s="19">
-        <v>2746187</v>
+        <v>7923879</v>
       </c>
       <c r="AO61" s="19">
-        <v>10066130</v>
+        <v>5498850</v>
       </c>
       <c r="AP61" s="19">
-        <v>7923879</v>
+        <v>6397029</v>
       </c>
       <c r="AQ61" s="19">
-        <v>5498850</v>
+        <v>13484594</v>
       </c>
       <c r="AR61" s="19">
-        <v>6397029</v>
+        <v>12468084</v>
       </c>
       <c r="AS61" s="19">
-        <v>13484594</v>
+        <v>5176187</v>
       </c>
       <c r="AT61" s="19">
-        <v>12350922</v>
+        <v>7406932</v>
       </c>
       <c r="AU61" s="19">
-        <v>5176187</v>
+        <v>9696353</v>
       </c>
       <c r="AV61" s="19">
-        <v>7239011</v>
+        <v>8402206</v>
       </c>
       <c r="AW61" s="19">
-        <v>9780475</v>
+        <v>9474009</v>
       </c>
       <c r="AX61" s="19">
-        <v>8134769</v>
+        <v>6682815</v>
       </c>
       <c r="AY61" s="19">
-        <v>9767627</v>
+        <v>6786595</v>
       </c>
       <c r="AZ61" s="19">
-        <v>6989231</v>
+        <v>12508885</v>
       </c>
       <c r="BA61" s="19">
-        <v>6786595</v>
+        <v>7374004</v>
       </c>
       <c r="BB61" s="19">
-        <v>12560777</v>
+        <v>10694823</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8297,13 +8297,13 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>0</v>
+        <v>12129140</v>
       </c>
       <c r="F68" s="11">
         <v>0</v>
       </c>
       <c r="G68" s="11">
-        <v>12129140</v>
+        <v>0</v>
       </c>
       <c r="H68" s="11">
         <v>0</v>
@@ -8312,47 +8312,47 @@
         <v>0</v>
       </c>
       <c r="J68" s="11">
-        <v>0</v>
+        <v>7979339</v>
       </c>
       <c r="K68" s="11">
-        <v>0</v>
+        <v>9218678</v>
       </c>
       <c r="L68" s="11">
-        <v>7979339</v>
+        <v>0</v>
       </c>
       <c r="M68" s="11">
-        <v>9218678</v>
+        <v>8940167</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <v>8940167</v>
+        <v>6320963</v>
       </c>
       <c r="P68" s="11">
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <v>6320963</v>
+        <v>0</v>
       </c>
       <c r="R68" s="11">
-        <v>0</v>
+        <v>3423409</v>
       </c>
       <c r="S68" s="11">
         <v>0</v>
       </c>
       <c r="T68" s="11">
-        <v>3423409</v>
+        <v>0</v>
       </c>
       <c r="U68" s="11">
-        <v>0</v>
-      </c>
-      <c r="V68" s="11">
-        <v>0</v>
-      </c>
-      <c r="W68" s="11">
         <v>6167896</v>
       </c>
+      <c r="V68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W68" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X68" s="11" t="s">
         <v>57</v>
       </c>
@@ -8365,23 +8365,23 @@
       <c r="AA68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB68" s="11" t="s">
-        <v>57</v>
+      <c r="AB68" s="11">
+        <v>13086379</v>
       </c>
       <c r="AC68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD68" s="11">
-        <v>13086379</v>
-      </c>
-      <c r="AE68" s="11" t="s">
-        <v>57</v>
+      <c r="AD68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE68" s="11">
+        <v>22082999</v>
       </c>
       <c r="AF68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG68" s="11">
-        <v>22082999</v>
+      <c r="AG68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH68" s="11" t="s">
         <v>57</v>
@@ -8392,35 +8392,35 @@
       <c r="AJ68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK68" s="11" t="s">
-        <v>57</v>
+      <c r="AK68" s="11">
+        <v>31562192</v>
       </c>
       <c r="AL68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM68" s="11">
-        <v>31562192</v>
+      <c r="AM68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO68" s="11" t="s">
-        <v>57</v>
+      <c r="AO68" s="11">
+        <v>43455234</v>
       </c>
       <c r="AP68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ68" s="11">
-        <v>43455234</v>
-      </c>
-      <c r="AR68" s="11" t="s">
-        <v>57</v>
+      <c r="AQ68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR68" s="11">
+        <v>67011902</v>
       </c>
       <c r="AS68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT68" s="11">
-        <v>67023222</v>
+      <c r="AT68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU68" s="11" t="s">
         <v>57</v>
@@ -8456,139 +8456,139 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>28605236</v>
+        <v>29383192</v>
       </c>
       <c r="F69" s="13">
-        <v>31177145</v>
+        <v>17860498</v>
       </c>
       <c r="G69" s="13">
-        <v>29383192</v>
+        <v>20054205</v>
       </c>
       <c r="H69" s="13">
-        <v>17860498</v>
+        <v>25523393</v>
       </c>
       <c r="I69" s="13">
-        <v>20054205</v>
+        <v>26295681</v>
       </c>
       <c r="J69" s="13">
-        <v>25523393</v>
+        <v>27679619</v>
       </c>
       <c r="K69" s="13">
-        <v>26295681</v>
+        <v>31000444</v>
       </c>
       <c r="L69" s="13">
-        <v>27679619</v>
+        <v>29096612</v>
       </c>
       <c r="M69" s="13">
-        <v>31000444</v>
+        <v>28693486</v>
       </c>
       <c r="N69" s="13">
-        <v>29096612</v>
+        <v>26259191</v>
       </c>
       <c r="O69" s="13">
-        <v>28693486</v>
+        <v>23555792</v>
       </c>
       <c r="P69" s="13">
-        <v>26259191</v>
+        <v>24770527</v>
       </c>
       <c r="Q69" s="13">
-        <v>23555792</v>
+        <v>24206016</v>
       </c>
       <c r="R69" s="13">
-        <v>24770527</v>
+        <v>22863022</v>
       </c>
       <c r="S69" s="13">
-        <v>24206016</v>
+        <v>27564733</v>
       </c>
       <c r="T69" s="13">
-        <v>22863022</v>
+        <v>31019719</v>
       </c>
       <c r="U69" s="13">
-        <v>27564733</v>
+        <v>0</v>
       </c>
       <c r="V69" s="13">
-        <v>31019719</v>
+        <v>24029942</v>
       </c>
       <c r="W69" s="13">
-        <v>0</v>
+        <v>25336675</v>
       </c>
       <c r="X69" s="13">
-        <v>24029942</v>
-      </c>
-      <c r="Y69" s="13">
-        <v>25336675</v>
+        <v>25484554</v>
+      </c>
+      <c r="Y69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z69" s="13">
-        <v>25484554</v>
-      </c>
-      <c r="AA69" s="13" t="s">
-        <v>57</v>
+        <v>32920722</v>
+      </c>
+      <c r="AA69" s="13">
+        <v>40745986</v>
       </c>
       <c r="AB69" s="13">
-        <v>32920722</v>
+        <v>48404292</v>
       </c>
       <c r="AC69" s="13">
-        <v>40745986</v>
+        <v>61999266</v>
       </c>
       <c r="AD69" s="13">
-        <v>48404292</v>
+        <v>69530148</v>
       </c>
       <c r="AE69" s="13">
-        <v>61999266</v>
-      </c>
-      <c r="AF69" s="13">
-        <v>69530148</v>
+        <v>78396770</v>
+      </c>
+      <c r="AF69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG69" s="13">
-        <v>78396770</v>
-      </c>
-      <c r="AH69" s="13" t="s">
-        <v>57</v>
+        <v>72841788</v>
+      </c>
+      <c r="AH69" s="13">
+        <v>69889069</v>
       </c>
       <c r="AI69" s="13">
-        <v>72841788</v>
+        <v>68126658</v>
       </c>
       <c r="AJ69" s="13">
-        <v>69889069</v>
+        <v>68951031</v>
       </c>
       <c r="AK69" s="13">
-        <v>68126658</v>
-      </c>
-      <c r="AL69" s="13">
-        <v>68951031</v>
+        <v>73978767</v>
+      </c>
+      <c r="AL69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM69" s="13">
-        <v>73978767</v>
+        <v>85045285</v>
       </c>
       <c r="AN69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO69" s="13">
-        <v>85045285</v>
-      </c>
-      <c r="AP69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ69" s="13" t="s">
-        <v>57</v>
+      <c r="AO69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP69" s="13">
+        <v>84362360</v>
+      </c>
+      <c r="AQ69" s="13">
+        <v>72044034</v>
       </c>
       <c r="AR69" s="13">
-        <v>84362360</v>
+        <v>84990395</v>
       </c>
       <c r="AS69" s="13">
-        <v>72044034</v>
+        <v>73027681</v>
       </c>
       <c r="AT69" s="13">
-        <v>84878803</v>
-      </c>
-      <c r="AU69" s="13">
-        <v>73027681</v>
-      </c>
-      <c r="AV69" s="13">
-        <v>90223064</v>
-      </c>
-      <c r="AW69" s="13">
-        <v>84746604</v>
+        <v>91491990</v>
+      </c>
+      <c r="AU69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX69" s="13" t="s">
         <v>57</v>
@@ -8615,154 +8615,154 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>42575670</v>
+        <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>45852604</v>
+        <v>25350353</v>
       </c>
       <c r="G70" s="11">
-        <v>0</v>
+        <v>28273900</v>
       </c>
       <c r="H70" s="11">
-        <v>25350353</v>
+        <v>31861858</v>
       </c>
       <c r="I70" s="11">
-        <v>28273900</v>
+        <v>33477325</v>
       </c>
       <c r="J70" s="11">
-        <v>31861858</v>
+        <v>42468500</v>
       </c>
       <c r="K70" s="11">
-        <v>33477325</v>
+        <v>49321570</v>
       </c>
       <c r="L70" s="11">
-        <v>42468500</v>
+        <v>30350091</v>
       </c>
       <c r="M70" s="11">
-        <v>49321570</v>
+        <v>34443285</v>
       </c>
       <c r="N70" s="11">
-        <v>30350091</v>
+        <v>0</v>
       </c>
       <c r="O70" s="11">
-        <v>34443285</v>
+        <v>33757649</v>
       </c>
       <c r="P70" s="11">
-        <v>0</v>
+        <v>44082748</v>
       </c>
       <c r="Q70" s="11">
-        <v>33757649</v>
+        <v>43837610</v>
       </c>
       <c r="R70" s="11">
-        <v>44082748</v>
+        <v>44335392</v>
       </c>
       <c r="S70" s="11">
-        <v>43837610</v>
+        <v>58427278</v>
       </c>
       <c r="T70" s="11">
-        <v>44335392</v>
+        <v>62970494</v>
       </c>
       <c r="U70" s="11">
-        <v>58427278</v>
-      </c>
-      <c r="V70" s="11">
-        <v>62970494</v>
+        <v>60182505</v>
+      </c>
+      <c r="V70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W70" s="11">
-        <v>60182505</v>
+        <v>38533447</v>
       </c>
       <c r="X70" s="11" t="s">
         <v>57</v>
       </c>
       <c r="Y70" s="11">
-        <v>38533447</v>
-      </c>
-      <c r="Z70" s="11" t="s">
-        <v>57</v>
+        <v>47367994</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>50833025</v>
       </c>
       <c r="AA70" s="11">
-        <v>47367994</v>
+        <v>54534292</v>
       </c>
       <c r="AB70" s="11">
-        <v>50833025</v>
-      </c>
-      <c r="AC70" s="11">
-        <v>54534292</v>
+        <v>66674431</v>
+      </c>
+      <c r="AC70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD70" s="11">
-        <v>66674431</v>
-      </c>
-      <c r="AE70" s="11" t="s">
-        <v>57</v>
+        <v>95452321</v>
+      </c>
+      <c r="AE70" s="11">
+        <v>93429724</v>
       </c>
       <c r="AF70" s="11">
-        <v>95452321</v>
+        <v>97209507</v>
       </c>
       <c r="AG70" s="11">
-        <v>93429724</v>
+        <v>67440678</v>
       </c>
       <c r="AH70" s="11">
-        <v>97209507</v>
+        <v>79459575</v>
       </c>
       <c r="AI70" s="11">
-        <v>67440678</v>
+        <v>90354514</v>
       </c>
       <c r="AJ70" s="11">
-        <v>79459575</v>
+        <v>70407098</v>
       </c>
       <c r="AK70" s="11">
-        <v>90354514</v>
-      </c>
-      <c r="AL70" s="11">
-        <v>70407098</v>
-      </c>
-      <c r="AM70" s="11">
         <v>130851248</v>
       </c>
-      <c r="AN70" s="11" t="s">
-        <v>57</v>
+      <c r="AL70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN70" s="11">
+        <v>178883089</v>
       </c>
       <c r="AO70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP70" s="11">
-        <v>178883089</v>
-      </c>
-      <c r="AQ70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR70" s="11" t="s">
-        <v>57</v>
+      <c r="AP70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ70" s="11">
+        <v>169439102</v>
+      </c>
+      <c r="AR70" s="11">
+        <v>0</v>
       </c>
       <c r="AS70" s="11">
-        <v>169439102</v>
+        <v>203668480</v>
       </c>
       <c r="AT70" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AU70" s="11">
-        <v>203668480</v>
-      </c>
-      <c r="AV70" s="11" t="s">
-        <v>57</v>
+        <v>181676468</v>
+      </c>
+      <c r="AV70" s="11">
+        <v>160618633</v>
       </c>
       <c r="AW70" s="11">
-        <v>181676468</v>
+        <v>141129587</v>
       </c>
       <c r="AX70" s="11">
-        <v>154648609</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="11">
-        <v>146261877</v>
-      </c>
-      <c r="AZ70" s="11" t="s">
-        <v>57</v>
+        <v>134927540</v>
+      </c>
+      <c r="AZ70" s="11">
+        <v>118689078</v>
       </c>
       <c r="BA70" s="11">
-        <v>134927540</v>
+        <v>133713074</v>
       </c>
       <c r="BB70" s="11">
-        <v>118707135</v>
+        <v>149189732</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -8774,154 +8774,154 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>41521682</v>
+        <v>0</v>
       </c>
       <c r="F71" s="13">
-        <v>45668195</v>
+        <v>27687821</v>
       </c>
       <c r="G71" s="13">
-        <v>0</v>
+        <v>29061723</v>
       </c>
       <c r="H71" s="13">
-        <v>27687821</v>
+        <v>29353480</v>
       </c>
       <c r="I71" s="13">
-        <v>29061723</v>
+        <v>31071806</v>
       </c>
       <c r="J71" s="13">
-        <v>29353480</v>
+        <v>40534360</v>
       </c>
       <c r="K71" s="13">
-        <v>31071806</v>
+        <v>47959155</v>
       </c>
       <c r="L71" s="13">
-        <v>40534360</v>
+        <v>32600525</v>
       </c>
       <c r="M71" s="13">
-        <v>47959155</v>
+        <v>37674245</v>
       </c>
       <c r="N71" s="13">
-        <v>32600525</v>
+        <v>0</v>
       </c>
       <c r="O71" s="13">
-        <v>37674245</v>
+        <v>32660396</v>
       </c>
       <c r="P71" s="13">
-        <v>0</v>
+        <v>41414872</v>
       </c>
       <c r="Q71" s="13">
-        <v>32660396</v>
+        <v>42224537</v>
       </c>
       <c r="R71" s="13">
-        <v>41414872</v>
+        <v>42759578</v>
       </c>
       <c r="S71" s="13">
-        <v>42224537</v>
+        <v>55976056</v>
       </c>
       <c r="T71" s="13">
-        <v>42759578</v>
+        <v>57882244</v>
       </c>
       <c r="U71" s="13">
-        <v>55976056</v>
-      </c>
-      <c r="V71" s="13">
-        <v>57882244</v>
+        <v>53269832</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W71" s="13">
-        <v>53269832</v>
+        <v>38534949</v>
       </c>
       <c r="X71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="Y71" s="13">
-        <v>38534949</v>
-      </c>
-      <c r="Z71" s="13" t="s">
-        <v>57</v>
+        <v>50938356</v>
+      </c>
+      <c r="Z71" s="13">
+        <v>54966615</v>
       </c>
       <c r="AA71" s="13">
-        <v>50938356</v>
+        <v>57706553</v>
       </c>
       <c r="AB71" s="13">
-        <v>54966615</v>
-      </c>
-      <c r="AC71" s="13">
-        <v>57706553</v>
+        <v>67829871</v>
+      </c>
+      <c r="AC71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD71" s="13">
-        <v>67829871</v>
-      </c>
-      <c r="AE71" s="13" t="s">
-        <v>57</v>
+        <v>92906933</v>
+      </c>
+      <c r="AE71" s="13">
+        <v>90869985</v>
       </c>
       <c r="AF71" s="13">
-        <v>92906933</v>
-      </c>
-      <c r="AG71" s="13">
-        <v>90869985</v>
+        <v>101691814</v>
+      </c>
+      <c r="AG71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH71" s="13">
-        <v>101691814</v>
-      </c>
-      <c r="AI71" s="13" t="s">
-        <v>57</v>
+        <v>86408358</v>
+      </c>
+      <c r="AI71" s="13">
+        <v>94415396</v>
       </c>
       <c r="AJ71" s="13">
-        <v>86408358</v>
+        <v>71444282</v>
       </c>
       <c r="AK71" s="13">
-        <v>94415396</v>
-      </c>
-      <c r="AL71" s="13">
-        <v>71444282</v>
-      </c>
-      <c r="AM71" s="13">
         <v>130832143</v>
       </c>
-      <c r="AN71" s="13" t="s">
-        <v>57</v>
+      <c r="AL71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN71" s="13">
+        <v>179670048</v>
       </c>
       <c r="AO71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP71" s="13">
-        <v>179670048</v>
-      </c>
-      <c r="AQ71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR71" s="13" t="s">
-        <v>57</v>
+      <c r="AP71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ71" s="13">
+        <v>176915629</v>
+      </c>
+      <c r="AR71" s="13">
+        <v>0</v>
       </c>
       <c r="AS71" s="13">
-        <v>176915629</v>
+        <v>198856689</v>
       </c>
       <c r="AT71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AU71" s="13">
-        <v>198856689</v>
-      </c>
-      <c r="AV71" s="13" t="s">
-        <v>57</v>
+        <v>179233816</v>
+      </c>
+      <c r="AV71" s="13">
+        <v>160611658</v>
       </c>
       <c r="AW71" s="13">
-        <v>179233816</v>
+        <v>142009948</v>
       </c>
       <c r="AX71" s="13">
-        <v>154651652</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="13">
-        <v>146248969</v>
-      </c>
-      <c r="AZ71" s="13" t="s">
-        <v>57</v>
+        <v>140247727</v>
+      </c>
+      <c r="AZ71" s="13">
+        <v>126851826</v>
       </c>
       <c r="BA71" s="13">
-        <v>140247727</v>
+        <v>133709270</v>
       </c>
       <c r="BB71" s="13">
-        <v>126851826</v>
+        <v>151508205</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -8933,79 +8933,79 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>47336993</v>
+        <v>38999523</v>
       </c>
       <c r="F72" s="11">
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <v>38999523</v>
+        <v>0</v>
       </c>
       <c r="H72" s="11">
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <v>0</v>
+        <v>44115185</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
       </c>
       <c r="K72" s="11">
-        <v>44115185</v>
+        <v>0</v>
       </c>
       <c r="L72" s="11">
-        <v>0</v>
+        <v>41684663</v>
       </c>
       <c r="M72" s="11">
-        <v>0</v>
+        <v>55958878</v>
       </c>
       <c r="N72" s="11">
-        <v>41684663</v>
+        <v>0</v>
       </c>
       <c r="O72" s="11">
-        <v>55958878</v>
+        <v>0</v>
       </c>
       <c r="P72" s="11">
-        <v>0</v>
+        <v>45170378</v>
       </c>
       <c r="Q72" s="11">
-        <v>0</v>
+        <v>47703674</v>
       </c>
       <c r="R72" s="11">
-        <v>45170378</v>
+        <v>55812772</v>
       </c>
       <c r="S72" s="11">
-        <v>47703674</v>
+        <v>0</v>
       </c>
       <c r="T72" s="11">
-        <v>55812772</v>
+        <v>59834328</v>
       </c>
       <c r="U72" s="11">
-        <v>0</v>
-      </c>
-      <c r="V72" s="11">
-        <v>59834328</v>
-      </c>
-      <c r="W72" s="11">
         <v>28739722</v>
       </c>
-      <c r="X72" s="11" t="s">
-        <v>57</v>
+      <c r="V72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X72" s="11">
+        <v>47488677</v>
       </c>
       <c r="Y72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z72" s="11">
-        <v>47488677</v>
-      </c>
-      <c r="AA72" s="11" t="s">
-        <v>57</v>
+      <c r="Z72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA72" s="11">
+        <v>62559405</v>
       </c>
       <c r="AB72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC72" s="11">
-        <v>62559405</v>
+      <c r="AC72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD72" s="11" t="s">
         <v>57</v>
@@ -9013,50 +9013,50 @@
       <c r="AE72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF72" s="11" t="s">
-        <v>57</v>
+      <c r="AF72" s="11">
+        <v>96607429</v>
       </c>
       <c r="AG72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH72" s="11">
-        <v>96607429</v>
-      </c>
-      <c r="AI72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK72" s="11">
+      <c r="AH72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI72" s="11">
         <v>106531328</v>
       </c>
+      <c r="AJ72" s="11">
+        <v>108658744</v>
+      </c>
+      <c r="AK72" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AL72" s="11">
-        <v>108658744</v>
+        <v>124668013</v>
       </c>
       <c r="AM72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN72" s="11">
-        <v>124668013</v>
-      </c>
-      <c r="AO72" s="11" t="s">
-        <v>57</v>
+      <c r="AN72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO72" s="11">
+        <v>159340304</v>
       </c>
       <c r="AP72" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AQ72" s="11">
-        <v>159340304</v>
-      </c>
-      <c r="AR72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS72" s="11">
         <v>154733166</v>
       </c>
-      <c r="AT72" s="11">
-        <v>175338779</v>
+      <c r="AR72" s="11">
+        <v>175958010</v>
+      </c>
+      <c r="AS72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU72" s="11" t="s">
         <v>57</v>
@@ -9214,32 +9214,32 @@
       <c r="AS73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU73" s="13" t="s">
-        <v>57</v>
+      <c r="AT73" s="13">
+        <v>210619846</v>
+      </c>
+      <c r="AU73" s="13">
+        <v>190344688</v>
       </c>
       <c r="AV73" s="13">
-        <v>201110954</v>
+        <v>175238674</v>
       </c>
       <c r="AW73" s="13">
-        <v>191724671</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="13">
-        <v>174432049</v>
+        <v>148443112</v>
       </c>
       <c r="AY73" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AZ73" s="13">
-        <v>151797431</v>
-      </c>
-      <c r="BA73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB73" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="BA73" s="13">
+        <v>156021927</v>
+      </c>
+      <c r="BB73" s="13">
+        <v>143225842</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9376,29 +9376,29 @@
       <c r="AT74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX74" s="11" t="s">
-        <v>57</v>
+      <c r="AU74" s="11">
+        <v>84220422</v>
+      </c>
+      <c r="AV74" s="11">
+        <v>-522</v>
+      </c>
+      <c r="AW74" s="11">
+        <v>74614640</v>
+      </c>
+      <c r="AX74" s="11">
+        <v>69007755</v>
       </c>
       <c r="AY74" s="11">
-        <v>74614882</v>
+        <v>73838880</v>
       </c>
       <c r="AZ74" s="11">
-        <v>69632000</v>
+        <v>85637420</v>
       </c>
       <c r="BA74" s="11">
-        <v>73838880</v>
+        <v>70277965</v>
       </c>
       <c r="BB74" s="11">
-        <v>86050487</v>
+        <v>81250522</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9538,26 +9538,26 @@
       <c r="AU75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV75" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW75" s="13" t="s">
-        <v>57</v>
+      <c r="AV75" s="13">
+        <v>100008218</v>
+      </c>
+      <c r="AW75" s="13">
+        <v>0</v>
       </c>
       <c r="AX75" s="13">
-        <v>100008218</v>
+        <v>-5187</v>
       </c>
       <c r="AY75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ75" s="13" t="s">
-        <v>57</v>
+      <c r="AZ75" s="13">
+        <v>22502678</v>
       </c>
       <c r="BA75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BB75" s="13">
-        <v>22502678</v>
+      <c r="BB75" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/shekhark/product/monthly.xlsx
+++ b/database/industries/methanol/shekhark/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDDB47-AD7F-4CDB-A4BE-FBEBC19F4567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C511498-14EF-4176-8586-F43CD28E9B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شخارک-پتروشیمی‌ خارک‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>گوگرد</t>
@@ -742,12 +742,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -802,7 +802,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +971,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1418,130 +1418,130 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>10638</v>
+        <v>10770</v>
       </c>
       <c r="F11" s="11">
-        <v>10922</v>
+        <v>10795</v>
       </c>
       <c r="G11" s="11">
-        <v>10770</v>
+        <v>10623</v>
       </c>
       <c r="H11" s="11">
-        <v>10795</v>
+        <v>10864</v>
       </c>
       <c r="I11" s="11">
-        <v>10623</v>
+        <v>11962</v>
       </c>
       <c r="J11" s="11">
-        <v>10864</v>
+        <v>12062</v>
       </c>
       <c r="K11" s="11">
-        <v>11962</v>
+        <v>11224</v>
       </c>
       <c r="L11" s="11">
-        <v>12062</v>
+        <v>11219</v>
       </c>
       <c r="M11" s="11">
-        <v>11224</v>
+        <v>11382</v>
       </c>
       <c r="N11" s="11">
-        <v>11219</v>
+        <v>11139</v>
       </c>
       <c r="O11" s="11">
-        <v>11382</v>
+        <v>11714</v>
       </c>
       <c r="P11" s="11">
-        <v>11139</v>
+        <v>11660</v>
       </c>
       <c r="Q11" s="11">
-        <v>11714</v>
+        <v>10709</v>
       </c>
       <c r="R11" s="11">
-        <v>11660</v>
+        <v>10630</v>
       </c>
       <c r="S11" s="11">
-        <v>10709</v>
+        <v>9319</v>
       </c>
       <c r="T11" s="11">
-        <v>10630</v>
+        <v>7988</v>
       </c>
       <c r="U11" s="11">
-        <v>9319</v>
+        <v>5301</v>
       </c>
       <c r="V11" s="11">
+        <v>4300</v>
+      </c>
+      <c r="W11" s="11">
+        <v>4739</v>
+      </c>
+      <c r="X11" s="11">
+        <v>6119</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>66440</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>6940</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>6499</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>1070</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>8383</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>8627</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>6277</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>7533</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>7470</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>5063</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>6535</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>4979</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>8299</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>8061</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>7717</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>6939</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>7175</v>
+      </c>
+      <c r="AP11" s="11">
         <v>7988</v>
       </c>
-      <c r="W11" s="11">
-        <v>5301</v>
-      </c>
-      <c r="X11" s="11">
-        <v>4300</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>4739</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>6119</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>66440</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>6940</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>6499</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>1070</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>8383</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>8627</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>6277</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>7533</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>7470</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>5063</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>6535</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>4979</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>8299</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>8061</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>7717</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>6939</v>
-      </c>
       <c r="AQ11" s="11">
-        <v>7175</v>
+        <v>9080</v>
       </c>
       <c r="AR11" s="11">
-        <v>7988</v>
+        <v>8926</v>
       </c>
       <c r="AS11" s="11">
-        <v>9080</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>8926</v>
+        <v>8249</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
@@ -1568,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1577,130 +1577,130 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>52817</v>
+        <v>51131</v>
       </c>
       <c r="F12" s="13">
-        <v>52800</v>
+        <v>57094</v>
       </c>
       <c r="G12" s="13">
-        <v>51131</v>
+        <v>56001</v>
       </c>
       <c r="H12" s="13">
-        <v>57094</v>
+        <v>60805</v>
       </c>
       <c r="I12" s="13">
-        <v>56001</v>
+        <v>57202</v>
       </c>
       <c r="J12" s="13">
-        <v>60805</v>
+        <v>46794</v>
       </c>
       <c r="K12" s="13">
-        <v>57202</v>
+        <v>49140</v>
       </c>
       <c r="L12" s="13">
-        <v>46794</v>
+        <v>51746</v>
       </c>
       <c r="M12" s="13">
-        <v>49140</v>
+        <v>37761</v>
       </c>
       <c r="N12" s="13">
-        <v>51746</v>
+        <v>49901</v>
       </c>
       <c r="O12" s="13">
-        <v>37761</v>
+        <v>48818</v>
       </c>
       <c r="P12" s="13">
-        <v>49901</v>
+        <v>49373</v>
       </c>
       <c r="Q12" s="13">
-        <v>48818</v>
+        <v>49867</v>
       </c>
       <c r="R12" s="13">
-        <v>49373</v>
+        <v>47870</v>
       </c>
       <c r="S12" s="13">
-        <v>49867</v>
+        <v>53945</v>
       </c>
       <c r="T12" s="13">
-        <v>47870</v>
+        <v>59257</v>
       </c>
       <c r="U12" s="13">
-        <v>53945</v>
+        <v>46096</v>
       </c>
       <c r="V12" s="13">
-        <v>59257</v>
+        <v>58173</v>
       </c>
       <c r="W12" s="13">
-        <v>46096</v>
+        <v>58809</v>
       </c>
       <c r="X12" s="13">
-        <v>58173</v>
+        <v>57818</v>
       </c>
       <c r="Y12" s="13">
-        <v>58809</v>
+        <v>58241</v>
       </c>
       <c r="Z12" s="13">
-        <v>57818</v>
+        <v>44206</v>
       </c>
       <c r="AA12" s="13">
-        <v>58241</v>
+        <v>47370</v>
       </c>
       <c r="AB12" s="13">
-        <v>44206</v>
+        <v>51980</v>
       </c>
       <c r="AC12" s="13">
-        <v>47370</v>
+        <v>47376</v>
       </c>
       <c r="AD12" s="13">
-        <v>51980</v>
+        <v>54519</v>
       </c>
       <c r="AE12" s="13">
-        <v>47376</v>
+        <v>53288</v>
       </c>
       <c r="AF12" s="13">
-        <v>54519</v>
+        <v>55287</v>
       </c>
       <c r="AG12" s="13">
-        <v>53288</v>
+        <v>34495</v>
       </c>
       <c r="AH12" s="13">
-        <v>55287</v>
+        <v>13071</v>
       </c>
       <c r="AI12" s="13">
-        <v>34495</v>
+        <v>61428</v>
       </c>
       <c r="AJ12" s="13">
-        <v>13071</v>
+        <v>57554</v>
       </c>
       <c r="AK12" s="13">
-        <v>61428</v>
+        <v>61164</v>
       </c>
       <c r="AL12" s="13">
-        <v>57554</v>
+        <v>59311</v>
       </c>
       <c r="AM12" s="13">
-        <v>61164</v>
+        <v>55026</v>
       </c>
       <c r="AN12" s="13">
-        <v>59311</v>
+        <v>59527</v>
       </c>
       <c r="AO12" s="13">
-        <v>55026</v>
+        <v>58891</v>
       </c>
       <c r="AP12" s="13">
-        <v>59527</v>
+        <v>60355</v>
       </c>
       <c r="AQ12" s="13">
-        <v>58891</v>
+        <v>49330</v>
       </c>
       <c r="AR12" s="13">
-        <v>60355</v>
+        <v>41724</v>
       </c>
       <c r="AS12" s="13">
-        <v>49330</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>41724</v>
+        <v>58219</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>57</v>
@@ -1727,7 +1727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1736,157 +1736,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>10498</v>
+        <v>6736</v>
       </c>
       <c r="F13" s="11">
-        <v>7898</v>
+        <v>4624</v>
       </c>
       <c r="G13" s="11">
-        <v>6736</v>
+        <v>5073</v>
       </c>
       <c r="H13" s="11">
-        <v>4624</v>
+        <v>5617</v>
       </c>
       <c r="I13" s="11">
-        <v>5073</v>
+        <v>9067</v>
       </c>
       <c r="J13" s="11">
-        <v>5617</v>
+        <v>9775</v>
       </c>
       <c r="K13" s="11">
-        <v>9067</v>
+        <v>5069</v>
       </c>
       <c r="L13" s="11">
-        <v>9775</v>
+        <v>5242</v>
       </c>
       <c r="M13" s="11">
-        <v>5069</v>
+        <v>6947</v>
       </c>
       <c r="N13" s="11">
-        <v>5242</v>
+        <v>6568</v>
       </c>
       <c r="O13" s="11">
-        <v>6947</v>
+        <v>7254</v>
       </c>
       <c r="P13" s="11">
-        <v>6568</v>
+        <v>8706</v>
       </c>
       <c r="Q13" s="11">
-        <v>7254</v>
+        <v>8836</v>
       </c>
       <c r="R13" s="11">
-        <v>8706</v>
+        <v>8670</v>
       </c>
       <c r="S13" s="11">
-        <v>8836</v>
+        <v>8645</v>
       </c>
       <c r="T13" s="11">
-        <v>8670</v>
+        <v>9256</v>
       </c>
       <c r="U13" s="11">
-        <v>8645</v>
+        <v>7739</v>
       </c>
       <c r="V13" s="11">
-        <v>9256</v>
+        <v>8778</v>
       </c>
       <c r="W13" s="11">
-        <v>7739</v>
+        <v>8074</v>
       </c>
       <c r="X13" s="11">
-        <v>8778</v>
+        <v>8167</v>
       </c>
       <c r="Y13" s="11">
-        <v>8074</v>
+        <v>8300</v>
       </c>
       <c r="Z13" s="11">
-        <v>8167</v>
+        <v>7727</v>
       </c>
       <c r="AA13" s="11">
-        <v>8300</v>
+        <v>8169</v>
       </c>
       <c r="AB13" s="11">
-        <v>7727</v>
+        <v>1319</v>
       </c>
       <c r="AC13" s="11">
-        <v>8169</v>
+        <v>10611</v>
       </c>
       <c r="AD13" s="11">
-        <v>1319</v>
+        <v>11651</v>
       </c>
       <c r="AE13" s="11">
-        <v>10611</v>
+        <v>6685</v>
       </c>
       <c r="AF13" s="11">
-        <v>11651</v>
+        <v>8674</v>
       </c>
       <c r="AG13" s="11">
-        <v>6685</v>
+        <v>11313</v>
       </c>
       <c r="AH13" s="11">
-        <v>8674</v>
+        <v>8472</v>
       </c>
       <c r="AI13" s="11">
-        <v>11313</v>
+        <v>9228</v>
       </c>
       <c r="AJ13" s="11">
-        <v>8472</v>
+        <v>10890</v>
       </c>
       <c r="AK13" s="11">
-        <v>9228</v>
+        <v>10714</v>
       </c>
       <c r="AL13" s="11">
-        <v>10890</v>
+        <v>8271</v>
       </c>
       <c r="AM13" s="11">
-        <v>10714</v>
+        <v>8156</v>
       </c>
       <c r="AN13" s="11">
-        <v>8271</v>
+        <v>8491</v>
       </c>
       <c r="AO13" s="11">
-        <v>8156</v>
+        <v>8188</v>
       </c>
       <c r="AP13" s="11">
-        <v>8491</v>
+        <v>9023</v>
       </c>
       <c r="AQ13" s="11">
-        <v>8188</v>
+        <v>6844</v>
       </c>
       <c r="AR13" s="11">
-        <v>9023</v>
+        <v>9453</v>
       </c>
       <c r="AS13" s="11">
-        <v>6844</v>
+        <v>8552</v>
       </c>
       <c r="AT13" s="11">
-        <v>9287</v>
+        <v>8862</v>
       </c>
       <c r="AU13" s="11">
-        <v>8380</v>
+        <v>8745</v>
       </c>
       <c r="AV13" s="11">
-        <v>8862</v>
+        <v>7972</v>
       </c>
       <c r="AW13" s="11">
-        <v>8745</v>
+        <v>8681</v>
       </c>
       <c r="AX13" s="11">
-        <v>8859</v>
+        <v>9982</v>
       </c>
       <c r="AY13" s="11">
-        <v>8681</v>
+        <v>11190</v>
       </c>
       <c r="AZ13" s="11">
-        <v>9982</v>
+        <v>11126</v>
       </c>
       <c r="BA13" s="11">
-        <v>11190</v>
+        <v>10966</v>
       </c>
       <c r="BB13" s="11">
-        <v>11126</v>
+        <v>11333</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1895,157 +1895,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>6167</v>
+        <v>4009</v>
       </c>
       <c r="F14" s="13">
-        <v>1933</v>
+        <v>2860</v>
       </c>
       <c r="G14" s="13">
-        <v>4009</v>
+        <v>4262</v>
       </c>
       <c r="H14" s="13">
-        <v>2860</v>
+        <v>5563</v>
       </c>
       <c r="I14" s="13">
-        <v>4262</v>
+        <v>7075</v>
       </c>
       <c r="J14" s="13">
-        <v>5563</v>
+        <v>7085</v>
       </c>
       <c r="K14" s="13">
-        <v>7075</v>
+        <v>5596</v>
       </c>
       <c r="L14" s="13">
-        <v>7085</v>
+        <v>6164</v>
       </c>
       <c r="M14" s="13">
-        <v>5596</v>
+        <v>5647</v>
       </c>
       <c r="N14" s="13">
-        <v>6164</v>
+        <v>5138</v>
       </c>
       <c r="O14" s="13">
-        <v>5647</v>
+        <v>5998</v>
       </c>
       <c r="P14" s="13">
-        <v>5138</v>
+        <v>6834</v>
       </c>
       <c r="Q14" s="13">
-        <v>5998</v>
+        <v>6994</v>
       </c>
       <c r="R14" s="13">
-        <v>6834</v>
+        <v>5972</v>
       </c>
       <c r="S14" s="13">
-        <v>6994</v>
+        <v>7366</v>
       </c>
       <c r="T14" s="13">
-        <v>5972</v>
+        <v>7647</v>
       </c>
       <c r="U14" s="13">
-        <v>7366</v>
+        <v>5957</v>
       </c>
       <c r="V14" s="13">
-        <v>7647</v>
+        <v>5966</v>
       </c>
       <c r="W14" s="13">
-        <v>5957</v>
+        <v>5658</v>
       </c>
       <c r="X14" s="13">
-        <v>5966</v>
+        <v>6830</v>
       </c>
       <c r="Y14" s="13">
-        <v>5658</v>
+        <v>6970</v>
       </c>
       <c r="Z14" s="13">
-        <v>6830</v>
+        <v>6623</v>
       </c>
       <c r="AA14" s="13">
-        <v>6970</v>
+        <v>6846</v>
       </c>
       <c r="AB14" s="13">
-        <v>6623</v>
+        <v>567</v>
       </c>
       <c r="AC14" s="13">
-        <v>6846</v>
+        <v>9168</v>
       </c>
       <c r="AD14" s="13">
-        <v>567</v>
+        <v>8714</v>
       </c>
       <c r="AE14" s="13">
-        <v>9168</v>
+        <v>4835</v>
       </c>
       <c r="AF14" s="13">
-        <v>8714</v>
+        <v>6080</v>
       </c>
       <c r="AG14" s="13">
-        <v>4835</v>
+        <v>8800</v>
       </c>
       <c r="AH14" s="13">
-        <v>6080</v>
+        <v>6310</v>
       </c>
       <c r="AI14" s="13">
-        <v>8800</v>
+        <v>7503</v>
       </c>
       <c r="AJ14" s="13">
-        <v>6310</v>
+        <v>7090</v>
       </c>
       <c r="AK14" s="13">
-        <v>7503</v>
+        <v>6915</v>
       </c>
       <c r="AL14" s="13">
-        <v>7090</v>
+        <v>6258</v>
       </c>
       <c r="AM14" s="13">
-        <v>6915</v>
+        <v>5620</v>
       </c>
       <c r="AN14" s="13">
-        <v>6258</v>
+        <v>5948</v>
       </c>
       <c r="AO14" s="13">
-        <v>5620</v>
+        <v>6319</v>
       </c>
       <c r="AP14" s="13">
-        <v>5948</v>
+        <v>6567</v>
       </c>
       <c r="AQ14" s="13">
-        <v>6319</v>
+        <v>4491</v>
       </c>
       <c r="AR14" s="13">
-        <v>6567</v>
+        <v>6428</v>
       </c>
       <c r="AS14" s="13">
-        <v>4491</v>
+        <v>5748</v>
       </c>
       <c r="AT14" s="13">
-        <v>6188</v>
+        <v>5689</v>
       </c>
       <c r="AU14" s="13">
-        <v>5501</v>
+        <v>5975</v>
       </c>
       <c r="AV14" s="13">
-        <v>5689</v>
+        <v>5527</v>
       </c>
       <c r="AW14" s="13">
-        <v>5975</v>
+        <v>6095</v>
       </c>
       <c r="AX14" s="13">
-        <v>6901</v>
+        <v>7986</v>
       </c>
       <c r="AY14" s="13">
-        <v>6095</v>
+        <v>9222</v>
       </c>
       <c r="AZ14" s="13">
-        <v>7986</v>
+        <v>9199</v>
       </c>
       <c r="BA14" s="13">
-        <v>9222</v>
+        <v>9124</v>
       </c>
       <c r="BB14" s="13">
-        <v>9199</v>
+        <v>9293</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2054,128 +2054,128 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>7602</v>
+        <v>6144</v>
       </c>
       <c r="F15" s="11">
-        <v>6166</v>
+        <v>5175</v>
       </c>
       <c r="G15" s="11">
-        <v>6144</v>
+        <v>4602</v>
       </c>
       <c r="H15" s="11">
-        <v>5175</v>
+        <v>6301</v>
       </c>
       <c r="I15" s="11">
-        <v>4602</v>
+        <v>6188</v>
       </c>
       <c r="J15" s="11">
-        <v>6301</v>
+        <v>7177</v>
       </c>
       <c r="K15" s="11">
-        <v>6188</v>
+        <v>5564</v>
       </c>
       <c r="L15" s="11">
-        <v>7177</v>
+        <v>5925</v>
       </c>
       <c r="M15" s="11">
-        <v>5564</v>
+        <v>5989</v>
       </c>
       <c r="N15" s="11">
-        <v>5925</v>
+        <v>5684</v>
       </c>
       <c r="O15" s="11">
-        <v>5989</v>
+        <v>5627</v>
       </c>
       <c r="P15" s="11">
-        <v>5684</v>
+        <v>6098</v>
       </c>
       <c r="Q15" s="11">
-        <v>5627</v>
+        <v>6060</v>
       </c>
       <c r="R15" s="11">
-        <v>6098</v>
+        <v>7430</v>
       </c>
       <c r="S15" s="11">
-        <v>6060</v>
+        <v>5956</v>
       </c>
       <c r="T15" s="11">
-        <v>7430</v>
+        <v>6306</v>
       </c>
       <c r="U15" s="11">
-        <v>5956</v>
+        <v>5029</v>
       </c>
       <c r="V15" s="11">
-        <v>6306</v>
+        <v>5271</v>
       </c>
       <c r="W15" s="11">
-        <v>5029</v>
+        <v>5973</v>
       </c>
       <c r="X15" s="11">
-        <v>5271</v>
+        <v>7626</v>
       </c>
       <c r="Y15" s="11">
-        <v>5973</v>
+        <v>7350</v>
       </c>
       <c r="Z15" s="11">
-        <v>7626</v>
+        <v>6785</v>
       </c>
       <c r="AA15" s="11">
-        <v>7350</v>
+        <v>6517</v>
       </c>
       <c r="AB15" s="11">
-        <v>6785</v>
+        <v>685</v>
       </c>
       <c r="AC15" s="11">
-        <v>6517</v>
+        <v>7655</v>
       </c>
       <c r="AD15" s="11">
-        <v>685</v>
+        <v>7837</v>
       </c>
       <c r="AE15" s="11">
-        <v>7655</v>
+        <v>4561</v>
       </c>
       <c r="AF15" s="11">
-        <v>7837</v>
+        <v>6498</v>
       </c>
       <c r="AG15" s="11">
-        <v>4561</v>
+        <v>7309</v>
       </c>
       <c r="AH15" s="11">
-        <v>6498</v>
+        <v>5076</v>
       </c>
       <c r="AI15" s="11">
-        <v>7309</v>
+        <v>6740</v>
       </c>
       <c r="AJ15" s="11">
-        <v>5076</v>
+        <v>9146</v>
       </c>
       <c r="AK15" s="11">
-        <v>6740</v>
+        <v>9549</v>
       </c>
       <c r="AL15" s="11">
-        <v>9146</v>
+        <v>7781</v>
       </c>
       <c r="AM15" s="11">
-        <v>9549</v>
+        <v>6960</v>
       </c>
       <c r="AN15" s="11">
-        <v>7781</v>
+        <v>6835</v>
       </c>
       <c r="AO15" s="11">
-        <v>6960</v>
+        <v>5771</v>
       </c>
       <c r="AP15" s="11">
-        <v>6835</v>
+        <v>6520</v>
       </c>
       <c r="AQ15" s="11">
-        <v>5771</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>6520</v>
-      </c>
-      <c r="AS15" s="11">
         <v>5312</v>
       </c>
+      <c r="AR15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2329,41 +2329,41 @@
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>57</v>
+      <c r="AR16" s="13">
+        <v>7523</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>8275</v>
       </c>
       <c r="AT16" s="13">
-        <v>7523</v>
+        <v>7665</v>
       </c>
       <c r="AU16" s="13">
-        <v>8275</v>
+        <v>7643</v>
       </c>
       <c r="AV16" s="13">
-        <v>7665</v>
+        <v>6369</v>
       </c>
       <c r="AW16" s="13">
-        <v>7643</v>
+        <v>7595</v>
       </c>
       <c r="AX16" s="13">
-        <v>6556</v>
+        <v>9427</v>
       </c>
       <c r="AY16" s="13">
-        <v>7595</v>
+        <v>10390</v>
       </c>
       <c r="AZ16" s="13">
-        <v>9427</v>
+        <v>9881</v>
       </c>
       <c r="BA16" s="13">
-        <v>10390</v>
+        <v>9355</v>
       </c>
       <c r="BB16" s="13">
-        <v>9881</v>
+        <v>8820</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2494,35 +2494,35 @@
       <c r="AS17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>57</v>
+      <c r="AT17" s="11">
+        <v>59089</v>
       </c>
       <c r="AU17" s="11">
-        <v>58219</v>
+        <v>58356</v>
       </c>
       <c r="AV17" s="11">
-        <v>59089</v>
+        <v>54116</v>
       </c>
       <c r="AW17" s="11">
-        <v>58356</v>
+        <v>59197</v>
       </c>
       <c r="AX17" s="11">
-        <v>54901</v>
+        <v>56927</v>
       </c>
       <c r="AY17" s="11">
-        <v>59197</v>
+        <v>57966</v>
       </c>
       <c r="AZ17" s="11">
-        <v>56927</v>
+        <v>55168</v>
       </c>
       <c r="BA17" s="11">
-        <v>57966</v>
+        <v>57283</v>
       </c>
       <c r="BB17" s="11">
-        <v>55168</v>
+        <v>57379</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2653,35 +2653,35 @@
       <c r="AS18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>57</v>
+      <c r="AT18" s="13">
+        <v>8365</v>
       </c>
       <c r="AU18" s="13">
-        <v>8249</v>
+        <v>8685</v>
       </c>
       <c r="AV18" s="13">
-        <v>8365</v>
+        <v>8303</v>
       </c>
       <c r="AW18" s="13">
-        <v>8685</v>
+        <v>8629</v>
       </c>
       <c r="AX18" s="13">
-        <v>8303</v>
+        <v>8238</v>
       </c>
       <c r="AY18" s="13">
-        <v>8629</v>
+        <v>8125</v>
       </c>
       <c r="AZ18" s="13">
-        <v>8238</v>
+        <v>7923</v>
       </c>
       <c r="BA18" s="13">
-        <v>8125</v>
+        <v>8173</v>
       </c>
       <c r="BB18" s="13">
-        <v>7923</v>
+        <v>8020</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="BA19" s="15"/>
       <c r="BB19" s="15"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2798,11 +2798,11 @@
       <c r="V20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>57</v>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
       </c>
       <c r="Y20" s="17">
         <v>0</v>
@@ -2895,164 +2895,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>87722</v>
+        <v>78790</v>
       </c>
       <c r="F21" s="19">
-        <v>79719</v>
+        <v>80548</v>
       </c>
       <c r="G21" s="19">
-        <v>78790</v>
+        <v>80561</v>
       </c>
       <c r="H21" s="19">
-        <v>80548</v>
+        <v>89150</v>
       </c>
       <c r="I21" s="19">
-        <v>80561</v>
+        <v>91494</v>
       </c>
       <c r="J21" s="19">
-        <v>89150</v>
+        <v>82893</v>
       </c>
       <c r="K21" s="19">
-        <v>91494</v>
+        <v>76593</v>
       </c>
       <c r="L21" s="19">
-        <v>82893</v>
+        <v>80296</v>
       </c>
       <c r="M21" s="19">
-        <v>76593</v>
+        <v>67726</v>
       </c>
       <c r="N21" s="19">
-        <v>80296</v>
+        <v>78430</v>
       </c>
       <c r="O21" s="19">
-        <v>67726</v>
+        <v>79411</v>
       </c>
       <c r="P21" s="19">
-        <v>78430</v>
+        <v>82671</v>
       </c>
       <c r="Q21" s="19">
-        <v>79411</v>
+        <v>82466</v>
       </c>
       <c r="R21" s="19">
-        <v>82671</v>
+        <v>80572</v>
       </c>
       <c r="S21" s="19">
-        <v>82466</v>
+        <v>85231</v>
       </c>
       <c r="T21" s="19">
-        <v>80572</v>
+        <v>90454</v>
       </c>
       <c r="U21" s="19">
-        <v>85231</v>
+        <v>70122</v>
       </c>
       <c r="V21" s="19">
-        <v>90454</v>
+        <v>82488</v>
       </c>
       <c r="W21" s="19">
-        <v>70122</v>
+        <v>83253</v>
       </c>
       <c r="X21" s="19">
-        <v>82488</v>
+        <v>86560</v>
       </c>
       <c r="Y21" s="19">
-        <v>83253</v>
+        <v>147301</v>
       </c>
       <c r="Z21" s="19">
-        <v>86560</v>
+        <v>72281</v>
       </c>
       <c r="AA21" s="19">
-        <v>147301</v>
+        <v>75401</v>
       </c>
       <c r="AB21" s="19">
-        <v>72281</v>
+        <v>55621</v>
       </c>
       <c r="AC21" s="19">
-        <v>75401</v>
+        <v>83193</v>
       </c>
       <c r="AD21" s="19">
-        <v>55621</v>
+        <v>91348</v>
       </c>
       <c r="AE21" s="19">
-        <v>83193</v>
+        <v>75646</v>
       </c>
       <c r="AF21" s="19">
-        <v>91348</v>
+        <v>84072</v>
       </c>
       <c r="AG21" s="19">
-        <v>75646</v>
+        <v>69387</v>
       </c>
       <c r="AH21" s="19">
-        <v>84072</v>
+        <v>37992</v>
       </c>
       <c r="AI21" s="19">
-        <v>69387</v>
+        <v>91434</v>
       </c>
       <c r="AJ21" s="19">
-        <v>37992</v>
+        <v>89659</v>
       </c>
       <c r="AK21" s="19">
-        <v>91434</v>
+        <v>96641</v>
       </c>
       <c r="AL21" s="19">
-        <v>89659</v>
+        <v>89682</v>
       </c>
       <c r="AM21" s="19">
-        <v>96641</v>
+        <v>83479</v>
       </c>
       <c r="AN21" s="19">
-        <v>89682</v>
+        <v>87740</v>
       </c>
       <c r="AO21" s="19">
-        <v>83479</v>
+        <v>86344</v>
       </c>
       <c r="AP21" s="19">
-        <v>87740</v>
+        <v>90453</v>
       </c>
       <c r="AQ21" s="19">
-        <v>86344</v>
+        <v>75057</v>
       </c>
       <c r="AR21" s="19">
-        <v>90453</v>
+        <v>74054</v>
       </c>
       <c r="AS21" s="19">
-        <v>75057</v>
+        <v>89043</v>
       </c>
       <c r="AT21" s="19">
-        <v>73648</v>
+        <v>89670</v>
       </c>
       <c r="AU21" s="19">
-        <v>88624</v>
+        <v>89404</v>
       </c>
       <c r="AV21" s="19">
-        <v>89670</v>
+        <v>82287</v>
       </c>
       <c r="AW21" s="19">
-        <v>89404</v>
+        <v>90197</v>
       </c>
       <c r="AX21" s="19">
-        <v>85520</v>
+        <v>92560</v>
       </c>
       <c r="AY21" s="19">
-        <v>90197</v>
+        <v>96893</v>
       </c>
       <c r="AZ21" s="19">
-        <v>92560</v>
+        <v>93297</v>
       </c>
       <c r="BA21" s="19">
-        <v>96893</v>
+        <v>94901</v>
       </c>
       <c r="BB21" s="19">
-        <v>93297</v>
+        <v>94845</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3107,7 +3107,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3162,7 +3162,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3217,7 +3217,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>68</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3429,7 +3429,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>32910</v>
+        <v>0</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -3504,46 +3504,46 @@
         <v>0</v>
       </c>
       <c r="H28" s="11">
-        <v>0</v>
+        <v>23039</v>
       </c>
       <c r="I28" s="11">
-        <v>0</v>
+        <v>25302</v>
       </c>
       <c r="J28" s="11">
-        <v>23039</v>
+        <v>0</v>
       </c>
       <c r="K28" s="11">
-        <v>25302</v>
+        <v>30602</v>
       </c>
       <c r="L28" s="11">
         <v>0</v>
       </c>
       <c r="M28" s="11">
-        <v>30602</v>
+        <v>25626</v>
       </c>
       <c r="N28" s="11">
         <v>0</v>
       </c>
       <c r="O28" s="11">
-        <v>25626</v>
+        <v>0</v>
       </c>
       <c r="P28" s="11">
-        <v>0</v>
+        <v>49510</v>
       </c>
       <c r="Q28" s="11">
         <v>0</v>
       </c>
       <c r="R28" s="11">
-        <v>49510</v>
+        <v>0</v>
       </c>
       <c r="S28" s="11">
-        <v>0</v>
+        <v>28613</v>
       </c>
       <c r="T28" s="11">
         <v>0</v>
       </c>
       <c r="U28" s="11">
-        <v>28613</v>
+        <v>0</v>
       </c>
       <c r="V28" s="11">
         <v>0</v>
@@ -3558,22 +3558,22 @@
         <v>0</v>
       </c>
       <c r="Z28" s="11">
-        <v>0</v>
+        <v>30922</v>
       </c>
       <c r="AA28" s="11">
         <v>0</v>
       </c>
       <c r="AB28" s="11">
-        <v>30922</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="11">
-        <v>0</v>
+        <v>26952</v>
       </c>
       <c r="AD28" s="11">
         <v>0</v>
       </c>
       <c r="AE28" s="11">
-        <v>26952</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="11">
         <v>0</v>
@@ -3585,40 +3585,40 @@
         <v>0</v>
       </c>
       <c r="AI28" s="11">
-        <v>0</v>
+        <v>33839</v>
       </c>
       <c r="AJ28" s="11">
         <v>0</v>
       </c>
       <c r="AK28" s="11">
-        <v>33839</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="11">
         <v>0</v>
       </c>
       <c r="AM28" s="11">
-        <v>0</v>
+        <v>34479</v>
       </c>
       <c r="AN28" s="11">
         <v>0</v>
       </c>
       <c r="AO28" s="11">
-        <v>34479</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="11">
-        <v>0</v>
+        <v>25321</v>
       </c>
       <c r="AQ28" s="11">
         <v>0</v>
       </c>
       <c r="AR28" s="11">
-        <v>25321</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="11">
         <v>0</v>
       </c>
-      <c r="AT28" s="11">
-        <v>0</v>
+      <c r="AT28" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU28" s="11" t="s">
         <v>57</v>
@@ -3645,7 +3645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
@@ -3654,130 +3654,130 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>63921</v>
+        <v>73573</v>
       </c>
       <c r="F29" s="13">
-        <v>33720</v>
+        <v>56833</v>
       </c>
       <c r="G29" s="13">
-        <v>73573</v>
+        <v>45238</v>
       </c>
       <c r="H29" s="13">
-        <v>56833</v>
+        <v>73681</v>
       </c>
       <c r="I29" s="13">
-        <v>45238</v>
+        <v>45048</v>
       </c>
       <c r="J29" s="13">
-        <v>73681</v>
+        <v>61504</v>
       </c>
       <c r="K29" s="13">
-        <v>45048</v>
+        <v>28214</v>
       </c>
       <c r="L29" s="13">
-        <v>61504</v>
+        <v>34816</v>
       </c>
       <c r="M29" s="13">
-        <v>28214</v>
+        <v>56836</v>
       </c>
       <c r="N29" s="13">
-        <v>34816</v>
+        <v>16503</v>
       </c>
       <c r="O29" s="13">
-        <v>56836</v>
+        <v>16523</v>
       </c>
       <c r="P29" s="13">
-        <v>16503</v>
+        <v>74669</v>
       </c>
       <c r="Q29" s="13">
-        <v>16523</v>
+        <v>50137</v>
       </c>
       <c r="R29" s="13">
-        <v>74669</v>
+        <v>79315</v>
       </c>
       <c r="S29" s="13">
-        <v>50137</v>
+        <v>0</v>
       </c>
       <c r="T29" s="13">
-        <v>79315</v>
+        <v>57277</v>
       </c>
       <c r="U29" s="13">
-        <v>0</v>
+        <v>16657</v>
       </c>
       <c r="V29" s="13">
-        <v>57277</v>
+        <v>41176</v>
       </c>
       <c r="W29" s="13">
-        <v>16657</v>
+        <v>0</v>
       </c>
       <c r="X29" s="13">
-        <v>41176</v>
+        <v>98426</v>
       </c>
       <c r="Y29" s="13">
-        <v>0</v>
+        <v>50639</v>
       </c>
       <c r="Z29" s="13">
-        <v>98426</v>
+        <v>82052</v>
       </c>
       <c r="AA29" s="13">
-        <v>50639</v>
+        <v>92633</v>
       </c>
       <c r="AB29" s="13">
-        <v>82052</v>
+        <v>16784</v>
       </c>
       <c r="AC29" s="13">
-        <v>92633</v>
+        <v>93679</v>
       </c>
       <c r="AD29" s="13">
-        <v>16784</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="13">
-        <v>93679</v>
+        <v>123233</v>
       </c>
       <c r="AF29" s="13">
-        <v>0</v>
+        <v>45037</v>
       </c>
       <c r="AG29" s="13">
-        <v>123233</v>
+        <v>41466</v>
       </c>
       <c r="AH29" s="13">
-        <v>45037</v>
+        <v>34491</v>
       </c>
       <c r="AI29" s="13">
-        <v>41466</v>
+        <v>75496</v>
       </c>
       <c r="AJ29" s="13">
-        <v>34491</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="13">
-        <v>75496</v>
+        <v>118362</v>
       </c>
       <c r="AL29" s="13">
         <v>0</v>
       </c>
       <c r="AM29" s="13">
-        <v>118362</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="13">
-        <v>0</v>
+        <v>75828</v>
       </c>
       <c r="AO29" s="13">
-        <v>0</v>
+        <v>68266</v>
       </c>
       <c r="AP29" s="13">
-        <v>75828</v>
+        <v>104780</v>
       </c>
       <c r="AQ29" s="13">
-        <v>68266</v>
+        <v>14414</v>
       </c>
       <c r="AR29" s="13">
-        <v>104780</v>
+        <v>58176</v>
       </c>
       <c r="AS29" s="13">
-        <v>14414</v>
-      </c>
-      <c r="AT29" s="13">
-        <v>58176</v>
+        <v>49097</v>
+      </c>
+      <c r="AT29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU29" s="13" t="s">
         <v>57</v>
@@ -3804,7 +3804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
@@ -3813,157 +3813,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>0</v>
+        <v>8682</v>
       </c>
       <c r="F30" s="11">
-        <v>8069</v>
+        <v>3272</v>
       </c>
       <c r="G30" s="11">
-        <v>8682</v>
+        <v>7387</v>
       </c>
       <c r="H30" s="11">
-        <v>3272</v>
+        <v>4000</v>
       </c>
       <c r="I30" s="11">
-        <v>7387</v>
+        <v>13630</v>
       </c>
       <c r="J30" s="11">
-        <v>4000</v>
+        <v>11537</v>
       </c>
       <c r="K30" s="11">
-        <v>13630</v>
+        <v>15243</v>
       </c>
       <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
         <v>11537</v>
       </c>
-      <c r="M30" s="11">
-        <v>15243</v>
-      </c>
       <c r="N30" s="11">
-        <v>0</v>
+        <v>4556</v>
       </c>
       <c r="O30" s="11">
-        <v>11537</v>
+        <v>2845</v>
       </c>
       <c r="P30" s="11">
-        <v>4556</v>
+        <v>5343</v>
       </c>
       <c r="Q30" s="11">
-        <v>2845</v>
+        <v>5301</v>
       </c>
       <c r="R30" s="11">
-        <v>5343</v>
+        <v>21962</v>
       </c>
       <c r="S30" s="11">
-        <v>5301</v>
+        <v>2515</v>
       </c>
       <c r="T30" s="11">
-        <v>21962</v>
+        <v>0</v>
       </c>
       <c r="U30" s="11">
-        <v>2515</v>
+        <v>22244</v>
       </c>
       <c r="V30" s="11">
         <v>0</v>
       </c>
       <c r="W30" s="11">
-        <v>22244</v>
+        <v>3943</v>
       </c>
       <c r="X30" s="11">
-        <v>0</v>
+        <v>6492</v>
       </c>
       <c r="Y30" s="11">
-        <v>3943</v>
+        <v>7232</v>
       </c>
       <c r="Z30" s="11">
-        <v>6492</v>
+        <v>14510</v>
       </c>
       <c r="AA30" s="11">
-        <v>7232</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="11">
-        <v>14510</v>
+        <v>4782</v>
       </c>
       <c r="AC30" s="11">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="AD30" s="11">
-        <v>4782</v>
+        <v>13947</v>
       </c>
       <c r="AE30" s="11">
-        <v>7435</v>
+        <v>590</v>
       </c>
       <c r="AF30" s="11">
-        <v>13947</v>
+        <v>29858</v>
       </c>
       <c r="AG30" s="11">
-        <v>590</v>
+        <v>13613</v>
       </c>
       <c r="AH30" s="11">
-        <v>29858</v>
+        <v>3832</v>
       </c>
       <c r="AI30" s="11">
-        <v>13613</v>
+        <v>17862</v>
       </c>
       <c r="AJ30" s="11">
-        <v>3832</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="11">
-        <v>17862</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="11">
-        <v>0</v>
+        <v>25481</v>
       </c>
       <c r="AM30" s="11">
         <v>0</v>
       </c>
       <c r="AN30" s="11">
-        <v>25481</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="11">
-        <v>0</v>
+        <v>23252</v>
       </c>
       <c r="AP30" s="11">
         <v>0</v>
       </c>
       <c r="AQ30" s="11">
-        <v>23252</v>
+        <v>12868</v>
       </c>
       <c r="AR30" s="11">
         <v>0</v>
       </c>
       <c r="AS30" s="11">
-        <v>12868</v>
+        <v>12855</v>
       </c>
       <c r="AT30" s="11">
-        <v>0</v>
+        <v>12866</v>
       </c>
       <c r="AU30" s="11">
-        <v>12855</v>
+        <v>12861</v>
       </c>
       <c r="AV30" s="11">
-        <v>12866</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="11">
-        <v>12861</v>
+        <v>12807</v>
       </c>
       <c r="AX30" s="11">
-        <v>0</v>
+        <v>6573</v>
       </c>
       <c r="AY30" s="11">
-        <v>12807</v>
+        <v>7779</v>
       </c>
       <c r="AZ30" s="11">
-        <v>6574</v>
+        <v>12407</v>
       </c>
       <c r="BA30" s="11">
-        <v>7779</v>
+        <v>9932</v>
       </c>
       <c r="BB30" s="11">
-        <v>12407</v>
+        <v>16609</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
@@ -3972,157 +3972,157 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>0</v>
+        <v>4504</v>
       </c>
       <c r="F31" s="13">
-        <v>5058</v>
+        <v>3276</v>
       </c>
       <c r="G31" s="13">
-        <v>4504</v>
+        <v>4735</v>
       </c>
       <c r="H31" s="13">
-        <v>3276</v>
+        <v>2532</v>
       </c>
       <c r="I31" s="13">
-        <v>4735</v>
+        <v>11311</v>
       </c>
       <c r="J31" s="13">
-        <v>2532</v>
+        <v>11057</v>
       </c>
       <c r="K31" s="13">
-        <v>11311</v>
+        <v>9897</v>
       </c>
       <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
         <v>11057</v>
       </c>
-      <c r="M31" s="13">
-        <v>9897</v>
-      </c>
       <c r="N31" s="13">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="O31" s="13">
-        <v>11057</v>
+        <v>1296</v>
       </c>
       <c r="P31" s="13">
-        <v>1950</v>
+        <v>2845</v>
       </c>
       <c r="Q31" s="13">
-        <v>1296</v>
+        <v>5304</v>
       </c>
       <c r="R31" s="13">
-        <v>2845</v>
+        <v>20517</v>
       </c>
       <c r="S31" s="13">
-        <v>5304</v>
+        <v>1664</v>
       </c>
       <c r="T31" s="13">
-        <v>20517</v>
+        <v>0</v>
       </c>
       <c r="U31" s="13">
-        <v>1664</v>
+        <v>19843</v>
       </c>
       <c r="V31" s="13">
         <v>0</v>
       </c>
       <c r="W31" s="13">
-        <v>19843</v>
+        <v>2628</v>
       </c>
       <c r="X31" s="13">
-        <v>0</v>
+        <v>3235</v>
       </c>
       <c r="Y31" s="13">
-        <v>2628</v>
+        <v>4914</v>
       </c>
       <c r="Z31" s="13">
-        <v>3235</v>
+        <v>9869</v>
       </c>
       <c r="AA31" s="13">
-        <v>4914</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="13">
-        <v>9869</v>
+        <v>4803</v>
       </c>
       <c r="AC31" s="13">
-        <v>0</v>
+        <v>7253</v>
       </c>
       <c r="AD31" s="13">
-        <v>4803</v>
+        <v>12632</v>
       </c>
       <c r="AE31" s="13">
-        <v>7253</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="13">
-        <v>12632</v>
+        <v>23570</v>
       </c>
       <c r="AG31" s="13">
-        <v>0</v>
+        <v>7807</v>
       </c>
       <c r="AH31" s="13">
-        <v>23570</v>
+        <v>2728</v>
       </c>
       <c r="AI31" s="13">
-        <v>7807</v>
+        <v>14000</v>
       </c>
       <c r="AJ31" s="13">
-        <v>2728</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="13">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="13">
-        <v>0</v>
+        <v>18733</v>
       </c>
       <c r="AM31" s="13">
         <v>0</v>
       </c>
       <c r="AN31" s="13">
-        <v>18733</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="13">
-        <v>0</v>
+        <v>17423</v>
       </c>
       <c r="AP31" s="13">
         <v>0</v>
       </c>
       <c r="AQ31" s="13">
-        <v>17423</v>
+        <v>7557</v>
       </c>
       <c r="AR31" s="13">
         <v>0</v>
       </c>
       <c r="AS31" s="13">
-        <v>7557</v>
+        <v>7523</v>
       </c>
       <c r="AT31" s="13">
-        <v>0</v>
+        <v>7504</v>
       </c>
       <c r="AU31" s="13">
-        <v>7523</v>
+        <v>7515</v>
       </c>
       <c r="AV31" s="13">
-        <v>7504</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="13">
-        <v>7515</v>
+        <v>7480</v>
       </c>
       <c r="AX31" s="13">
-        <v>0</v>
+        <v>2821</v>
       </c>
       <c r="AY31" s="13">
-        <v>7480</v>
+        <v>12362</v>
       </c>
       <c r="AZ31" s="13">
-        <v>2821</v>
+        <v>14626</v>
       </c>
       <c r="BA31" s="13">
-        <v>12362</v>
+        <v>3965</v>
       </c>
       <c r="BB31" s="13">
-        <v>14626</v>
+        <v>10040</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4131,73 +4131,73 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>20983</v>
+        <v>0</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>22008</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>22008</v>
+        <v>0</v>
       </c>
       <c r="J32" s="11">
-        <v>0</v>
+        <v>21764</v>
       </c>
       <c r="K32" s="11">
-        <v>0</v>
+        <v>11089</v>
       </c>
       <c r="L32" s="11">
-        <v>21764</v>
+        <v>0</v>
       </c>
       <c r="M32" s="11">
-        <v>11089</v>
+        <v>0</v>
       </c>
       <c r="N32" s="11">
-        <v>0</v>
+        <v>5793</v>
       </c>
       <c r="O32" s="11">
-        <v>0</v>
+        <v>8737</v>
       </c>
       <c r="P32" s="11">
-        <v>5793</v>
+        <v>5277</v>
       </c>
       <c r="Q32" s="11">
-        <v>8737</v>
+        <v>0</v>
       </c>
       <c r="R32" s="11">
-        <v>5277</v>
+        <v>12404</v>
       </c>
       <c r="S32" s="11">
-        <v>0</v>
+        <v>6908</v>
       </c>
       <c r="T32" s="11">
-        <v>12404</v>
+        <v>0</v>
       </c>
       <c r="U32" s="11">
-        <v>6908</v>
+        <v>0</v>
       </c>
       <c r="V32" s="11">
-        <v>0</v>
+        <v>22211</v>
       </c>
       <c r="W32" s="11">
         <v>0</v>
       </c>
       <c r="X32" s="11">
-        <v>22211</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="11">
-        <v>0</v>
+        <v>25688</v>
       </c>
       <c r="Z32" s="11">
         <v>0</v>
       </c>
       <c r="AA32" s="11">
-        <v>25688</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="11">
         <v>0</v>
@@ -4206,52 +4206,52 @@
         <v>0</v>
       </c>
       <c r="AD32" s="11">
-        <v>0</v>
+        <v>20111</v>
       </c>
       <c r="AE32" s="11">
         <v>0</v>
       </c>
       <c r="AF32" s="11">
-        <v>20111</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="11">
-        <v>0</v>
+        <v>13566</v>
       </c>
       <c r="AH32" s="11">
-        <v>0</v>
+        <v>8835</v>
       </c>
       <c r="AI32" s="11">
-        <v>13566</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="11">
-        <v>8835</v>
+        <v>22028</v>
       </c>
       <c r="AK32" s="11">
         <v>0</v>
       </c>
       <c r="AL32" s="11">
-        <v>22028</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="11">
-        <v>0</v>
+        <v>25107</v>
       </c>
       <c r="AN32" s="11">
         <v>0</v>
       </c>
       <c r="AO32" s="11">
-        <v>25107</v>
+        <v>9980</v>
       </c>
       <c r="AP32" s="11">
-        <v>0</v>
+        <v>10039</v>
       </c>
       <c r="AQ32" s="11">
-        <v>9980</v>
-      </c>
-      <c r="AR32" s="11">
-        <v>10038</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT32" s="11" t="s">
         <v>57</v>
@@ -4281,7 +4281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>62</v>
       </c>
@@ -4406,41 +4406,41 @@
       <c r="AQ33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS33" s="13" t="s">
-        <v>57</v>
+      <c r="AR33" s="13">
+        <v>9896</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>10097</v>
       </c>
       <c r="AT33" s="13">
-        <v>9896</v>
+        <v>10228</v>
       </c>
       <c r="AU33" s="13">
-        <v>10097</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="13">
-        <v>10228</v>
+        <v>9266</v>
       </c>
       <c r="AW33" s="13">
         <v>0</v>
       </c>
       <c r="AX33" s="13">
-        <v>9266</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="13">
-        <v>0</v>
+        <v>20112</v>
       </c>
       <c r="AZ33" s="13">
-        <v>0</v>
+        <v>17189</v>
       </c>
       <c r="BA33" s="13">
-        <v>20112</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="13">
-        <v>17189</v>
+        <v>18766</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>63</v>
       </c>
@@ -4571,35 +4571,35 @@
       <c r="AS34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT34" s="11" t="s">
-        <v>57</v>
+      <c r="AT34" s="11">
+        <v>0</v>
       </c>
       <c r="AU34" s="11">
-        <v>49096</v>
+        <v>90967</v>
       </c>
       <c r="AV34" s="11">
-        <v>0</v>
+        <v>80174</v>
       </c>
       <c r="AW34" s="11">
-        <v>90967</v>
+        <v>54301</v>
       </c>
       <c r="AX34" s="11">
-        <v>80174</v>
+        <v>125419</v>
       </c>
       <c r="AY34" s="11">
-        <v>54301</v>
+        <v>21956</v>
       </c>
       <c r="AZ34" s="11">
-        <v>125418</v>
+        <v>51273</v>
       </c>
       <c r="BA34" s="11">
-        <v>21956</v>
+        <v>36756</v>
       </c>
       <c r="BB34" s="11">
-        <v>51273</v>
+        <v>85509</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>64</v>
       </c>
@@ -4730,35 +4730,35 @@
       <c r="AS35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT35" s="13" t="s">
-        <v>57</v>
+      <c r="AT35" s="13">
+        <v>32002</v>
       </c>
       <c r="AU35" s="13">
         <v>0</v>
       </c>
       <c r="AV35" s="13">
-        <v>32002</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="13">
         <v>0</v>
       </c>
       <c r="AX35" s="13">
-        <v>0</v>
+        <v>28010</v>
       </c>
       <c r="AY35" s="13">
         <v>0</v>
       </c>
       <c r="AZ35" s="13">
-        <v>28010</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="13">
         <v>0</v>
       </c>
       <c r="BB35" s="13">
-        <v>0</v>
+        <v>31046</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>65</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="BA36" s="15"/>
       <c r="BB36" s="15"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>66</v>
       </c>
@@ -4875,11 +4875,11 @@
       <c r="V37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X37" s="17" t="s">
-        <v>57</v>
+      <c r="W37" s="17">
+        <v>0</v>
+      </c>
+      <c r="X37" s="17">
+        <v>0</v>
       </c>
       <c r="Y37" s="17">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>69</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="BA38" s="15"/>
       <c r="BB38" s="15"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5089,11 +5089,11 @@
       <c r="V39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>57</v>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
       </c>
       <c r="Y39" s="17">
         <v>0</v>
@@ -5186,164 +5186,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19">
-        <v>117814</v>
+        <v>86759</v>
       </c>
       <c r="F40" s="19">
-        <v>46847</v>
+        <v>63381</v>
       </c>
       <c r="G40" s="19">
-        <v>86759</v>
+        <v>79368</v>
       </c>
       <c r="H40" s="19">
-        <v>63381</v>
+        <v>103252</v>
       </c>
       <c r="I40" s="19">
-        <v>79368</v>
+        <v>95291</v>
       </c>
       <c r="J40" s="19">
-        <v>103252</v>
+        <v>105862</v>
       </c>
       <c r="K40" s="19">
-        <v>95291</v>
+        <v>95045</v>
       </c>
       <c r="L40" s="19">
-        <v>105862</v>
+        <v>34816</v>
       </c>
       <c r="M40" s="19">
-        <v>95045</v>
+        <v>105056</v>
       </c>
       <c r="N40" s="19">
-        <v>34816</v>
+        <v>28802</v>
       </c>
       <c r="O40" s="19">
-        <v>105056</v>
+        <v>29401</v>
       </c>
       <c r="P40" s="19">
-        <v>28802</v>
+        <v>137644</v>
       </c>
       <c r="Q40" s="19">
-        <v>29401</v>
+        <v>60742</v>
       </c>
       <c r="R40" s="19">
-        <v>137644</v>
+        <v>134198</v>
       </c>
       <c r="S40" s="19">
-        <v>60742</v>
+        <v>39700</v>
       </c>
       <c r="T40" s="19">
-        <v>134198</v>
+        <v>57277</v>
       </c>
       <c r="U40" s="19">
-        <v>39700</v>
+        <v>58744</v>
       </c>
       <c r="V40" s="19">
-        <v>57277</v>
+        <v>63387</v>
       </c>
       <c r="W40" s="19">
-        <v>58744</v>
+        <v>6571</v>
       </c>
       <c r="X40" s="19">
-        <v>63387</v>
+        <v>108153</v>
       </c>
       <c r="Y40" s="19">
-        <v>6571</v>
+        <v>88473</v>
       </c>
       <c r="Z40" s="19">
-        <v>108153</v>
+        <v>137353</v>
       </c>
       <c r="AA40" s="19">
-        <v>88473</v>
+        <v>92633</v>
       </c>
       <c r="AB40" s="19">
-        <v>137353</v>
+        <v>26369</v>
       </c>
       <c r="AC40" s="19">
-        <v>92633</v>
+        <v>135319</v>
       </c>
       <c r="AD40" s="19">
-        <v>26369</v>
+        <v>46690</v>
       </c>
       <c r="AE40" s="19">
-        <v>135319</v>
+        <v>123823</v>
       </c>
       <c r="AF40" s="19">
-        <v>46690</v>
+        <v>98465</v>
       </c>
       <c r="AG40" s="19">
-        <v>123823</v>
+        <v>76452</v>
       </c>
       <c r="AH40" s="19">
-        <v>98465</v>
+        <v>49886</v>
       </c>
       <c r="AI40" s="19">
-        <v>76452</v>
+        <v>141197</v>
       </c>
       <c r="AJ40" s="19">
-        <v>49886</v>
+        <v>22028</v>
       </c>
       <c r="AK40" s="19">
-        <v>141197</v>
+        <v>118362</v>
       </c>
       <c r="AL40" s="19">
-        <v>22028</v>
+        <v>44214</v>
       </c>
       <c r="AM40" s="19">
-        <v>118362</v>
+        <v>59586</v>
       </c>
       <c r="AN40" s="19">
-        <v>44214</v>
+        <v>75828</v>
       </c>
       <c r="AO40" s="19">
-        <v>59586</v>
+        <v>118921</v>
       </c>
       <c r="AP40" s="19">
-        <v>75828</v>
+        <v>140140</v>
       </c>
       <c r="AQ40" s="19">
-        <v>118921</v>
+        <v>34839</v>
       </c>
       <c r="AR40" s="19">
-        <v>140139</v>
+        <v>68072</v>
       </c>
       <c r="AS40" s="19">
-        <v>34839</v>
+        <v>79572</v>
       </c>
       <c r="AT40" s="19">
-        <v>68072</v>
+        <v>62600</v>
       </c>
       <c r="AU40" s="19">
-        <v>79571</v>
+        <v>111343</v>
       </c>
       <c r="AV40" s="19">
-        <v>62600</v>
+        <v>89440</v>
       </c>
       <c r="AW40" s="19">
-        <v>111343</v>
+        <v>74588</v>
       </c>
       <c r="AX40" s="19">
-        <v>89440</v>
+        <v>162823</v>
       </c>
       <c r="AY40" s="19">
-        <v>74588</v>
+        <v>62209</v>
       </c>
       <c r="AZ40" s="19">
-        <v>162823</v>
+        <v>95495</v>
       </c>
       <c r="BA40" s="19">
-        <v>62209</v>
+        <v>50653</v>
       </c>
       <c r="BB40" s="19">
-        <v>95495</v>
+        <v>161970</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5398,7 +5398,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5453,7 +5453,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5508,7 +5508,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>71</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5720,7 +5720,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>71</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>399170</v>
+        <v>0</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
@@ -5795,46 +5795,46 @@
         <v>0</v>
       </c>
       <c r="H47" s="11">
-        <v>0</v>
+        <v>183836</v>
       </c>
       <c r="I47" s="11">
-        <v>0</v>
+        <v>233251</v>
       </c>
       <c r="J47" s="11">
-        <v>183836</v>
+        <v>0</v>
       </c>
       <c r="K47" s="11">
-        <v>233251</v>
+        <v>273587</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <v>273587</v>
+        <v>161981</v>
       </c>
       <c r="N47" s="11">
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <v>161981</v>
+        <v>0</v>
       </c>
       <c r="P47" s="11">
-        <v>0</v>
+        <v>169493</v>
       </c>
       <c r="Q47" s="11">
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <v>169493</v>
+        <v>0</v>
       </c>
       <c r="S47" s="11">
-        <v>0</v>
+        <v>176482</v>
       </c>
       <c r="T47" s="11">
         <v>0</v>
       </c>
       <c r="U47" s="11">
-        <v>176482</v>
+        <v>0</v>
       </c>
       <c r="V47" s="11">
         <v>0</v>
@@ -5849,22 +5849,22 @@
         <v>0</v>
       </c>
       <c r="Z47" s="11">
-        <v>0</v>
+        <v>404657</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
       </c>
       <c r="AB47" s="11">
-        <v>404657</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="11">
-        <v>0</v>
+        <v>595181</v>
       </c>
       <c r="AD47" s="11">
         <v>0</v>
       </c>
       <c r="AE47" s="11">
-        <v>595181</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="11">
         <v>0</v>
@@ -5876,40 +5876,40 @@
         <v>0</v>
       </c>
       <c r="AI47" s="11">
-        <v>0</v>
+        <v>1068033</v>
       </c>
       <c r="AJ47" s="11">
         <v>0</v>
       </c>
       <c r="AK47" s="11">
-        <v>1068033</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="11">
         <v>0</v>
       </c>
       <c r="AM47" s="11">
-        <v>0</v>
+        <v>1498293</v>
       </c>
       <c r="AN47" s="11">
         <v>0</v>
       </c>
       <c r="AO47" s="11">
-        <v>1498293</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="11">
-        <v>0</v>
+        <v>1697095</v>
       </c>
       <c r="AQ47" s="11">
         <v>0</v>
       </c>
       <c r="AR47" s="11">
-        <v>1696035</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="11">
         <v>0</v>
       </c>
-      <c r="AT47" s="11">
-        <v>0</v>
+      <c r="AT47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU47" s="11" t="s">
         <v>57</v>
@@ -5936,7 +5936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>58</v>
       </c>
@@ -5945,130 +5945,130 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>1878203</v>
+        <v>1475448</v>
       </c>
       <c r="F48" s="13">
-        <v>602256</v>
+        <v>1450571</v>
       </c>
       <c r="G48" s="13">
-        <v>1475448</v>
+        <v>1189564</v>
       </c>
       <c r="H48" s="13">
-        <v>1450571</v>
+        <v>2039462</v>
       </c>
       <c r="I48" s="13">
-        <v>1189564</v>
+        <v>1396508</v>
       </c>
       <c r="J48" s="13">
-        <v>2039462</v>
+        <v>1789558</v>
       </c>
       <c r="K48" s="13">
-        <v>1396508</v>
+        <v>809558</v>
       </c>
       <c r="L48" s="13">
-        <v>1789558</v>
+        <v>914240</v>
       </c>
       <c r="M48" s="13">
-        <v>809558</v>
+        <v>1338817</v>
       </c>
       <c r="N48" s="13">
-        <v>914240</v>
+        <v>408788</v>
       </c>
       <c r="O48" s="13">
-        <v>1338817</v>
+        <v>399956</v>
       </c>
       <c r="P48" s="13">
-        <v>408788</v>
+        <v>1707159</v>
       </c>
       <c r="Q48" s="13">
-        <v>399956</v>
+        <v>1382013</v>
       </c>
       <c r="R48" s="13">
-        <v>1707159</v>
+        <v>2460329</v>
       </c>
       <c r="S48" s="13">
-        <v>1382013</v>
+        <v>0</v>
       </c>
       <c r="T48" s="13">
-        <v>2460329</v>
+        <v>1376363</v>
       </c>
       <c r="U48" s="13">
-        <v>0</v>
+        <v>422033</v>
       </c>
       <c r="V48" s="13">
-        <v>1376363</v>
+        <v>1049352</v>
       </c>
       <c r="W48" s="13">
-        <v>422033</v>
+        <v>0</v>
       </c>
       <c r="X48" s="13">
-        <v>1049352</v>
+        <v>3240255</v>
       </c>
       <c r="Y48" s="13">
-        <v>0</v>
+        <v>2063336</v>
       </c>
       <c r="Z48" s="13">
-        <v>3240255</v>
+        <v>3971669</v>
       </c>
       <c r="AA48" s="13">
-        <v>2063336</v>
+        <v>5743178</v>
       </c>
       <c r="AB48" s="13">
-        <v>3971669</v>
+        <v>1166994</v>
       </c>
       <c r="AC48" s="13">
-        <v>5743178</v>
+        <v>7344131</v>
       </c>
       <c r="AD48" s="13">
-        <v>1166994</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="13">
-        <v>7344131</v>
+        <v>8976512</v>
       </c>
       <c r="AF48" s="13">
-        <v>0</v>
+        <v>3147594</v>
       </c>
       <c r="AG48" s="13">
-        <v>8976512</v>
+        <v>2824940</v>
       </c>
       <c r="AH48" s="13">
-        <v>3147594</v>
+        <v>2378190</v>
       </c>
       <c r="AI48" s="13">
-        <v>2824940</v>
+        <v>5585101</v>
       </c>
       <c r="AJ48" s="13">
-        <v>2378190</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="13">
-        <v>5585101</v>
+        <v>10066130</v>
       </c>
       <c r="AL48" s="13">
         <v>0</v>
       </c>
       <c r="AM48" s="13">
-        <v>10066130</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="13">
-        <v>0</v>
+        <v>6397029</v>
       </c>
       <c r="AO48" s="13">
-        <v>0</v>
+        <v>4918158</v>
       </c>
       <c r="AP48" s="13">
-        <v>6397029</v>
+        <v>8893601</v>
       </c>
       <c r="AQ48" s="13">
-        <v>4918158</v>
+        <v>1052621</v>
       </c>
       <c r="AR48" s="13">
-        <v>8956508</v>
+        <v>5248817</v>
       </c>
       <c r="AS48" s="13">
-        <v>1052621</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>5322638</v>
+        <v>4160804</v>
+      </c>
+      <c r="AT48" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU48" s="13" t="s">
         <v>57</v>
@@ -6095,7 +6095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>59</v>
       </c>
@@ -6104,157 +6104,157 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>0</v>
+        <v>245474</v>
       </c>
       <c r="F49" s="11">
-        <v>204552</v>
+        <v>104252</v>
       </c>
       <c r="G49" s="11">
-        <v>245474</v>
+        <v>247297</v>
       </c>
       <c r="H49" s="11">
-        <v>104252</v>
+        <v>169874</v>
       </c>
       <c r="I49" s="11">
-        <v>247297</v>
+        <v>672253</v>
       </c>
       <c r="J49" s="11">
-        <v>169874</v>
+        <v>350149</v>
       </c>
       <c r="K49" s="11">
-        <v>672253</v>
+        <v>525019</v>
       </c>
       <c r="L49" s="11">
-        <v>350149</v>
+        <v>0</v>
       </c>
       <c r="M49" s="11">
-        <v>525019</v>
+        <v>389462</v>
       </c>
       <c r="N49" s="11">
-        <v>0</v>
+        <v>200841</v>
       </c>
       <c r="O49" s="11">
-        <v>389462</v>
+        <v>124718</v>
       </c>
       <c r="P49" s="11">
-        <v>200841</v>
+        <v>236884</v>
       </c>
       <c r="Q49" s="11">
-        <v>124718</v>
+        <v>309723</v>
       </c>
       <c r="R49" s="11">
-        <v>236884</v>
+        <v>1382958</v>
       </c>
       <c r="S49" s="11">
-        <v>309723</v>
+        <v>151359</v>
       </c>
       <c r="T49" s="11">
-        <v>1382958</v>
+        <v>0</v>
       </c>
       <c r="U49" s="11">
-        <v>151359</v>
+        <v>857138</v>
       </c>
       <c r="V49" s="11">
         <v>0</v>
       </c>
       <c r="W49" s="11">
-        <v>857138</v>
+        <v>186772</v>
       </c>
       <c r="X49" s="11">
-        <v>0</v>
+        <v>330008</v>
       </c>
       <c r="Y49" s="11">
-        <v>186772</v>
+        <v>394392</v>
       </c>
       <c r="Z49" s="11">
-        <v>330008</v>
+        <v>967446</v>
       </c>
       <c r="AA49" s="11">
-        <v>394392</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="11">
-        <v>967446</v>
+        <v>456453</v>
       </c>
       <c r="AC49" s="11">
-        <v>0</v>
+        <v>694650</v>
       </c>
       <c r="AD49" s="11">
-        <v>456453</v>
+        <v>1355781</v>
       </c>
       <c r="AE49" s="11">
-        <v>694650</v>
+        <v>39790</v>
       </c>
       <c r="AF49" s="11">
-        <v>1355781</v>
+        <v>2372504</v>
       </c>
       <c r="AG49" s="11">
-        <v>39790</v>
+        <v>1229996</v>
       </c>
       <c r="AH49" s="11">
-        <v>2372504</v>
+        <v>269800</v>
       </c>
       <c r="AI49" s="11">
-        <v>1229996</v>
+        <v>2337265</v>
       </c>
       <c r="AJ49" s="11">
-        <v>269800</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="11">
-        <v>2337265</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="11">
-        <v>0</v>
+        <v>4558120</v>
       </c>
       <c r="AM49" s="11">
         <v>0</v>
       </c>
       <c r="AN49" s="11">
-        <v>4558120</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="11">
-        <v>0</v>
+        <v>3939798</v>
       </c>
       <c r="AP49" s="11">
         <v>0</v>
       </c>
       <c r="AQ49" s="11">
-        <v>3939798</v>
+        <v>2620806</v>
       </c>
       <c r="AR49" s="11">
         <v>0</v>
       </c>
       <c r="AS49" s="11">
-        <v>2620806</v>
+        <v>2335451</v>
       </c>
       <c r="AT49" s="11">
-        <v>0</v>
+        <v>1989709</v>
       </c>
       <c r="AU49" s="11">
-        <v>2335451</v>
+        <v>1881074</v>
       </c>
       <c r="AV49" s="11">
-        <v>2143264</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="11">
-        <v>1683060</v>
+        <v>1728017</v>
       </c>
       <c r="AX49" s="11">
-        <v>0</v>
+        <v>780262</v>
       </c>
       <c r="AY49" s="11">
-        <v>1728017</v>
+        <v>1040154</v>
       </c>
       <c r="AZ49" s="11">
-        <v>780262</v>
+        <v>1749154</v>
       </c>
       <c r="BA49" s="11">
-        <v>1040154</v>
+        <v>1436829</v>
       </c>
       <c r="BB49" s="11">
-        <v>1850997</v>
+        <v>3087703</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>60</v>
       </c>
@@ -6263,157 +6263,157 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>130894</v>
       </c>
       <c r="F50" s="13">
-        <v>140045</v>
+        <v>96162</v>
       </c>
       <c r="G50" s="13">
-        <v>130894</v>
+        <v>147125</v>
       </c>
       <c r="H50" s="13">
-        <v>96162</v>
+        <v>102633</v>
       </c>
       <c r="I50" s="13">
-        <v>147125</v>
+        <v>542466</v>
       </c>
       <c r="J50" s="13">
-        <v>102633</v>
+        <v>360464</v>
       </c>
       <c r="K50" s="13">
-        <v>542466</v>
+        <v>372862</v>
       </c>
       <c r="L50" s="13">
-        <v>360464</v>
+        <v>0</v>
       </c>
       <c r="M50" s="13">
-        <v>372862</v>
+        <v>361126</v>
       </c>
       <c r="N50" s="13">
-        <v>0</v>
+        <v>80759</v>
       </c>
       <c r="O50" s="13">
-        <v>361126</v>
+        <v>54723</v>
       </c>
       <c r="P50" s="13">
-        <v>80759</v>
+        <v>121651</v>
       </c>
       <c r="Q50" s="13">
-        <v>54723</v>
+        <v>296897</v>
       </c>
       <c r="R50" s="13">
-        <v>121651</v>
+        <v>1187570</v>
       </c>
       <c r="S50" s="13">
-        <v>296897</v>
+        <v>88641</v>
       </c>
       <c r="T50" s="13">
-        <v>1187570</v>
+        <v>0</v>
       </c>
       <c r="U50" s="13">
-        <v>88641</v>
+        <v>764649</v>
       </c>
       <c r="V50" s="13">
         <v>0</v>
       </c>
       <c r="W50" s="13">
-        <v>764649</v>
+        <v>133866</v>
       </c>
       <c r="X50" s="13">
-        <v>0</v>
+        <v>177817</v>
       </c>
       <c r="Y50" s="13">
-        <v>133866</v>
+        <v>283570</v>
       </c>
       <c r="Z50" s="13">
-        <v>177817</v>
+        <v>669413</v>
       </c>
       <c r="AA50" s="13">
-        <v>283570</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="13">
-        <v>669413</v>
+        <v>446232</v>
       </c>
       <c r="AC50" s="13">
-        <v>0</v>
+        <v>659080</v>
       </c>
       <c r="AD50" s="13">
-        <v>446232</v>
+        <v>1284571</v>
       </c>
       <c r="AE50" s="13">
-        <v>659080</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="13">
-        <v>1284571</v>
+        <v>2036645</v>
       </c>
       <c r="AG50" s="13">
-        <v>0</v>
+        <v>737101</v>
       </c>
       <c r="AH50" s="13">
-        <v>2036645</v>
+        <v>194900</v>
       </c>
       <c r="AI50" s="13">
-        <v>737101</v>
+        <v>1831650</v>
       </c>
       <c r="AJ50" s="13">
-        <v>194900</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="13">
-        <v>1831650</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="13">
-        <v>0</v>
+        <v>3365759</v>
       </c>
       <c r="AM50" s="13">
         <v>0</v>
       </c>
       <c r="AN50" s="13">
-        <v>3365759</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="13">
-        <v>0</v>
+        <v>3082401</v>
       </c>
       <c r="AP50" s="13">
         <v>0</v>
       </c>
       <c r="AQ50" s="13">
-        <v>3082401</v>
+        <v>1502760</v>
       </c>
       <c r="AR50" s="13">
         <v>0</v>
       </c>
       <c r="AS50" s="13">
-        <v>1502760</v>
+        <v>1348376</v>
       </c>
       <c r="AT50" s="13">
-        <v>0</v>
+        <v>1160506</v>
       </c>
       <c r="AU50" s="13">
-        <v>1348376</v>
+        <v>1099061</v>
       </c>
       <c r="AV50" s="13">
-        <v>1250067</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="13">
-        <v>1003505</v>
+        <v>1049053</v>
       </c>
       <c r="AX50" s="13">
-        <v>0</v>
+        <v>357849</v>
       </c>
       <c r="AY50" s="13">
-        <v>1049053</v>
+        <v>1652914</v>
       </c>
       <c r="AZ50" s="13">
-        <v>357849</v>
+        <v>1999950</v>
       </c>
       <c r="BA50" s="13">
-        <v>1652914</v>
+        <v>554869</v>
       </c>
       <c r="BB50" s="13">
-        <v>2215959</v>
+        <v>1855448</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>61</v>
       </c>
@@ -6422,73 +6422,73 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>818327</v>
+        <v>0</v>
       </c>
       <c r="F51" s="11">
         <v>0</v>
       </c>
       <c r="G51" s="11">
-        <v>0</v>
+        <v>970887</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>970887</v>
+        <v>0</v>
       </c>
       <c r="J51" s="11">
-        <v>0</v>
+        <v>907225</v>
       </c>
       <c r="K51" s="11">
-        <v>0</v>
+        <v>620528</v>
       </c>
       <c r="L51" s="11">
-        <v>907225</v>
+        <v>0</v>
       </c>
       <c r="M51" s="11">
-        <v>620528</v>
+        <v>0</v>
       </c>
       <c r="N51" s="11">
-        <v>0</v>
+        <v>261672</v>
       </c>
       <c r="O51" s="11">
-        <v>0</v>
+        <v>416787</v>
       </c>
       <c r="P51" s="11">
-        <v>261672</v>
+        <v>294524</v>
       </c>
       <c r="Q51" s="11">
-        <v>416787</v>
+        <v>0</v>
       </c>
       <c r="R51" s="11">
-        <v>294524</v>
+        <v>742185</v>
       </c>
       <c r="S51" s="11">
-        <v>0</v>
+        <v>198534</v>
       </c>
       <c r="T51" s="11">
-        <v>742185</v>
+        <v>0</v>
       </c>
       <c r="U51" s="11">
-        <v>198534</v>
+        <v>0</v>
       </c>
       <c r="V51" s="11">
-        <v>0</v>
+        <v>1054771</v>
       </c>
       <c r="W51" s="11">
         <v>0</v>
       </c>
       <c r="X51" s="11">
-        <v>1054771</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="11">
-        <v>0</v>
+        <v>1607026</v>
       </c>
       <c r="Z51" s="11">
         <v>0</v>
       </c>
       <c r="AA51" s="11">
-        <v>1607026</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="11">
         <v>0</v>
@@ -6497,52 +6497,52 @@
         <v>0</v>
       </c>
       <c r="AD51" s="11">
-        <v>0</v>
+        <v>1942872</v>
       </c>
       <c r="AE51" s="11">
         <v>0</v>
       </c>
       <c r="AF51" s="11">
-        <v>1942872</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="11">
-        <v>0</v>
+        <v>1445204</v>
       </c>
       <c r="AH51" s="11">
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="AI51" s="11">
-        <v>1445204</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="11">
-        <v>960000</v>
+        <v>2746187</v>
       </c>
       <c r="AK51" s="11">
         <v>0</v>
       </c>
       <c r="AL51" s="11">
-        <v>2746187</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="11">
-        <v>0</v>
+        <v>4000557</v>
       </c>
       <c r="AN51" s="11">
         <v>0</v>
       </c>
       <c r="AO51" s="11">
-        <v>4000557</v>
+        <v>1544237</v>
       </c>
       <c r="AP51" s="11">
-        <v>0</v>
+        <v>1760226</v>
       </c>
       <c r="AQ51" s="11">
-        <v>1544237</v>
-      </c>
-      <c r="AR51" s="11">
-        <v>1815541</v>
-      </c>
-      <c r="AS51" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT51" s="11" t="s">
         <v>57</v>
@@ -6572,7 +6572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>62</v>
       </c>
@@ -6697,41 +6697,41 @@
       <c r="AQ52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS52" s="13" t="s">
-        <v>57</v>
+      <c r="AR52" s="13">
+        <v>1990194</v>
+      </c>
+      <c r="AS52" s="13">
+        <v>1935844</v>
       </c>
       <c r="AT52" s="13">
-        <v>2084294</v>
+        <v>1784091</v>
       </c>
       <c r="AU52" s="13">
-        <v>1908254</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="13">
-        <v>1808468</v>
+        <v>1406555</v>
       </c>
       <c r="AW52" s="13">
         <v>0</v>
       </c>
       <c r="AX52" s="13">
-        <v>1274103</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="13">
-        <v>0</v>
+        <v>3137913</v>
       </c>
       <c r="AZ52" s="13">
-        <v>0</v>
+        <v>2461909</v>
       </c>
       <c r="BA52" s="13">
-        <v>3137913</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="13">
-        <v>2461909</v>
+        <v>3399345</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>63</v>
       </c>
@@ -6862,35 +6862,35 @@
       <c r="AS53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>57</v>
+      <c r="AT53" s="11">
+        <v>0</v>
       </c>
       <c r="AU53" s="11">
-        <v>4104271</v>
+        <v>6787492</v>
       </c>
       <c r="AV53" s="11">
-        <v>-56</v>
+        <v>5582676</v>
       </c>
       <c r="AW53" s="11">
-        <v>6787444</v>
+        <v>4009525</v>
       </c>
       <c r="AX53" s="11">
-        <v>5408878</v>
+        <v>10792366</v>
       </c>
       <c r="AY53" s="11">
-        <v>4009525</v>
+        <v>1543023</v>
       </c>
       <c r="AZ53" s="11">
-        <v>10740474</v>
+        <v>4165958</v>
       </c>
       <c r="BA53" s="11">
-        <v>1543023</v>
+        <v>2977225</v>
       </c>
       <c r="BB53" s="11">
-        <v>4165958</v>
+        <v>7238644</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>64</v>
       </c>
@@ -7021,35 +7021,35 @@
       <c r="AS54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>57</v>
+      <c r="AT54" s="13">
+        <v>3200463</v>
       </c>
       <c r="AU54" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="13">
-        <v>3200463</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="13">
         <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <v>-166</v>
+        <v>630300</v>
       </c>
       <c r="AY54" s="13">
         <v>0</v>
       </c>
       <c r="AZ54" s="13">
-        <v>630300</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="13">
         <v>0</v>
       </c>
       <c r="BB54" s="13">
-        <v>0</v>
+        <v>1221025</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>73</v>
       </c>
@@ -7106,7 +7106,7 @@
       <c r="BA55" s="15"/>
       <c r="BB55" s="15"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>66</v>
       </c>
@@ -7168,11 +7168,11 @@
       <c r="V56" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="17" t="s">
-        <v>57</v>
+      <c r="W56" s="17">
+        <v>0</v>
+      </c>
+      <c r="X56" s="17">
+        <v>0</v>
       </c>
       <c r="Y56" s="17">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>74</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="BA57" s="15"/>
       <c r="BB57" s="15"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>70</v>
       </c>
@@ -7384,11 +7384,11 @@
       <c r="V58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X58" s="17" t="s">
-        <v>57</v>
+      <c r="W58" s="17">
+        <v>0</v>
+      </c>
+      <c r="X58" s="17">
+        <v>0</v>
       </c>
       <c r="Y58" s="17">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>75</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>76</v>
       </c>
@@ -7600,11 +7600,11 @@
       <c r="V60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>57</v>
+      <c r="W60" s="11">
+        <v>0</v>
+      </c>
+      <c r="X60" s="11">
+        <v>0</v>
       </c>
       <c r="Y60" s="11">
         <v>0</v>
@@ -7697,164 +7697,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19">
-        <v>3095700</v>
+        <v>1851816</v>
       </c>
       <c r="F61" s="19">
-        <v>946853</v>
+        <v>1650985</v>
       </c>
       <c r="G61" s="19">
-        <v>1851816</v>
+        <v>2554873</v>
       </c>
       <c r="H61" s="19">
-        <v>1650985</v>
+        <v>2495805</v>
       </c>
       <c r="I61" s="19">
-        <v>2554873</v>
+        <v>2844478</v>
       </c>
       <c r="J61" s="19">
-        <v>2495805</v>
+        <v>3407396</v>
       </c>
       <c r="K61" s="19">
-        <v>2844478</v>
+        <v>2601554</v>
       </c>
       <c r="L61" s="19">
-        <v>3407396</v>
+        <v>914240</v>
       </c>
       <c r="M61" s="19">
-        <v>2601554</v>
+        <v>2251386</v>
       </c>
       <c r="N61" s="19">
-        <v>914240</v>
+        <v>952060</v>
       </c>
       <c r="O61" s="19">
-        <v>2251386</v>
+        <v>996184</v>
       </c>
       <c r="P61" s="19">
-        <v>952060</v>
+        <v>2529711</v>
       </c>
       <c r="Q61" s="19">
-        <v>996184</v>
+        <v>1988633</v>
       </c>
       <c r="R61" s="19">
-        <v>2529711</v>
+        <v>5773042</v>
       </c>
       <c r="S61" s="19">
-        <v>1988633</v>
+        <v>615016</v>
       </c>
       <c r="T61" s="19">
-        <v>5773042</v>
+        <v>1376363</v>
       </c>
       <c r="U61" s="19">
-        <v>615016</v>
+        <v>2043820</v>
       </c>
       <c r="V61" s="19">
-        <v>1376363</v>
+        <v>2104123</v>
       </c>
       <c r="W61" s="19">
-        <v>2043820</v>
+        <v>320638</v>
       </c>
       <c r="X61" s="19">
-        <v>2104123</v>
+        <v>3748080</v>
       </c>
       <c r="Y61" s="19">
-        <v>320638</v>
+        <v>4348324</v>
       </c>
       <c r="Z61" s="19">
-        <v>3748080</v>
+        <v>6013185</v>
       </c>
       <c r="AA61" s="19">
-        <v>4348324</v>
+        <v>5743178</v>
       </c>
       <c r="AB61" s="19">
-        <v>6013185</v>
+        <v>2069679</v>
       </c>
       <c r="AC61" s="19">
-        <v>5743178</v>
+        <v>9293042</v>
       </c>
       <c r="AD61" s="19">
-        <v>2069679</v>
+        <v>4583224</v>
       </c>
       <c r="AE61" s="19">
-        <v>9293042</v>
+        <v>9016302</v>
       </c>
       <c r="AF61" s="19">
-        <v>4583224</v>
+        <v>7556743</v>
       </c>
       <c r="AG61" s="19">
-        <v>9016302</v>
+        <v>6237241</v>
       </c>
       <c r="AH61" s="19">
-        <v>7556743</v>
+        <v>3802890</v>
       </c>
       <c r="AI61" s="19">
-        <v>6237241</v>
+        <v>10822049</v>
       </c>
       <c r="AJ61" s="19">
-        <v>3802890</v>
+        <v>2746187</v>
       </c>
       <c r="AK61" s="19">
-        <v>10822049</v>
+        <v>10066130</v>
       </c>
       <c r="AL61" s="19">
-        <v>2746187</v>
+        <v>7923879</v>
       </c>
       <c r="AM61" s="19">
-        <v>10066130</v>
+        <v>5498850</v>
       </c>
       <c r="AN61" s="19">
-        <v>7923879</v>
+        <v>6397029</v>
       </c>
       <c r="AO61" s="19">
-        <v>5498850</v>
+        <v>13484594</v>
       </c>
       <c r="AP61" s="19">
-        <v>6397029</v>
+        <v>12350922</v>
       </c>
       <c r="AQ61" s="19">
-        <v>13484594</v>
+        <v>5176187</v>
       </c>
       <c r="AR61" s="19">
-        <v>12468084</v>
+        <v>7239011</v>
       </c>
       <c r="AS61" s="19">
-        <v>5176187</v>
+        <v>9780475</v>
       </c>
       <c r="AT61" s="19">
-        <v>7406932</v>
+        <v>8134769</v>
       </c>
       <c r="AU61" s="19">
-        <v>9696353</v>
+        <v>9767627</v>
       </c>
       <c r="AV61" s="19">
-        <v>8402206</v>
+        <v>6989231</v>
       </c>
       <c r="AW61" s="19">
-        <v>9474009</v>
+        <v>6786595</v>
       </c>
       <c r="AX61" s="19">
-        <v>6682815</v>
+        <v>12560777</v>
       </c>
       <c r="AY61" s="19">
-        <v>6786595</v>
+        <v>7374004</v>
       </c>
       <c r="AZ61" s="19">
-        <v>12508885</v>
+        <v>10376971</v>
       </c>
       <c r="BA61" s="19">
-        <v>7374004</v>
+        <v>4968923</v>
       </c>
       <c r="BB61" s="19">
-        <v>10694823</v>
+        <v>16802165</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7909,7 +7909,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7964,7 +7964,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8019,7 +8019,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>77</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8231,7 +8231,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>78</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>12129140</v>
+        <v>0</v>
       </c>
       <c r="F68" s="11">
         <v>0</v>
@@ -8306,47 +8306,47 @@
         <v>0</v>
       </c>
       <c r="H68" s="11">
-        <v>0</v>
+        <v>7979339</v>
       </c>
       <c r="I68" s="11">
-        <v>0</v>
+        <v>9218678</v>
       </c>
       <c r="J68" s="11">
-        <v>7979339</v>
+        <v>0</v>
       </c>
       <c r="K68" s="11">
-        <v>9218678</v>
+        <v>8940167</v>
       </c>
       <c r="L68" s="11">
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <v>8940167</v>
+        <v>6320963</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <v>6320963</v>
+        <v>0</v>
       </c>
       <c r="P68" s="11">
-        <v>0</v>
+        <v>3423409</v>
       </c>
       <c r="Q68" s="11">
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <v>3423409</v>
+        <v>0</v>
       </c>
       <c r="S68" s="11">
-        <v>0</v>
-      </c>
-      <c r="T68" s="11">
-        <v>0</v>
-      </c>
-      <c r="U68" s="11">
         <v>6167896</v>
       </c>
+      <c r="T68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V68" s="11" t="s">
         <v>57</v>
       </c>
@@ -8359,23 +8359,23 @@
       <c r="Y68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z68" s="11" t="s">
-        <v>57</v>
+      <c r="Z68" s="11">
+        <v>13086379</v>
       </c>
       <c r="AA68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB68" s="11">
-        <v>13086379</v>
-      </c>
-      <c r="AC68" s="11" t="s">
-        <v>57</v>
+      <c r="AB68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC68" s="11">
+        <v>22082999</v>
       </c>
       <c r="AD68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE68" s="11">
-        <v>22082999</v>
+      <c r="AE68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AF68" s="11" t="s">
         <v>57</v>
@@ -8386,35 +8386,35 @@
       <c r="AH68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI68" s="11" t="s">
-        <v>57</v>
+      <c r="AI68" s="11">
+        <v>31562192</v>
       </c>
       <c r="AJ68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK68" s="11">
-        <v>31562192</v>
+      <c r="AK68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AL68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM68" s="11" t="s">
-        <v>57</v>
+      <c r="AM68" s="11">
+        <v>43455234</v>
       </c>
       <c r="AN68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO68" s="11">
-        <v>43455234</v>
-      </c>
-      <c r="AP68" s="11" t="s">
-        <v>57</v>
+      <c r="AO68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP68" s="11">
+        <v>67023222</v>
       </c>
       <c r="AQ68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR68" s="11">
-        <v>67011902</v>
+      <c r="AR68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS68" s="11" t="s">
         <v>57</v>
@@ -8447,7 +8447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>58</v>
       </c>
@@ -8456,130 +8456,130 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>29383192</v>
+        <v>20054205</v>
       </c>
       <c r="F69" s="13">
-        <v>17860498</v>
+        <v>25523393</v>
       </c>
       <c r="G69" s="13">
-        <v>20054205</v>
+        <v>26295681</v>
       </c>
       <c r="H69" s="13">
-        <v>25523393</v>
+        <v>27679619</v>
       </c>
       <c r="I69" s="13">
-        <v>26295681</v>
+        <v>31000444</v>
       </c>
       <c r="J69" s="13">
-        <v>27679619</v>
+        <v>29096612</v>
       </c>
       <c r="K69" s="13">
-        <v>31000444</v>
+        <v>28693486</v>
       </c>
       <c r="L69" s="13">
-        <v>29096612</v>
+        <v>26259191</v>
       </c>
       <c r="M69" s="13">
-        <v>28693486</v>
+        <v>23555792</v>
       </c>
       <c r="N69" s="13">
-        <v>26259191</v>
+        <v>24770527</v>
       </c>
       <c r="O69" s="13">
-        <v>23555792</v>
+        <v>24206016</v>
       </c>
       <c r="P69" s="13">
-        <v>24770527</v>
+        <v>22863022</v>
       </c>
       <c r="Q69" s="13">
-        <v>24206016</v>
+        <v>27564733</v>
       </c>
       <c r="R69" s="13">
-        <v>22863022</v>
+        <v>31019719</v>
       </c>
       <c r="S69" s="13">
-        <v>27564733</v>
+        <v>0</v>
       </c>
       <c r="T69" s="13">
-        <v>31019719</v>
+        <v>24029942</v>
       </c>
       <c r="U69" s="13">
-        <v>0</v>
+        <v>25336675</v>
       </c>
       <c r="V69" s="13">
-        <v>24029942</v>
-      </c>
-      <c r="W69" s="13">
-        <v>25336675</v>
+        <v>25484554</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X69" s="13">
-        <v>25484554</v>
-      </c>
-      <c r="Y69" s="13" t="s">
-        <v>57</v>
+        <v>32920722</v>
+      </c>
+      <c r="Y69" s="13">
+        <v>40745986</v>
       </c>
       <c r="Z69" s="13">
-        <v>32920722</v>
+        <v>48404292</v>
       </c>
       <c r="AA69" s="13">
-        <v>40745986</v>
+        <v>61999266</v>
       </c>
       <c r="AB69" s="13">
-        <v>48404292</v>
+        <v>69530148</v>
       </c>
       <c r="AC69" s="13">
-        <v>61999266</v>
-      </c>
-      <c r="AD69" s="13">
-        <v>69530148</v>
+        <v>78396770</v>
+      </c>
+      <c r="AD69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE69" s="13">
-        <v>78396770</v>
-      </c>
-      <c r="AF69" s="13" t="s">
-        <v>57</v>
+        <v>72841788</v>
+      </c>
+      <c r="AF69" s="13">
+        <v>69889069</v>
       </c>
       <c r="AG69" s="13">
-        <v>72841788</v>
+        <v>68126658</v>
       </c>
       <c r="AH69" s="13">
-        <v>69889069</v>
+        <v>68951031</v>
       </c>
       <c r="AI69" s="13">
-        <v>68126658</v>
-      </c>
-      <c r="AJ69" s="13">
-        <v>68951031</v>
+        <v>73978767</v>
+      </c>
+      <c r="AJ69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK69" s="13">
-        <v>73978767</v>
+        <v>85045285</v>
       </c>
       <c r="AL69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM69" s="13">
-        <v>85045285</v>
-      </c>
-      <c r="AN69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO69" s="13" t="s">
-        <v>57</v>
+      <c r="AM69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN69" s="13">
+        <v>84362360</v>
+      </c>
+      <c r="AO69" s="13">
+        <v>72044034</v>
       </c>
       <c r="AP69" s="13">
-        <v>84362360</v>
+        <v>84878803</v>
       </c>
       <c r="AQ69" s="13">
-        <v>72044034</v>
+        <v>73027681</v>
       </c>
       <c r="AR69" s="13">
-        <v>84990395</v>
+        <v>90223064</v>
       </c>
       <c r="AS69" s="13">
-        <v>73027681</v>
-      </c>
-      <c r="AT69" s="13">
-        <v>91491990</v>
+        <v>84746604</v>
+      </c>
+      <c r="AT69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU69" s="13" t="s">
         <v>57</v>
@@ -8606,7 +8606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>59</v>
       </c>
@@ -8615,157 +8615,157 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>0</v>
+        <v>28273900</v>
       </c>
       <c r="F70" s="11">
-        <v>25350353</v>
+        <v>31861858</v>
       </c>
       <c r="G70" s="11">
-        <v>28273900</v>
+        <v>33477325</v>
       </c>
       <c r="H70" s="11">
-        <v>31861858</v>
+        <v>42468500</v>
       </c>
       <c r="I70" s="11">
-        <v>33477325</v>
+        <v>49321570</v>
       </c>
       <c r="J70" s="11">
-        <v>42468500</v>
+        <v>30350091</v>
       </c>
       <c r="K70" s="11">
-        <v>49321570</v>
+        <v>34443285</v>
       </c>
       <c r="L70" s="11">
-        <v>30350091</v>
+        <v>0</v>
       </c>
       <c r="M70" s="11">
-        <v>34443285</v>
+        <v>33757649</v>
       </c>
       <c r="N70" s="11">
-        <v>0</v>
+        <v>44082748</v>
       </c>
       <c r="O70" s="11">
-        <v>33757649</v>
+        <v>43837610</v>
       </c>
       <c r="P70" s="11">
-        <v>44082748</v>
+        <v>44335392</v>
       </c>
       <c r="Q70" s="11">
-        <v>43837610</v>
+        <v>58427278</v>
       </c>
       <c r="R70" s="11">
-        <v>44335392</v>
+        <v>62970494</v>
       </c>
       <c r="S70" s="11">
-        <v>58427278</v>
-      </c>
-      <c r="T70" s="11">
-        <v>62970494</v>
+        <v>60182505</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U70" s="11">
-        <v>60182505</v>
+        <v>38533447</v>
       </c>
       <c r="V70" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W70" s="11">
-        <v>38533447</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>57</v>
+        <v>47367994</v>
+      </c>
+      <c r="X70" s="11">
+        <v>50833025</v>
       </c>
       <c r="Y70" s="11">
-        <v>47367994</v>
+        <v>54534292</v>
       </c>
       <c r="Z70" s="11">
-        <v>50833025</v>
-      </c>
-      <c r="AA70" s="11">
-        <v>54534292</v>
+        <v>66674431</v>
+      </c>
+      <c r="AA70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB70" s="11">
-        <v>66674431</v>
-      </c>
-      <c r="AC70" s="11" t="s">
-        <v>57</v>
+        <v>95452321</v>
+      </c>
+      <c r="AC70" s="11">
+        <v>93429724</v>
       </c>
       <c r="AD70" s="11">
-        <v>95452321</v>
+        <v>97209507</v>
       </c>
       <c r="AE70" s="11">
-        <v>93429724</v>
+        <v>67440678</v>
       </c>
       <c r="AF70" s="11">
-        <v>97209507</v>
+        <v>79459575</v>
       </c>
       <c r="AG70" s="11">
-        <v>67440678</v>
+        <v>90354514</v>
       </c>
       <c r="AH70" s="11">
-        <v>79459575</v>
+        <v>70407098</v>
       </c>
       <c r="AI70" s="11">
-        <v>90354514</v>
-      </c>
-      <c r="AJ70" s="11">
-        <v>70407098</v>
-      </c>
-      <c r="AK70" s="11">
         <v>130851248</v>
       </c>
-      <c r="AL70" s="11" t="s">
-        <v>57</v>
+      <c r="AJ70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL70" s="11">
+        <v>178883089</v>
       </c>
       <c r="AM70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN70" s="11">
-        <v>178883089</v>
-      </c>
-      <c r="AO70" s="11" t="s">
-        <v>57</v>
+      <c r="AN70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO70" s="11">
+        <v>169439102</v>
       </c>
       <c r="AP70" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AQ70" s="11">
-        <v>169439102</v>
-      </c>
-      <c r="AR70" s="11">
-        <v>0</v>
+        <v>203668480</v>
+      </c>
+      <c r="AR70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS70" s="11">
-        <v>203668480</v>
-      </c>
-      <c r="AT70" s="11" t="s">
-        <v>57</v>
+        <v>181676468</v>
+      </c>
+      <c r="AT70" s="11">
+        <v>154648609</v>
       </c>
       <c r="AU70" s="11">
-        <v>181676468</v>
-      </c>
-      <c r="AV70" s="11">
-        <v>160618633</v>
+        <v>146261877</v>
+      </c>
+      <c r="AV70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW70" s="11">
-        <v>141129587</v>
+        <v>134927540</v>
       </c>
       <c r="AX70" s="11">
-        <v>0</v>
+        <v>118707135</v>
       </c>
       <c r="AY70" s="11">
-        <v>134927540</v>
+        <v>133713074</v>
       </c>
       <c r="AZ70" s="11">
-        <v>118689078</v>
+        <v>140981220</v>
       </c>
       <c r="BA70" s="11">
-        <v>133713074</v>
+        <v>144666633</v>
       </c>
       <c r="BB70" s="11">
-        <v>149189732</v>
+        <v>185905413</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>60</v>
       </c>
@@ -8774,157 +8774,157 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>0</v>
+        <v>29061723</v>
       </c>
       <c r="F71" s="13">
-        <v>27687821</v>
+        <v>29353480</v>
       </c>
       <c r="G71" s="13">
-        <v>29061723</v>
+        <v>31071806</v>
       </c>
       <c r="H71" s="13">
-        <v>29353480</v>
+        <v>40534360</v>
       </c>
       <c r="I71" s="13">
-        <v>31071806</v>
+        <v>47959155</v>
       </c>
       <c r="J71" s="13">
-        <v>40534360</v>
+        <v>32600525</v>
       </c>
       <c r="K71" s="13">
-        <v>47959155</v>
+        <v>37674245</v>
       </c>
       <c r="L71" s="13">
-        <v>32600525</v>
+        <v>0</v>
       </c>
       <c r="M71" s="13">
-        <v>37674245</v>
+        <v>32660396</v>
       </c>
       <c r="N71" s="13">
-        <v>0</v>
+        <v>41414872</v>
       </c>
       <c r="O71" s="13">
-        <v>32660396</v>
+        <v>42224537</v>
       </c>
       <c r="P71" s="13">
-        <v>41414872</v>
+        <v>42759578</v>
       </c>
       <c r="Q71" s="13">
-        <v>42224537</v>
+        <v>55976056</v>
       </c>
       <c r="R71" s="13">
-        <v>42759578</v>
+        <v>57882244</v>
       </c>
       <c r="S71" s="13">
-        <v>55976056</v>
-      </c>
-      <c r="T71" s="13">
-        <v>57882244</v>
+        <v>53269832</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U71" s="13">
-        <v>53269832</v>
+        <v>38534949</v>
       </c>
       <c r="V71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="W71" s="13">
-        <v>38534949</v>
-      </c>
-      <c r="X71" s="13" t="s">
-        <v>57</v>
+        <v>50938356</v>
+      </c>
+      <c r="X71" s="13">
+        <v>54966615</v>
       </c>
       <c r="Y71" s="13">
-        <v>50938356</v>
+        <v>57706553</v>
       </c>
       <c r="Z71" s="13">
-        <v>54966615</v>
-      </c>
-      <c r="AA71" s="13">
-        <v>57706553</v>
+        <v>67829871</v>
+      </c>
+      <c r="AA71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AB71" s="13">
-        <v>67829871</v>
-      </c>
-      <c r="AC71" s="13" t="s">
-        <v>57</v>
+        <v>92906933</v>
+      </c>
+      <c r="AC71" s="13">
+        <v>90869985</v>
       </c>
       <c r="AD71" s="13">
-        <v>92906933</v>
-      </c>
-      <c r="AE71" s="13">
-        <v>90869985</v>
+        <v>101691814</v>
+      </c>
+      <c r="AE71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF71" s="13">
-        <v>101691814</v>
-      </c>
-      <c r="AG71" s="13" t="s">
-        <v>57</v>
+        <v>86408358</v>
+      </c>
+      <c r="AG71" s="13">
+        <v>94415396</v>
       </c>
       <c r="AH71" s="13">
-        <v>86408358</v>
+        <v>71444282</v>
       </c>
       <c r="AI71" s="13">
-        <v>94415396</v>
-      </c>
-      <c r="AJ71" s="13">
-        <v>71444282</v>
-      </c>
-      <c r="AK71" s="13">
         <v>130832143</v>
       </c>
-      <c r="AL71" s="13" t="s">
-        <v>57</v>
+      <c r="AJ71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL71" s="13">
+        <v>179670048</v>
       </c>
       <c r="AM71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN71" s="13">
-        <v>179670048</v>
-      </c>
-      <c r="AO71" s="13" t="s">
-        <v>57</v>
+      <c r="AN71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO71" s="13">
+        <v>176915629</v>
       </c>
       <c r="AP71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AQ71" s="13">
-        <v>176915629</v>
-      </c>
-      <c r="AR71" s="13">
-        <v>0</v>
+        <v>198856689</v>
+      </c>
+      <c r="AR71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS71" s="13">
-        <v>198856689</v>
-      </c>
-      <c r="AT71" s="13" t="s">
-        <v>57</v>
+        <v>179233816</v>
+      </c>
+      <c r="AT71" s="13">
+        <v>154651652</v>
       </c>
       <c r="AU71" s="13">
-        <v>179233816</v>
-      </c>
-      <c r="AV71" s="13">
-        <v>160611658</v>
+        <v>146248969</v>
+      </c>
+      <c r="AV71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW71" s="13">
-        <v>142009948</v>
+        <v>140247727</v>
       </c>
       <c r="AX71" s="13">
-        <v>0</v>
+        <v>126851826</v>
       </c>
       <c r="AY71" s="13">
-        <v>140247727</v>
+        <v>133709270</v>
       </c>
       <c r="AZ71" s="13">
-        <v>126851826</v>
+        <v>136739368</v>
       </c>
       <c r="BA71" s="13">
-        <v>133709270</v>
+        <v>139941740</v>
       </c>
       <c r="BB71" s="13">
-        <v>151508205</v>
+        <v>184805578</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>61</v>
       </c>
@@ -8933,73 +8933,73 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>38999523</v>
+        <v>0</v>
       </c>
       <c r="F72" s="11">
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <v>0</v>
+        <v>44115185</v>
       </c>
       <c r="H72" s="11">
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <v>44115185</v>
+        <v>0</v>
       </c>
       <c r="J72" s="11">
-        <v>0</v>
+        <v>41684663</v>
       </c>
       <c r="K72" s="11">
-        <v>0</v>
+        <v>55958878</v>
       </c>
       <c r="L72" s="11">
-        <v>41684663</v>
+        <v>0</v>
       </c>
       <c r="M72" s="11">
-        <v>55958878</v>
+        <v>0</v>
       </c>
       <c r="N72" s="11">
-        <v>0</v>
+        <v>45170378</v>
       </c>
       <c r="O72" s="11">
-        <v>0</v>
+        <v>47703674</v>
       </c>
       <c r="P72" s="11">
-        <v>45170378</v>
+        <v>55812772</v>
       </c>
       <c r="Q72" s="11">
-        <v>47703674</v>
+        <v>0</v>
       </c>
       <c r="R72" s="11">
-        <v>55812772</v>
+        <v>59834328</v>
       </c>
       <c r="S72" s="11">
-        <v>0</v>
-      </c>
-      <c r="T72" s="11">
-        <v>59834328</v>
-      </c>
-      <c r="U72" s="11">
         <v>28739722</v>
       </c>
-      <c r="V72" s="11" t="s">
-        <v>57</v>
+      <c r="T72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V72" s="11">
+        <v>47488677</v>
       </c>
       <c r="W72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X72" s="11">
-        <v>47488677</v>
-      </c>
-      <c r="Y72" s="11" t="s">
-        <v>57</v>
+      <c r="X72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>62559405</v>
       </c>
       <c r="Z72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA72" s="11">
-        <v>62559405</v>
+      <c r="AA72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB72" s="11" t="s">
         <v>57</v>
@@ -9007,50 +9007,50 @@
       <c r="AC72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD72" s="11" t="s">
-        <v>57</v>
+      <c r="AD72" s="11">
+        <v>96607429</v>
       </c>
       <c r="AE72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF72" s="11">
-        <v>96607429</v>
-      </c>
-      <c r="AG72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI72" s="11">
+      <c r="AF72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG72" s="11">
         <v>106531328</v>
       </c>
+      <c r="AH72" s="11">
+        <v>108658744</v>
+      </c>
+      <c r="AI72" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ72" s="11">
-        <v>108658744</v>
+        <v>124668013</v>
       </c>
       <c r="AK72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL72" s="11">
-        <v>124668013</v>
-      </c>
-      <c r="AM72" s="11" t="s">
-        <v>57</v>
+      <c r="AL72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM72" s="11">
+        <v>159340304</v>
       </c>
       <c r="AN72" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AO72" s="11">
-        <v>159340304</v>
-      </c>
-      <c r="AP72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ72" s="11">
         <v>154733166</v>
       </c>
-      <c r="AR72" s="11">
-        <v>175958010</v>
+      <c r="AP72" s="11">
+        <v>175338779</v>
+      </c>
+      <c r="AQ72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS72" s="11" t="s">
         <v>57</v>
@@ -9083,7 +9083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>62</v>
       </c>
@@ -9208,41 +9208,41 @@
       <c r="AQ73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS73" s="13" t="s">
-        <v>57</v>
+      <c r="AR73" s="13">
+        <v>201110954</v>
+      </c>
+      <c r="AS73" s="13">
+        <v>191724671</v>
       </c>
       <c r="AT73" s="13">
-        <v>210619846</v>
-      </c>
-      <c r="AU73" s="13">
-        <v>190344688</v>
+        <v>174432049</v>
+      </c>
+      <c r="AU73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV73" s="13">
-        <v>175238674</v>
-      </c>
-      <c r="AW73" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX73" s="13">
-        <v>148443112</v>
-      </c>
-      <c r="AY73" s="13" t="s">
-        <v>57</v>
+        <v>151797431</v>
+      </c>
+      <c r="AW73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY73" s="13">
+        <v>156021927</v>
       </c>
       <c r="AZ73" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA73" s="13">
-        <v>156021927</v>
+        <v>143225842</v>
+      </c>
+      <c r="BA73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB73" s="13">
-        <v>143225842</v>
+        <v>181143824</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>63</v>
       </c>
@@ -9377,31 +9377,31 @@
         <v>57</v>
       </c>
       <c r="AU74" s="11">
-        <v>84220422</v>
+        <v>74614882</v>
       </c>
       <c r="AV74" s="11">
-        <v>-522</v>
+        <v>69632000</v>
       </c>
       <c r="AW74" s="11">
-        <v>74614640</v>
+        <v>73838880</v>
       </c>
       <c r="AX74" s="11">
-        <v>69007755</v>
+        <v>86050487</v>
       </c>
       <c r="AY74" s="11">
-        <v>73838880</v>
+        <v>70277965</v>
       </c>
       <c r="AZ74" s="11">
-        <v>85637420</v>
+        <v>81250522</v>
       </c>
       <c r="BA74" s="11">
-        <v>70277965</v>
+        <v>80999701</v>
       </c>
       <c r="BB74" s="11">
-        <v>81250522</v>
+        <v>84653592</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>64</v>
       </c>
@@ -9532,32 +9532,32 @@
       <c r="AS75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT75" s="13" t="s">
-        <v>57</v>
+      <c r="AT75" s="13">
+        <v>100008218</v>
       </c>
       <c r="AU75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV75" s="13">
-        <v>100008218</v>
-      </c>
-      <c r="AW75" s="13">
-        <v>0</v>
+      <c r="AV75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX75" s="13">
-        <v>-5187</v>
+        <v>22502678</v>
       </c>
       <c r="AY75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ75" s="13">
-        <v>22502678</v>
+      <c r="AZ75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BA75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BB75" s="13" t="s">
-        <v>57</v>
+      <c r="BB75" s="13">
+        <v>39329543</v>
       </c>
     </row>
   </sheetData>
